--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
     <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9944381550183533</v>
+      </c>
+      <c r="D3">
+        <v>1.002834276583656</v>
+      </c>
+      <c r="E3">
+        <v>0.9980494587174557</v>
+      </c>
+      <c r="F3">
+        <v>1.002770845405639</v>
+      </c>
+      <c r="G3">
         <v>1.008736425504812</v>
       </c>
-      <c r="D3">
-        <v>0.9918695497656997</v>
-      </c>
-      <c r="E3">
-        <v>1.000380086643637</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>1.008736425504812</v>
-      </c>
-      <c r="G3">
-        <v>0.9980494587174557</v>
-      </c>
-      <c r="H3">
-        <v>1.002770845405639</v>
       </c>
       <c r="I3">
         <v>1.008736425504812</v>
       </c>
       <c r="J3">
+        <v>1.000380086643637</v>
+      </c>
+      <c r="K3">
         <v>0.9918695497656997</v>
       </c>
-      <c r="K3">
+      <c r="L3">
+        <v>0.9918695497656997</v>
+      </c>
+      <c r="M3">
         <v>0.9973918204054751</v>
-      </c>
-      <c r="L3">
-        <v>1.002834276583656</v>
-      </c>
-      <c r="M3">
-        <v>0.9944381550183533</v>
       </c>
       <c r="N3">
         <v>1.008736425504812</v>
@@ -764,7 +716,7 @@
         <v>0.999558827255591</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,40 +724,40 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.01676453130673</v>
+        <v>0.9892523666078221</v>
       </c>
       <c r="D4">
+        <v>1.005502931367238</v>
+      </c>
+      <c r="E4">
+        <v>0.9962814640006342</v>
+      </c>
+      <c r="F4">
+        <v>1.005348167382216</v>
+      </c>
+      <c r="G4">
+        <v>1.016764531306731</v>
+      </c>
+      <c r="H4">
+        <v>1.016764531306731</v>
+      </c>
+      <c r="I4">
+        <v>1.016764531306731</v>
+      </c>
+      <c r="J4">
+        <v>1.000729919673267</v>
+      </c>
+      <c r="K4">
         <v>0.984219402780832</v>
       </c>
-      <c r="E4">
-        <v>1.000729919673267</v>
-      </c>
-      <c r="F4">
-        <v>1.01676453130673</v>
-      </c>
-      <c r="G4">
-        <v>0.9962814640006342</v>
-      </c>
-      <c r="H4">
-        <v>1.005348167382215</v>
-      </c>
-      <c r="I4">
-        <v>1.01676453130673</v>
-      </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.984219402780832</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.9949813394367369</v>
       </c>
-      <c r="L4">
-        <v>1.005502931367238</v>
-      </c>
-      <c r="M4">
-        <v>0.9892523666078221</v>
-      </c>
       <c r="N4">
-        <v>1.01676453130673</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="O4">
         <v>1.000729919673267</v>
@@ -826,7 +778,7 @@
         <v>1.000571284586943</v>
       </c>
       <c r="U4">
-        <v>0.9994988294403657</v>
+        <v>0.9994988294403658</v>
       </c>
       <c r="V4">
         <v>1.002951969813639</v>
@@ -835,7 +787,7 @@
         <v>0.9991350153194345</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9793331859824087</v>
+      </c>
+      <c r="D5">
+        <v>1.01040879431086</v>
+      </c>
+      <c r="E5">
+        <v>0.9927895981350087</v>
+      </c>
+      <c r="F5">
+        <v>1.010360419991486</v>
+      </c>
+      <c r="G5">
         <v>1.031881816863611</v>
       </c>
-      <c r="D5">
-        <v>0.9696817847188265</v>
-      </c>
-      <c r="E5">
-        <v>1.001740853183395</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.031881816863611</v>
-      </c>
-      <c r="G5">
-        <v>0.9927895981350087</v>
-      </c>
-      <c r="H5">
-        <v>1.010360419991486</v>
       </c>
       <c r="I5">
         <v>1.031881816863611</v>
       </c>
       <c r="J5">
+        <v>1.001740853183395</v>
+      </c>
+      <c r="K5">
         <v>0.9696817847188265</v>
       </c>
-      <c r="K5">
-        <v>0.9904864649726575</v>
-      </c>
       <c r="L5">
-        <v>1.01040879431086</v>
+        <v>0.9696817847188265</v>
       </c>
       <c r="M5">
-        <v>0.9793331859824087</v>
+        <v>0.9904864649726582</v>
       </c>
       <c r="N5">
         <v>1.031881816863611</v>
@@ -906,7 +858,7 @@
         <v>0.9983353647697817</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9696495506214465</v>
+      </c>
+      <c r="D6">
+        <v>1.015004050450322</v>
+      </c>
+      <c r="E6">
+        <v>0.9892674570387295</v>
+      </c>
+      <c r="F6">
+        <v>1.01514468668081</v>
+      </c>
+      <c r="G6">
         <v>1.047007561667516</v>
       </c>
-      <c r="D6">
-        <v>0.9553634410979244</v>
-      </c>
-      <c r="E6">
-        <v>1.002835734510459</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.047007561667516</v>
-      </c>
-      <c r="G6">
-        <v>0.9892674570387295</v>
-      </c>
-      <c r="H6">
-        <v>1.01514468668081</v>
       </c>
       <c r="I6">
         <v>1.047007561667516</v>
       </c>
       <c r="J6">
+        <v>1.002835734510459</v>
+      </c>
+      <c r="K6">
         <v>0.9553634410979244</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>0.9553634410979244</v>
+      </c>
+      <c r="M6">
         <v>0.986293276412717</v>
-      </c>
-      <c r="L6">
-        <v>1.015004050450322</v>
-      </c>
-      <c r="M6">
-        <v>0.9696495506214465</v>
       </c>
       <c r="N6">
         <v>1.047007561667516</v>
@@ -977,7 +929,7 @@
         <v>0.9975707198099906</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,43 +937,43 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.999461699117193</v>
+      </c>
+      <c r="D7">
+        <v>1.000173110611032</v>
+      </c>
+      <c r="E7">
+        <v>0.9998274107832436</v>
+      </c>
+      <c r="F7">
+        <v>1.000331580878122</v>
+      </c>
+      <c r="G7">
         <v>1.000389672672429</v>
       </c>
-      <c r="D7">
-        <v>0.9991636187158033</v>
-      </c>
-      <c r="E7">
-        <v>1.000306590287313</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.000389672672429</v>
-      </c>
-      <c r="G7">
-        <v>0.9998274107832436</v>
-      </c>
-      <c r="H7">
-        <v>1.000331580878122</v>
       </c>
       <c r="I7">
         <v>1.000389672672429</v>
       </c>
       <c r="J7">
-        <v>0.9991636187158033</v>
+        <v>1.000306590287312</v>
       </c>
       <c r="K7">
+        <v>0.9991636187158035</v>
+      </c>
+      <c r="L7">
+        <v>0.9991636187158035</v>
+      </c>
+      <c r="M7">
         <v>0.9998734152710906</v>
-      </c>
-      <c r="L7">
-        <v>1.000173110611032</v>
-      </c>
-      <c r="M7">
-        <v>0.9994616991171935</v>
       </c>
       <c r="N7">
         <v>1.000389672672429</v>
       </c>
       <c r="O7">
-        <v>1.000306590287313</v>
+        <v>1.000306590287312</v>
       </c>
       <c r="P7">
         <v>0.9997351045015579</v>
@@ -1048,7 +1000,7 @@
         <v>0.9999408872920283</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,40 +1008,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001336596072071</v>
+        <v>0.9984658230784822</v>
       </c>
       <c r="D8">
-        <v>0.997643178701064</v>
+        <v>1.000551785957545</v>
       </c>
       <c r="E8">
+        <v>0.9995037810448227</v>
+      </c>
+      <c r="F8">
+        <v>1.000911040086609</v>
+      </c>
+      <c r="G8">
+        <v>1.001336596072072</v>
+      </c>
+      <c r="H8">
+        <v>1.001336596072072</v>
+      </c>
+      <c r="I8">
+        <v>1.001336596072072</v>
+      </c>
+      <c r="J8">
         <v>1.000723163314588</v>
       </c>
-      <c r="F8">
-        <v>1.001336596072071</v>
-      </c>
-      <c r="G8">
-        <v>0.9995037810448227</v>
-      </c>
-      <c r="H8">
-        <v>1.000911040086609</v>
-      </c>
-      <c r="I8">
-        <v>1.001336596072071</v>
-      </c>
-      <c r="J8">
-        <v>0.997643178701064</v>
-      </c>
       <c r="K8">
+        <v>0.9976431787010642</v>
+      </c>
+      <c r="L8">
+        <v>0.9976431787010642</v>
+      </c>
+      <c r="M8">
         <v>0.9995736563911292</v>
       </c>
-      <c r="L8">
-        <v>1.000551785957544</v>
-      </c>
-      <c r="M8">
-        <v>0.9984658230784824</v>
-      </c>
       <c r="N8">
-        <v>1.001336596072071</v>
+        <v>1.001336596072072</v>
       </c>
       <c r="O8">
         <v>1.000723163314588</v>
@@ -1098,28 +1050,28 @@
         <v>0.9991831710078262</v>
       </c>
       <c r="Q8">
-        <v>1.000113472179706</v>
+        <v>1.000113472179705</v>
       </c>
       <c r="R8">
-        <v>0.9999009793625745</v>
+        <v>0.9999009793625747</v>
       </c>
       <c r="S8">
         <v>0.9992900410201583</v>
       </c>
       <c r="T8">
-        <v>0.9999009793625745</v>
+        <v>0.9999009793625747</v>
       </c>
       <c r="U8">
-        <v>0.9998016797831366</v>
+        <v>0.9998016797831367</v>
       </c>
       <c r="V8">
-        <v>1.000108663040923</v>
+        <v>1.000108663040924</v>
       </c>
       <c r="W8">
         <v>0.9998386280807889</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9977759869262895</v>
+      </c>
+      <c r="D9">
+        <v>1.000906403884071</v>
+      </c>
+      <c r="E9">
+        <v>0.9992808055472202</v>
+      </c>
+      <c r="F9">
+        <v>1.001269519850056</v>
+      </c>
+      <c r="G9">
         <v>1.002315743361018</v>
       </c>
-      <c r="D9">
-        <v>0.9966257901109187</v>
-      </c>
-      <c r="E9">
-        <v>1.000809069011563</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>1.002315743361018</v>
-      </c>
-      <c r="G9">
-        <v>0.9992808055472202</v>
-      </c>
-      <c r="H9">
-        <v>1.001269519850056</v>
       </c>
       <c r="I9">
         <v>1.002315743361018</v>
       </c>
       <c r="J9">
+        <v>1.000809069011563</v>
+      </c>
+      <c r="K9">
         <v>0.9966257901109187</v>
       </c>
-      <c r="K9">
+      <c r="L9">
+        <v>0.9966257901109187</v>
+      </c>
+      <c r="M9">
         <v>0.9992556771262628</v>
-      </c>
-      <c r="L9">
-        <v>1.000906403884071</v>
-      </c>
-      <c r="M9">
-        <v>0.9977759869262893</v>
       </c>
       <c r="N9">
         <v>1.002315743361018</v>
@@ -1187,10 +1139,10 @@
         <v>1.000269430278347</v>
       </c>
       <c r="W9">
-        <v>0.9997798744771748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9997798744771749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9952715484304848</v>
+      </c>
+      <c r="D10">
+        <v>1.001828104450844</v>
+      </c>
+      <c r="E10">
+        <v>0.9984912121779433</v>
+      </c>
+      <c r="F10">
+        <v>1.002744022724811</v>
+      </c>
+      <c r="G10">
         <v>1.004512443530968</v>
       </c>
-      <c r="D10">
-        <v>0.992745059587561</v>
-      </c>
-      <c r="E10">
-        <v>1.001960799676365</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>1.004512443530968</v>
-      </c>
-      <c r="G10">
-        <v>0.9984912121779433</v>
-      </c>
-      <c r="H10">
-        <v>1.002744022724811</v>
       </c>
       <c r="I10">
         <v>1.004512443530968</v>
       </c>
       <c r="J10">
+        <v>1.001960799676365</v>
+      </c>
+      <c r="K10">
         <v>0.992745059587561</v>
       </c>
-      <c r="K10">
-        <v>0.9985556991757522</v>
-      </c>
       <c r="L10">
-        <v>1.001828104450844</v>
+        <v>0.992745059587561</v>
       </c>
       <c r="M10">
-        <v>0.9952715484304848</v>
+        <v>0.9985556991757523</v>
       </c>
       <c r="N10">
         <v>1.004512443530968</v>
@@ -1261,7 +1213,7 @@
         <v>0.9995136112193413</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.991976450667729</v>
+      </c>
+      <c r="D11">
+        <v>1.0034491935782</v>
+      </c>
+      <c r="E11">
+        <v>0.9974153674990693</v>
+      </c>
+      <c r="F11">
+        <v>1.00448576248894</v>
+      </c>
+      <c r="G11">
         <v>1.008944830892985</v>
       </c>
-      <c r="D11">
-        <v>0.987879123950712</v>
-      </c>
-      <c r="E11">
-        <v>1.002499377937993</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.008944830892985</v>
-      </c>
-      <c r="G11">
-        <v>0.9974153674990693</v>
-      </c>
-      <c r="H11">
-        <v>1.00448576248894</v>
       </c>
       <c r="I11">
         <v>1.008944830892985</v>
       </c>
       <c r="J11">
+        <v>1.002499377937993</v>
+      </c>
+      <c r="K11">
         <v>0.987879123950712</v>
       </c>
-      <c r="K11">
-        <v>0.9971284541736828</v>
-      </c>
       <c r="L11">
-        <v>1.0034491935782</v>
+        <v>0.987879123950712</v>
       </c>
       <c r="M11">
-        <v>0.9919764506677288</v>
+        <v>0.9971284541736829</v>
       </c>
       <c r="N11">
         <v>1.008944830892985</v>
@@ -1332,7 +1284,7 @@
         <v>0.999222320148664</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,49 +1292,49 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.121099826466081</v>
+      </c>
+      <c r="D12">
+        <v>1.002430747304343</v>
+      </c>
+      <c r="E12">
+        <v>1.041978687961073</v>
+      </c>
+      <c r="F12">
+        <v>0.910020293789749</v>
+      </c>
+      <c r="G12">
         <v>1.029052815545128</v>
       </c>
-      <c r="D12">
-        <v>1.208438615235842</v>
-      </c>
-      <c r="E12">
-        <v>0.8480313563145122</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.029052815545128</v>
-      </c>
-      <c r="G12">
-        <v>1.041978687961073</v>
-      </c>
-      <c r="H12">
-        <v>0.910020293789749</v>
       </c>
       <c r="I12">
         <v>1.029052815545128</v>
       </c>
       <c r="J12">
+        <v>0.8480313563145121</v>
+      </c>
+      <c r="K12">
         <v>1.208438615235842</v>
       </c>
-      <c r="K12">
+      <c r="L12">
+        <v>1.208438615235842</v>
+      </c>
+      <c r="M12">
         <v>0.9811293604538415</v>
-      </c>
-      <c r="L12">
-        <v>1.002430747304343</v>
-      </c>
-      <c r="M12">
-        <v>1.121099826466081</v>
       </c>
       <c r="N12">
         <v>1.029052815545128</v>
       </c>
       <c r="O12">
-        <v>0.8480313563145122</v>
+        <v>0.8480313563145121</v>
       </c>
       <c r="P12">
         <v>1.028234985775177</v>
       </c>
       <c r="Q12">
-        <v>0.9450050221377928</v>
+        <v>0.9450050221377926</v>
       </c>
       <c r="R12">
         <v>1.028507595698494</v>
@@ -1403,7 +1355,7 @@
         <v>1.017772712883821</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.011653872214887</v>
+      </c>
+      <c r="D13">
+        <v>0.9731921456920544</v>
+      </c>
+      <c r="E13">
+        <v>1.00103054220385</v>
+      </c>
+      <c r="F13">
+        <v>1.002846928100491</v>
+      </c>
+      <c r="G13">
         <v>0.9253501863210959</v>
       </c>
-      <c r="D13">
-        <v>1.011123206271381</v>
-      </c>
-      <c r="E13">
-        <v>1.041642391419102</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.9253501863210959</v>
-      </c>
-      <c r="G13">
-        <v>1.00103054220385</v>
-      </c>
-      <c r="H13">
-        <v>1.002846928100491</v>
       </c>
       <c r="I13">
         <v>0.9253501863210959</v>
       </c>
       <c r="J13">
+        <v>1.041642391419102</v>
+      </c>
+      <c r="K13">
         <v>1.011123206271381</v>
       </c>
-      <c r="K13">
+      <c r="L13">
+        <v>1.011123206271381</v>
+      </c>
+      <c r="M13">
         <v>1.027129672452167</v>
-      </c>
-      <c r="L13">
-        <v>0.9731921456920544</v>
-      </c>
-      <c r="M13">
-        <v>1.011653872214887</v>
       </c>
       <c r="N13">
         <v>0.9253501863210959</v>
@@ -1474,7 +1426,7 @@
         <v>0.9992461180843784</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,40 +1434,40 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7861127358559967</v>
+        <v>0.9443093510656936</v>
       </c>
       <c r="D14">
+        <v>0.9400114006175166</v>
+      </c>
+      <c r="E14">
+        <v>0.9839295210114044</v>
+      </c>
+      <c r="F14">
+        <v>1.064927450800309</v>
+      </c>
+      <c r="G14">
+        <v>0.7861127358559966</v>
+      </c>
+      <c r="H14">
+        <v>0.7861127358559966</v>
+      </c>
+      <c r="I14">
+        <v>0.7861127358559966</v>
+      </c>
+      <c r="J14">
+        <v>1.199091074229437</v>
+      </c>
+      <c r="K14">
         <v>0.8654670683000033</v>
       </c>
-      <c r="E14">
-        <v>1.199091074229437</v>
-      </c>
-      <c r="F14">
-        <v>0.7861127358559967</v>
-      </c>
-      <c r="G14">
-        <v>0.9839295210114044</v>
-      </c>
-      <c r="H14">
-        <v>1.064927450800309</v>
-      </c>
-      <c r="I14">
-        <v>0.7861127358559967</v>
-      </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.8654670683000033</v>
       </c>
-      <c r="K14">
-        <v>1.083132371393851</v>
-      </c>
-      <c r="L14">
-        <v>0.9400114006175166</v>
-      </c>
       <c r="M14">
-        <v>0.9443093510656936</v>
+        <v>1.083132371393852</v>
       </c>
       <c r="N14">
-        <v>0.7861127358559967</v>
+        <v>0.7861127358559966</v>
       </c>
       <c r="O14">
         <v>1.199091074229437</v>
@@ -1539,13 +1491,13 @@
         <v>0.9586500998492103</v>
       </c>
       <c r="V14">
-        <v>0.9241426270505677</v>
+        <v>0.9241426270505675</v>
       </c>
       <c r="W14">
         <v>0.9833726216592764</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.019218186962218</v>
+      </c>
+      <c r="D15">
+        <v>1.025432234718397</v>
+      </c>
+      <c r="E15">
+        <v>1.003998577029389</v>
+      </c>
+      <c r="F15">
+        <v>0.9768914029675525</v>
+      </c>
+      <c r="G15">
         <v>1.090910876987596</v>
       </c>
-      <c r="D15">
-        <v>1.053476317894016</v>
-      </c>
-      <c r="E15">
-        <v>0.9213753074936379</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>1.090910876987596</v>
-      </c>
-      <c r="G15">
-        <v>1.003998577029389</v>
-      </c>
-      <c r="H15">
-        <v>0.9768914029675525</v>
       </c>
       <c r="I15">
         <v>1.090910876987596</v>
       </c>
       <c r="J15">
-        <v>1.053476317894016</v>
+        <v>0.9213753074936379</v>
       </c>
       <c r="K15">
+        <v>1.053476317894017</v>
+      </c>
+      <c r="L15">
+        <v>1.053476317894017</v>
+      </c>
+      <c r="M15">
         <v>0.9633449958563002</v>
-      </c>
-      <c r="L15">
-        <v>1.025432234718397</v>
-      </c>
-      <c r="M15">
-        <v>1.019218186962218</v>
       </c>
       <c r="N15">
         <v>1.090910876987596</v>
@@ -1592,31 +1544,31 @@
         <v>0.9213753074936379</v>
       </c>
       <c r="P15">
-        <v>0.9874258126938271</v>
+        <v>0.9874258126938273</v>
       </c>
       <c r="Q15">
         <v>0.9626869422615136</v>
       </c>
       <c r="R15">
-        <v>1.021920834125083</v>
+        <v>1.021920834125084</v>
       </c>
       <c r="S15">
-        <v>0.9929500674723478</v>
+        <v>0.992950067472348</v>
       </c>
       <c r="T15">
-        <v>1.021920834125083</v>
+        <v>1.021920834125084</v>
       </c>
       <c r="U15">
         <v>1.01744026985116</v>
       </c>
       <c r="V15">
-        <v>1.032134391278447</v>
+        <v>1.032134391278448</v>
       </c>
       <c r="W15">
-        <v>1.006830987488638</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.006830987488639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000049054533748</v>
+        <v>0.8902780695980305</v>
       </c>
       <c r="D16">
-        <v>1.000235675401597</v>
+        <v>1.05444646943286</v>
       </c>
       <c r="E16">
-        <v>1.000210641741219</v>
+        <v>0.9620614682319131</v>
       </c>
       <c r="F16">
-        <v>1.000049054533748</v>
+        <v>1.055700457949536</v>
       </c>
       <c r="G16">
-        <v>0.9998225673610467</v>
+        <v>1.164257135903767</v>
       </c>
       <c r="H16">
-        <v>1.000132916600358</v>
+        <v>1.164257135903767</v>
       </c>
       <c r="I16">
-        <v>1.000049054533748</v>
+        <v>1.164257135903767</v>
       </c>
       <c r="J16">
-        <v>1.000235675401597</v>
+        <v>1.011717790543311</v>
       </c>
       <c r="K16">
-        <v>0.9999388979190198</v>
+        <v>0.8384137570878664</v>
       </c>
       <c r="L16">
-        <v>0.9998862239803789</v>
+        <v>0.8384137570878664</v>
       </c>
       <c r="M16">
-        <v>0.9999616251196394</v>
+        <v>0.9506753448373685</v>
       </c>
       <c r="N16">
-        <v>1.000049054533748</v>
+        <v>1.164257135903767</v>
       </c>
       <c r="O16">
-        <v>1.000210641741219</v>
+        <v>1.011717790543311</v>
       </c>
       <c r="P16">
-        <v>1.000223158571408</v>
+        <v>0.9250657738155887</v>
       </c>
       <c r="Q16">
-        <v>1.000016604551133</v>
+        <v>0.9868896293876122</v>
       </c>
       <c r="R16">
-        <v>1.000165123892188</v>
+        <v>1.004796227844982</v>
       </c>
       <c r="S16">
-        <v>1.000089628167954</v>
+        <v>0.9373976719543635</v>
       </c>
       <c r="T16">
-        <v>1.000165123892188</v>
+        <v>1.004796227844982</v>
       </c>
       <c r="U16">
-        <v>1.000079484759403</v>
+        <v>0.9941125379417144</v>
       </c>
       <c r="V16">
-        <v>1.000073398714272</v>
+        <v>1.028141457534125</v>
       </c>
       <c r="W16">
-        <v>1.000029700332126</v>
+        <v>0.9909438116980815</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000135937594402</v>
+        <v>0.9073498716516668</v>
       </c>
       <c r="D17">
-        <v>0.9987035572099885</v>
+        <v>1.041755050446464</v>
       </c>
       <c r="E17">
-        <v>1.000278179579533</v>
+        <v>0.9683131198127143</v>
       </c>
       <c r="F17">
-        <v>1.000135937594402</v>
+        <v>1.049364397250194</v>
       </c>
       <c r="G17">
-        <v>1.000016789505508</v>
+        <v>1.12189500140417</v>
       </c>
       <c r="H17">
-        <v>1.000272979213183</v>
+        <v>1.12189500140417</v>
       </c>
       <c r="I17">
-        <v>1.000135937594402</v>
+        <v>1.12189500140417</v>
       </c>
       <c r="J17">
-        <v>0.9987035572099885</v>
+        <v>1.020250857577447</v>
       </c>
       <c r="K17">
-        <v>0.9999921720315634</v>
+        <v>0.8615225889510117</v>
       </c>
       <c r="L17">
-        <v>1.000282921522342</v>
+        <v>0.8615225889510117</v>
       </c>
       <c r="M17">
-        <v>0.999407153189717</v>
+        <v>0.9634514322065159</v>
       </c>
       <c r="N17">
-        <v>1.000135937594402</v>
+        <v>1.12189500140417</v>
       </c>
       <c r="O17">
-        <v>1.000278179579533</v>
+        <v>1.020250857577447</v>
       </c>
       <c r="P17">
-        <v>0.9994908683947605</v>
+        <v>0.9408867232642293</v>
       </c>
       <c r="Q17">
-        <v>1.00014748454252</v>
+        <v>0.9942819886950807</v>
       </c>
       <c r="R17">
-        <v>0.9997058914613076</v>
+        <v>1.001222815977543</v>
       </c>
       <c r="S17">
-        <v>0.9996661754316764</v>
+        <v>0.9500288554470576</v>
       </c>
       <c r="T17">
-        <v>0.9997058914613076</v>
+        <v>1.001222815977543</v>
       </c>
       <c r="U17">
-        <v>0.9997836159723577</v>
+        <v>0.9929953919363358</v>
       </c>
       <c r="V17">
-        <v>0.9998540802967664</v>
+        <v>1.018775313829903</v>
       </c>
       <c r="W17">
-        <v>0.9998862112307795</v>
+        <v>0.991737789912523</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003118616266872</v>
+        <v>0.941573187658574</v>
       </c>
       <c r="D18">
-        <v>0.9984189804075145</v>
+        <v>1.016566268109003</v>
       </c>
       <c r="E18">
-        <v>1.00032828351623</v>
+        <v>0.9808403860166108</v>
       </c>
       <c r="F18">
-        <v>1.003118616266872</v>
+        <v>1.036527463498825</v>
       </c>
       <c r="G18">
-        <v>0.9989608601882438</v>
+        <v>1.037906311126562</v>
       </c>
       <c r="H18">
-        <v>1.001067629737468</v>
+        <v>1.037906311126562</v>
       </c>
       <c r="I18">
-        <v>1.003118616266872</v>
+        <v>1.037906311126562</v>
       </c>
       <c r="J18">
-        <v>0.9984189804075145</v>
+        <v>1.036755307722728</v>
       </c>
       <c r="K18">
-        <v>0.9989352325892222</v>
+        <v>0.9079498931325256</v>
       </c>
       <c r="L18">
-        <v>1.000629556673994</v>
+        <v>0.9079498931325256</v>
       </c>
       <c r="M18">
-        <v>0.9983317038757871</v>
+        <v>0.9887722890729395</v>
       </c>
       <c r="N18">
-        <v>1.003118616266872</v>
+        <v>1.037906311126562</v>
       </c>
       <c r="O18">
-        <v>1.00032828351623</v>
+        <v>1.036755307722728</v>
       </c>
       <c r="P18">
-        <v>0.9993736319618721</v>
+        <v>0.9723526004276267</v>
       </c>
       <c r="Q18">
-        <v>0.9996445718522368</v>
+        <v>1.008797846869669</v>
       </c>
       <c r="R18">
-        <v>1.000621960063539</v>
+        <v>0.9942038373272718</v>
       </c>
       <c r="S18">
-        <v>0.9992360413706627</v>
+        <v>0.9751818622906215</v>
       </c>
       <c r="T18">
-        <v>1.000621960063539</v>
+        <v>0.9942038373272718</v>
       </c>
       <c r="U18">
-        <v>1.000206685094715</v>
+        <v>0.9908629744996066</v>
       </c>
       <c r="V18">
-        <v>1.000789071329146</v>
+        <v>1.000271641824998</v>
       </c>
       <c r="W18">
-        <v>0.9999738579069164</v>
+        <v>0.9933613882922211</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9342246430656868</v>
+      </c>
+      <c r="D19">
+        <v>1.015644772290019</v>
+      </c>
+      <c r="E19">
+        <v>0.9781226043279216</v>
+      </c>
+      <c r="F19">
+        <v>1.042584335877588</v>
+      </c>
+      <c r="G19">
+        <v>1.03340710293344</v>
+      </c>
+      <c r="H19">
+        <v>1.03340710293344</v>
+      </c>
+      <c r="I19">
+        <v>1.03340710293344</v>
+      </c>
+      <c r="J19">
+        <v>1.048001428559747</v>
+      </c>
+      <c r="K19">
+        <v>0.8956393021237898</v>
+      </c>
+      <c r="L19">
+        <v>0.8956393021237898</v>
+      </c>
+      <c r="M19">
+        <v>0.9904810835779979</v>
+      </c>
+      <c r="N19">
+        <v>1.03340710293344</v>
+      </c>
+      <c r="O19">
+        <v>1.048001428559747</v>
+      </c>
+      <c r="P19">
+        <v>0.9718203653417686</v>
+      </c>
+      <c r="Q19">
+        <v>1.013062016443834</v>
+      </c>
+      <c r="R19">
+        <v>0.9923492778723256</v>
+      </c>
+      <c r="S19">
+        <v>0.9739211116704863</v>
+      </c>
+      <c r="T19">
+        <v>0.9923492778723256</v>
+      </c>
+      <c r="U19">
+        <v>0.9887926094862247</v>
+      </c>
+      <c r="V19">
+        <v>0.9977155081756678</v>
+      </c>
+      <c r="W19">
+        <v>0.9922631590945238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999616251196394</v>
+      </c>
+      <c r="D20">
+        <v>0.9998862239803789</v>
+      </c>
+      <c r="E20">
+        <v>0.9998225673610467</v>
+      </c>
+      <c r="F20">
+        <v>1.000132916600358</v>
+      </c>
+      <c r="G20">
+        <v>1.000049054533748</v>
+      </c>
+      <c r="H20">
+        <v>1.000049054533748</v>
+      </c>
+      <c r="I20">
+        <v>1.000049054533748</v>
+      </c>
+      <c r="J20">
+        <v>1.000210641741219</v>
+      </c>
+      <c r="K20">
+        <v>1.000235675401597</v>
+      </c>
+      <c r="L20">
+        <v>1.000235675401597</v>
+      </c>
+      <c r="M20">
+        <v>0.9999388979190198</v>
+      </c>
+      <c r="N20">
+        <v>1.000049054533748</v>
+      </c>
+      <c r="O20">
+        <v>1.000210641741219</v>
+      </c>
+      <c r="P20">
+        <v>1.000223158571408</v>
+      </c>
+      <c r="Q20">
+        <v>1.000016604551133</v>
+      </c>
+      <c r="R20">
+        <v>1.000165123892188</v>
+      </c>
+      <c r="S20">
+        <v>1.000089628167954</v>
+      </c>
+      <c r="T20">
+        <v>1.000165123892188</v>
+      </c>
+      <c r="U20">
+        <v>1.000079484759403</v>
+      </c>
+      <c r="V20">
+        <v>1.000073398714272</v>
+      </c>
+      <c r="W20">
+        <v>1.000029700332126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9994071531897171</v>
+      </c>
+      <c r="D21">
+        <v>1.000282921522341</v>
+      </c>
+      <c r="E21">
+        <v>1.000016789505508</v>
+      </c>
+      <c r="F21">
+        <v>1.000272979213183</v>
+      </c>
+      <c r="G21">
+        <v>1.000135937594402</v>
+      </c>
+      <c r="H21">
+        <v>1.000135937594402</v>
+      </c>
+      <c r="I21">
+        <v>1.000135937594402</v>
+      </c>
+      <c r="J21">
+        <v>1.000278179579533</v>
+      </c>
+      <c r="K21">
+        <v>0.9987035572099884</v>
+      </c>
+      <c r="L21">
+        <v>0.9987035572099884</v>
+      </c>
+      <c r="M21">
+        <v>0.9999921720315632</v>
+      </c>
+      <c r="N21">
+        <v>1.000135937594402</v>
+      </c>
+      <c r="O21">
+        <v>1.000278179579533</v>
+      </c>
+      <c r="P21">
+        <v>0.9994908683947605</v>
+      </c>
+      <c r="Q21">
+        <v>1.00014748454252</v>
+      </c>
+      <c r="R21">
+        <v>0.9997058914613076</v>
+      </c>
+      <c r="S21">
+        <v>0.9996661754316764</v>
+      </c>
+      <c r="T21">
+        <v>0.9997058914613076</v>
+      </c>
+      <c r="U21">
+        <v>0.9997836159723577</v>
+      </c>
+      <c r="V21">
+        <v>0.9998540802967664</v>
+      </c>
+      <c r="W21">
+        <v>0.9998862112307794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9983317038757867</v>
+      </c>
+      <c r="D22">
+        <v>1.000629556673994</v>
+      </c>
+      <c r="E22">
+        <v>0.9989608601882438</v>
+      </c>
+      <c r="F22">
+        <v>1.001067629737468</v>
+      </c>
+      <c r="G22">
+        <v>1.003118616266872</v>
+      </c>
+      <c r="H22">
+        <v>1.003118616266872</v>
+      </c>
+      <c r="I22">
+        <v>1.003118616266872</v>
+      </c>
+      <c r="J22">
+        <v>1.00032828351623</v>
+      </c>
+      <c r="K22">
+        <v>0.9984189804075145</v>
+      </c>
+      <c r="L22">
+        <v>0.9984189804075145</v>
+      </c>
+      <c r="M22">
+        <v>0.9989352325892222</v>
+      </c>
+      <c r="N22">
+        <v>1.003118616266872</v>
+      </c>
+      <c r="O22">
+        <v>1.00032828351623</v>
+      </c>
+      <c r="P22">
+        <v>0.9993736319618722</v>
+      </c>
+      <c r="Q22">
+        <v>0.9996445718522369</v>
+      </c>
+      <c r="R22">
+        <v>1.000621960063539</v>
+      </c>
+      <c r="S22">
+        <v>0.9992360413706628</v>
+      </c>
+      <c r="T22">
+        <v>1.000621960063539</v>
+      </c>
+      <c r="U22">
+        <v>1.000206685094715</v>
+      </c>
+      <c r="V22">
+        <v>1.000789071329146</v>
+      </c>
+      <c r="W22">
+        <v>0.9999738579069164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9964064570165216</v>
+      </c>
+      <c r="D23">
+        <v>1.001138502155525</v>
+      </c>
+      <c r="E23">
+        <v>0.996665794077441</v>
+      </c>
+      <c r="F23">
+        <v>1.002625755780864</v>
+      </c>
+      <c r="G23">
         <v>1.009330597550518</v>
       </c>
-      <c r="D19">
+      <c r="H23">
+        <v>1.009330597550518</v>
+      </c>
+      <c r="I23">
+        <v>1.009330597550518</v>
+      </c>
+      <c r="J23">
+        <v>1.000380999919854</v>
+      </c>
+      <c r="K23">
         <v>0.9986576352884786</v>
       </c>
-      <c r="E19">
+      <c r="L23">
+        <v>0.9986576352884786</v>
+      </c>
+      <c r="M23">
+        <v>0.9967011566207751</v>
+      </c>
+      <c r="N23">
+        <v>1.009330597550518</v>
+      </c>
+      <c r="O23">
         <v>1.000380999919854</v>
       </c>
-      <c r="F19">
-        <v>1.009330597550518</v>
-      </c>
-      <c r="G19">
-        <v>0.996665794077441</v>
-      </c>
-      <c r="H19">
-        <v>1.002625755780864</v>
-      </c>
-      <c r="I19">
-        <v>1.009330597550518</v>
-      </c>
-      <c r="J19">
-        <v>0.9986576352884786</v>
-      </c>
-      <c r="K19">
-        <v>0.9967011566207751</v>
-      </c>
-      <c r="L19">
-        <v>1.001138502155525</v>
-      </c>
-      <c r="M19">
-        <v>0.9964064570165216</v>
-      </c>
-      <c r="N19">
-        <v>1.009330597550518</v>
-      </c>
-      <c r="O19">
-        <v>1.000380999919854</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9995193176041661</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9985233969986473</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.00278974425295</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9985681430952577</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.00278974425295</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.001258756709073</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.002873124877362</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.000238362301247</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[5, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9944381550183533</v>
+        <v>0.9291179567435147</v>
       </c>
       <c r="D3">
-        <v>1.002834276583656</v>
+        <v>1.02012026463977</v>
       </c>
       <c r="E3">
-        <v>0.9980494587174557</v>
+        <v>0.9765108020533143</v>
       </c>
       <c r="F3">
-        <v>1.002770845405639</v>
+        <v>1.044455468609508</v>
       </c>
       <c r="G3">
-        <v>1.008736425504812</v>
+        <v>1.046519056181554</v>
       </c>
       <c r="H3">
-        <v>1.008736425504812</v>
+        <v>1.046519056181554</v>
       </c>
       <c r="I3">
-        <v>1.008736425504812</v>
+        <v>1.046519056181554</v>
       </c>
       <c r="J3">
-        <v>1.000380086643637</v>
+        <v>1.044585316037463</v>
       </c>
       <c r="K3">
-        <v>0.9918695497656997</v>
+        <v>0.889005780237754</v>
       </c>
       <c r="L3">
-        <v>0.9918695497656997</v>
+        <v>0.889005780237754</v>
       </c>
       <c r="M3">
-        <v>0.9973918204054751</v>
+        <v>0.9859885573487034</v>
       </c>
       <c r="N3">
-        <v>1.008736425504812</v>
+        <v>1.046519056181554</v>
       </c>
       <c r="O3">
-        <v>1.000380086643637</v>
+        <v>1.044585316037463</v>
       </c>
       <c r="P3">
-        <v>0.9961248182046682</v>
+        <v>0.9667955481376083</v>
       </c>
       <c r="Q3">
-        <v>0.9992147726805463</v>
+        <v>1.010548059045388</v>
       </c>
       <c r="R3">
-        <v>1.000328687304716</v>
+        <v>0.9933700508189237</v>
       </c>
       <c r="S3">
-        <v>0.996766365042264</v>
+        <v>0.9700339661095102</v>
       </c>
       <c r="T3">
-        <v>1.000328687304716</v>
+        <v>0.9933700508189237</v>
       </c>
       <c r="U3">
-        <v>0.999758880157901</v>
+        <v>0.9891552386275213</v>
       </c>
       <c r="V3">
-        <v>1.001554389227283</v>
+        <v>1.000628002138328</v>
       </c>
       <c r="W3">
-        <v>0.999558827255591</v>
+        <v>0.9920379002314477</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9892523666078221</v>
+        <v>0.9360850060137862</v>
       </c>
       <c r="D4">
-        <v>1.005502931367238</v>
+        <v>1.017870258048823</v>
       </c>
       <c r="E4">
-        <v>0.9962814640006342</v>
+        <v>0.9789110251593384</v>
       </c>
       <c r="F4">
-        <v>1.005348167382216</v>
+        <v>1.040157944679465</v>
       </c>
       <c r="G4">
-        <v>1.016764531306731</v>
+        <v>1.040848045309354</v>
       </c>
       <c r="H4">
-        <v>1.016764531306731</v>
+        <v>1.040848045309354</v>
       </c>
       <c r="I4">
-        <v>1.016764531306731</v>
+        <v>1.040848045309354</v>
       </c>
       <c r="J4">
-        <v>1.000729919673267</v>
+        <v>1.040794454442788</v>
       </c>
       <c r="K4">
-        <v>0.984219402780832</v>
+        <v>0.8995361725689471</v>
       </c>
       <c r="L4">
-        <v>0.984219402780832</v>
+        <v>0.8995361725689471</v>
       </c>
       <c r="M4">
-        <v>0.9949813394367369</v>
+        <v>0.987819628590196</v>
       </c>
       <c r="N4">
-        <v>1.016764531306731</v>
+        <v>1.040848045309354</v>
       </c>
       <c r="O4">
-        <v>1.000729919673267</v>
+        <v>1.040794454442788</v>
       </c>
       <c r="P4">
-        <v>0.9924746612270493</v>
+        <v>0.9701653135058674</v>
       </c>
       <c r="Q4">
-        <v>0.9985056918369504</v>
+        <v>1.009852739801063</v>
       </c>
       <c r="R4">
-        <v>1.000571284586943</v>
+        <v>0.9937262241070298</v>
       </c>
       <c r="S4">
-        <v>0.993743595484911</v>
+        <v>0.973080550723691</v>
       </c>
       <c r="T4">
-        <v>1.000571284586943</v>
+        <v>0.9937262241070298</v>
       </c>
       <c r="U4">
-        <v>0.9994988294403658</v>
+        <v>0.9900224243701069</v>
       </c>
       <c r="V4">
-        <v>1.002951969813639</v>
+        <v>1.000187548557956</v>
       </c>
       <c r="W4">
-        <v>0.9991350153194345</v>
+        <v>0.9927528168515871</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9793331859824087</v>
+        <v>0.9157563742048521</v>
       </c>
       <c r="D5">
-        <v>1.01040879431086</v>
+        <v>1.024501321832884</v>
       </c>
       <c r="E5">
-        <v>0.9927895981350087</v>
+        <v>0.9719284938005401</v>
       </c>
       <c r="F5">
-        <v>1.010360419991486</v>
+        <v>1.052665881805929</v>
       </c>
       <c r="G5">
-        <v>1.031881816863611</v>
+        <v>1.057540950700809</v>
       </c>
       <c r="H5">
-        <v>1.031881816863611</v>
+        <v>1.057540950700809</v>
       </c>
       <c r="I5">
-        <v>1.031881816863611</v>
+        <v>1.057540950700809</v>
       </c>
       <c r="J5">
-        <v>1.001740853183395</v>
+        <v>1.051728467008085</v>
       </c>
       <c r="K5">
-        <v>0.9696817847188265</v>
+        <v>0.8688069028301889</v>
       </c>
       <c r="L5">
-        <v>0.9696817847188265</v>
+        <v>0.8688069028301889</v>
       </c>
       <c r="M5">
-        <v>0.9904864649726582</v>
+        <v>0.9824226390835576</v>
       </c>
       <c r="N5">
-        <v>1.031881816863611</v>
+        <v>1.057540950700809</v>
       </c>
       <c r="O5">
-        <v>1.001740853183395</v>
+        <v>1.051728467008085</v>
       </c>
       <c r="P5">
-        <v>0.9857113189511106</v>
+        <v>0.9602676849191369</v>
       </c>
       <c r="Q5">
-        <v>0.9972652256592018</v>
+        <v>1.011828480404313</v>
       </c>
       <c r="R5">
-        <v>1.001101484921944</v>
+        <v>0.992692106846361</v>
       </c>
       <c r="S5">
-        <v>0.9880707453457434</v>
+        <v>0.964154621212938</v>
       </c>
       <c r="T5">
-        <v>1.001101484921944</v>
+        <v>0.9926921068463609</v>
       </c>
       <c r="U5">
-        <v>0.9990235132252102</v>
+        <v>0.9875012035849057</v>
       </c>
       <c r="V5">
-        <v>1.00559517395289</v>
+        <v>1.001509153008086</v>
       </c>
       <c r="W5">
-        <v>0.9983353647697817</v>
+        <v>0.9906688789083558</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9696495506214465</v>
+        <v>0.9031256390909094</v>
       </c>
       <c r="D6">
-        <v>1.015004050450322</v>
+        <v>1.028720400965909</v>
       </c>
       <c r="E6">
-        <v>0.9892674570387295</v>
+        <v>0.9676214402840909</v>
       </c>
       <c r="F6">
-        <v>1.01514468668081</v>
+        <v>1.060390134034091</v>
       </c>
       <c r="G6">
-        <v>1.047007561667516</v>
+        <v>1.068131777556818</v>
       </c>
       <c r="H6">
-        <v>1.047007561667516</v>
+        <v>1.068131777556818</v>
       </c>
       <c r="I6">
-        <v>1.047007561667516</v>
+        <v>1.068131777556818</v>
       </c>
       <c r="J6">
-        <v>1.002835734510459</v>
+        <v>1.058331279375</v>
       </c>
       <c r="K6">
-        <v>0.9553634410979244</v>
+        <v>0.8497088210795453</v>
       </c>
       <c r="L6">
-        <v>0.9553634410979244</v>
+        <v>0.8497088210795453</v>
       </c>
       <c r="M6">
-        <v>0.986293276412717</v>
+        <v>0.978987890170455</v>
       </c>
       <c r="N6">
-        <v>1.047007561667516</v>
+        <v>1.068131777556818</v>
       </c>
       <c r="O6">
-        <v>1.002835734510459</v>
+        <v>1.058331279375</v>
       </c>
       <c r="P6">
-        <v>0.9790995878041918</v>
+        <v>0.9540200502272724</v>
       </c>
       <c r="Q6">
-        <v>0.9960515957745943</v>
+        <v>1.012976359829545</v>
       </c>
       <c r="R6">
-        <v>1.001735579091966</v>
+        <v>0.9920572926704541</v>
       </c>
       <c r="S6">
-        <v>0.9824888775490378</v>
+        <v>0.9585538469128786</v>
       </c>
       <c r="T6">
-        <v>1.001735579091966</v>
+        <v>0.9920572926704541</v>
       </c>
       <c r="U6">
-        <v>0.9986185485786572</v>
+        <v>0.9859483295738632</v>
       </c>
       <c r="V6">
-        <v>1.008296351196429</v>
+        <v>1.002385019170454</v>
       </c>
       <c r="W6">
-        <v>0.9975707198099906</v>
+        <v>0.9893771728196021</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999461699117193</v>
+        <v>0.7652735871422887</v>
       </c>
       <c r="D7">
-        <v>1.000173110611032</v>
+        <v>1.074793530150887</v>
       </c>
       <c r="E7">
-        <v>0.9998274107832436</v>
+        <v>0.9040684575884221</v>
       </c>
       <c r="F7">
-        <v>1.000331580878122</v>
+        <v>1.147538526167349</v>
       </c>
       <c r="G7">
-        <v>1.000389672672429</v>
+        <v>1.237890483931834</v>
       </c>
       <c r="H7">
-        <v>1.000389672672429</v>
+        <v>1.237890483931834</v>
       </c>
       <c r="I7">
-        <v>1.000389672672429</v>
+        <v>1.237890483931834</v>
       </c>
       <c r="J7">
-        <v>1.000306590287312</v>
+        <v>1.116743433748419</v>
       </c>
       <c r="K7">
-        <v>0.9991636187158035</v>
+        <v>0.6719212839690045</v>
       </c>
       <c r="L7">
-        <v>0.9991636187158035</v>
+        <v>0.6719212839690045</v>
       </c>
       <c r="M7">
-        <v>0.9998734152710906</v>
+        <v>0.9225348166309589</v>
       </c>
       <c r="N7">
-        <v>1.000389672672429</v>
+        <v>1.237890483931834</v>
       </c>
       <c r="O7">
-        <v>1.000306590287312</v>
+        <v>1.116743433748419</v>
       </c>
       <c r="P7">
-        <v>0.9997351045015579</v>
+        <v>0.8943323588587119</v>
       </c>
       <c r="Q7">
-        <v>1.000067000535278</v>
+        <v>1.010405945668421</v>
       </c>
       <c r="R7">
-        <v>0.9999532938918483</v>
+        <v>1.008851733883086</v>
       </c>
       <c r="S7">
-        <v>0.9997658732621199</v>
+        <v>0.8975777251019487</v>
       </c>
       <c r="T7">
-        <v>0.9999532938918483</v>
+        <v>1.008851733883086</v>
       </c>
       <c r="U7">
-        <v>0.9999218231146971</v>
+        <v>0.9826559148094198</v>
       </c>
       <c r="V7">
-        <v>1.000015393026243</v>
+        <v>1.033702828633903</v>
       </c>
       <c r="W7">
-        <v>0.9999408872920283</v>
+        <v>0.9800955149161454</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9984658230784822</v>
+        <v>0.7639092835037746</v>
       </c>
       <c r="D8">
-        <v>1.000551785957545</v>
+        <v>1.075482861433785</v>
       </c>
       <c r="E8">
-        <v>0.9995037810448227</v>
+        <v>0.9037454846467128</v>
       </c>
       <c r="F8">
-        <v>1.000911040086609</v>
+        <v>1.148241365742549</v>
       </c>
       <c r="G8">
-        <v>1.001336596072072</v>
+        <v>1.239354499233444</v>
       </c>
       <c r="H8">
-        <v>1.001336596072072</v>
+        <v>1.239354499233444</v>
       </c>
       <c r="I8">
-        <v>1.001336596072072</v>
+        <v>1.239354499233444</v>
       </c>
       <c r="J8">
-        <v>1.000723163314588</v>
+        <v>1.117048426297463</v>
       </c>
       <c r="K8">
-        <v>0.9976431787010642</v>
+        <v>0.6697065804066629</v>
       </c>
       <c r="L8">
-        <v>0.9976431787010642</v>
+        <v>0.6697065804066629</v>
       </c>
       <c r="M8">
-        <v>0.9995736563911292</v>
+        <v>0.9220546002350487</v>
       </c>
       <c r="N8">
-        <v>1.001336596072072</v>
+        <v>1.239354499233444</v>
       </c>
       <c r="O8">
-        <v>1.000723163314588</v>
+        <v>1.117048426297463</v>
       </c>
       <c r="P8">
-        <v>0.9991831710078262</v>
+        <v>0.8933775033520628</v>
       </c>
       <c r="Q8">
-        <v>1.000113472179705</v>
+        <v>1.010396955472088</v>
       </c>
       <c r="R8">
-        <v>0.9999009793625747</v>
+        <v>1.008703168645856</v>
       </c>
       <c r="S8">
-        <v>0.9992900410201583</v>
+        <v>0.8968334971169462</v>
       </c>
       <c r="T8">
-        <v>0.9999009793625747</v>
+        <v>1.008703168645856</v>
       </c>
       <c r="U8">
-        <v>0.9998016797831367</v>
+        <v>0.9824637476460705</v>
       </c>
       <c r="V8">
-        <v>1.000108663040924</v>
+        <v>1.033841897963545</v>
       </c>
       <c r="W8">
-        <v>0.9998386280807889</v>
+        <v>0.97994288768743</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9977759869262895</v>
+        <v>0.7628411921938993</v>
       </c>
       <c r="D9">
-        <v>1.000906403884071</v>
+        <v>1.075629923949441</v>
       </c>
       <c r="E9">
-        <v>0.9992808055472202</v>
+        <v>0.9034721560037351</v>
       </c>
       <c r="F9">
-        <v>1.001269519850056</v>
+        <v>1.148996378946473</v>
       </c>
       <c r="G9">
-        <v>1.002315743361018</v>
+        <v>1.239177034527347</v>
       </c>
       <c r="H9">
-        <v>1.002315743361018</v>
+        <v>1.239177034527347</v>
       </c>
       <c r="I9">
-        <v>1.002315743361018</v>
+        <v>1.239177034527347</v>
       </c>
       <c r="J9">
-        <v>1.000809069011563</v>
+        <v>1.118182481382337</v>
       </c>
       <c r="K9">
-        <v>0.9966257901109187</v>
+        <v>0.6678549292193613</v>
       </c>
       <c r="L9">
-        <v>0.9966257901109187</v>
+        <v>0.6678549292193613</v>
       </c>
       <c r="M9">
-        <v>0.9992556771262628</v>
+        <v>0.9221021105445074</v>
       </c>
       <c r="N9">
-        <v>1.002315743361018</v>
+        <v>1.239177034527347</v>
       </c>
       <c r="O9">
-        <v>1.000809069011563</v>
+        <v>1.118182481382337</v>
       </c>
       <c r="P9">
-        <v>0.9987174295612407</v>
+        <v>0.8930187053008494</v>
       </c>
       <c r="Q9">
-        <v>1.000044937279391</v>
+        <v>1.010827318693036</v>
       </c>
       <c r="R9">
-        <v>0.9999168674944997</v>
+        <v>1.008404815043015</v>
       </c>
       <c r="S9">
-        <v>0.9989052215565671</v>
+        <v>0.8965031888684779</v>
       </c>
       <c r="T9">
-        <v>0.9999168674944997</v>
+        <v>1.008404815043015</v>
       </c>
       <c r="U9">
-        <v>0.9997578520076799</v>
+        <v>0.9821716502831952</v>
       </c>
       <c r="V9">
-        <v>1.000269430278347</v>
+        <v>1.033572727132026</v>
       </c>
       <c r="W9">
-        <v>0.9997798744771749</v>
+        <v>0.9797820258458876</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9952715484304848</v>
+        <v>0.7582941242658223</v>
       </c>
       <c r="D10">
-        <v>1.001828104450844</v>
+        <v>1.078648354809521</v>
       </c>
       <c r="E10">
-        <v>0.9984912121779433</v>
+        <v>0.902351474077656</v>
       </c>
       <c r="F10">
-        <v>1.002744022724811</v>
+        <v>1.151010872996001</v>
       </c>
       <c r="G10">
-        <v>1.004512443530968</v>
+        <v>1.246638609987467</v>
       </c>
       <c r="H10">
-        <v>1.004512443530968</v>
+        <v>1.246638609987467</v>
       </c>
       <c r="I10">
-        <v>1.004512443530968</v>
+        <v>1.246638609987467</v>
       </c>
       <c r="J10">
-        <v>1.001960799676365</v>
+        <v>1.117548484310738</v>
       </c>
       <c r="K10">
-        <v>0.992745059587561</v>
+        <v>0.6609025984663769</v>
       </c>
       <c r="L10">
-        <v>0.992745059587561</v>
+        <v>0.6609025984663769</v>
       </c>
       <c r="M10">
-        <v>0.9985556991757523</v>
+        <v>0.9196107882769574</v>
       </c>
       <c r="N10">
-        <v>1.004512443530968</v>
+        <v>1.246638609987467</v>
       </c>
       <c r="O10">
-        <v>1.001960799676365</v>
+        <v>1.117548484310738</v>
       </c>
       <c r="P10">
-        <v>0.9973529296319632</v>
+        <v>0.8892255413885577</v>
       </c>
       <c r="Q10">
-        <v>1.000226005927154</v>
+        <v>1.009949979194197</v>
       </c>
       <c r="R10">
-        <v>0.9997394342649649</v>
+        <v>1.008363230921527</v>
       </c>
       <c r="S10">
-        <v>0.9977323571472899</v>
+        <v>0.8936008522849238</v>
       </c>
       <c r="T10">
-        <v>0.9997394342649649</v>
+        <v>1.008363230921527</v>
       </c>
       <c r="U10">
-        <v>0.9994273787432095</v>
+        <v>0.9818602917105596</v>
       </c>
       <c r="V10">
-        <v>1.000444391700761</v>
+        <v>1.034815955365941</v>
       </c>
       <c r="W10">
-        <v>0.9995136112193413</v>
+        <v>0.9793756633988175</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.991976450667729</v>
+        <v>0.9933863362670049</v>
       </c>
       <c r="D11">
-        <v>1.0034491935782</v>
+        <v>1.003657232508415</v>
       </c>
       <c r="E11">
-        <v>0.9974153674990693</v>
+        <v>0.9976823095484235</v>
       </c>
       <c r="F11">
-        <v>1.00448576248894</v>
+        <v>1.003210274467359</v>
       </c>
       <c r="G11">
-        <v>1.008944830892985</v>
+        <v>1.0112195200874</v>
       </c>
       <c r="H11">
-        <v>1.008944830892985</v>
+        <v>1.0112195200874</v>
       </c>
       <c r="I11">
-        <v>1.008944830892985</v>
+        <v>1.0112195200874</v>
       </c>
       <c r="J11">
-        <v>1.002499377937993</v>
+        <v>0.9998611476983256</v>
       </c>
       <c r="K11">
-        <v>0.987879123950712</v>
+        <v>0.9905126237497666</v>
       </c>
       <c r="L11">
-        <v>0.987879123950712</v>
+        <v>0.9905126237497666</v>
       </c>
       <c r="M11">
-        <v>0.9971284541736829</v>
+        <v>0.9965419623808349</v>
       </c>
       <c r="N11">
-        <v>1.008944830892985</v>
+        <v>1.0112195200874</v>
       </c>
       <c r="O11">
-        <v>1.002499377937993</v>
+        <v>0.9998611476983256</v>
       </c>
       <c r="P11">
-        <v>0.9951892509443527</v>
+        <v>0.995186885724046</v>
       </c>
       <c r="Q11">
-        <v>0.9999573727185314</v>
+        <v>0.9987717286233746</v>
       </c>
       <c r="R11">
-        <v>0.9997744442605635</v>
+        <v>1.000531097178498</v>
       </c>
       <c r="S11">
-        <v>0.995931289795925</v>
+        <v>0.9960186936655052</v>
       </c>
       <c r="T11">
-        <v>0.9997744442605635</v>
+        <v>1.000531097178498</v>
       </c>
       <c r="U11">
-        <v>0.99918467507019</v>
+        <v>0.999818900270979</v>
       </c>
       <c r="V11">
-        <v>1.001136706234749</v>
+        <v>1.002099024234263</v>
       </c>
       <c r="W11">
-        <v>0.999222320148664</v>
+        <v>0.9995089258384413</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.121099826466081</v>
+        <v>0.9958835715279116</v>
       </c>
       <c r="D12">
-        <v>1.002430747304343</v>
+        <v>1.001760422092855</v>
       </c>
       <c r="E12">
-        <v>1.041978687961073</v>
+        <v>0.9984937584052799</v>
       </c>
       <c r="F12">
-        <v>0.910020293789749</v>
+        <v>1.002269206768437</v>
       </c>
       <c r="G12">
-        <v>1.029052815545128</v>
+        <v>1.005368747864904</v>
       </c>
       <c r="H12">
-        <v>1.029052815545128</v>
+        <v>1.005368747864904</v>
       </c>
       <c r="I12">
-        <v>1.029052815545128</v>
+        <v>1.005368747864904</v>
       </c>
       <c r="J12">
-        <v>0.8480313563145121</v>
+        <v>1.001060615098914</v>
       </c>
       <c r="K12">
-        <v>1.208438615235842</v>
+        <v>0.994011383876867</v>
       </c>
       <c r="L12">
-        <v>1.208438615235842</v>
+        <v>0.994011383876867</v>
       </c>
       <c r="M12">
-        <v>0.9811293604538415</v>
+        <v>0.9983640393355918</v>
       </c>
       <c r="N12">
-        <v>1.029052815545128</v>
+        <v>1.005368747864904</v>
       </c>
       <c r="O12">
-        <v>0.8480313563145121</v>
+        <v>1.001060615098914</v>
       </c>
       <c r="P12">
-        <v>1.028234985775177</v>
+        <v>0.9975359994878905</v>
       </c>
       <c r="Q12">
-        <v>0.9450050221377926</v>
+        <v>0.9997771867520968</v>
       </c>
       <c r="R12">
-        <v>1.028507595698494</v>
+        <v>1.000146915613562</v>
       </c>
       <c r="S12">
-        <v>1.032816219837143</v>
+        <v>0.9978552524603536</v>
       </c>
       <c r="T12">
-        <v>1.028507595698494</v>
+        <v>1.000146915613562</v>
       </c>
       <c r="U12">
-        <v>1.031875368764139</v>
+        <v>0.9997336263114911</v>
       </c>
       <c r="V12">
-        <v>1.031310858120337</v>
+        <v>1.000860650622174</v>
       </c>
       <c r="W12">
-        <v>1.017772712883821</v>
+        <v>0.9996514681213449</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.011653872214887</v>
+        <v>0.9849652512466271</v>
       </c>
       <c r="D13">
-        <v>0.9731921456920544</v>
+        <v>1.00625036210897</v>
       </c>
       <c r="E13">
-        <v>1.00103054220385</v>
+        <v>0.9945364274708456</v>
       </c>
       <c r="F13">
-        <v>1.002846928100491</v>
+        <v>1.008380514259601</v>
       </c>
       <c r="G13">
-        <v>0.9253501863210959</v>
+        <v>1.018852435913771</v>
       </c>
       <c r="H13">
-        <v>0.9253501863210959</v>
+        <v>1.018852435913771</v>
       </c>
       <c r="I13">
-        <v>0.9253501863210959</v>
+        <v>1.018852435913771</v>
       </c>
       <c r="J13">
-        <v>1.041642391419102</v>
+        <v>1.004303596496052</v>
       </c>
       <c r="K13">
-        <v>1.011123206271381</v>
+        <v>0.9779650566407262</v>
       </c>
       <c r="L13">
-        <v>1.011123206271381</v>
+        <v>0.9779650566407262</v>
       </c>
       <c r="M13">
-        <v>1.027129672452167</v>
+        <v>0.9942717906957362</v>
       </c>
       <c r="N13">
-        <v>0.9253501863210959</v>
+        <v>1.018852435913771</v>
       </c>
       <c r="O13">
-        <v>1.041642391419102</v>
+        <v>1.004303596496052</v>
       </c>
       <c r="P13">
-        <v>1.026382798845241</v>
+        <v>0.991134326568389</v>
       </c>
       <c r="Q13">
-        <v>1.021336466811476</v>
+        <v>0.9994200119834487</v>
       </c>
       <c r="R13">
-        <v>0.9927052613371928</v>
+        <v>1.000373696350183</v>
       </c>
       <c r="S13">
-        <v>1.017932046631444</v>
+        <v>0.9922683602025412</v>
       </c>
       <c r="T13">
-        <v>0.9927052613371928</v>
+        <v>1.000373696350183</v>
       </c>
       <c r="U13">
-        <v>0.994786581553857</v>
+        <v>0.9989143791303486</v>
       </c>
       <c r="V13">
-        <v>0.9808993025073048</v>
+        <v>1.002901990487033</v>
       </c>
       <c r="W13">
-        <v>0.9992461180843784</v>
+        <v>0.9986906793540411</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9443093510656936</v>
+        <v>0.9842950078075021</v>
       </c>
       <c r="D14">
-        <v>0.9400114006175166</v>
+        <v>1.007835205445637</v>
       </c>
       <c r="E14">
-        <v>0.9839295210114044</v>
+        <v>0.9945224091532003</v>
       </c>
       <c r="F14">
-        <v>1.064927450800309</v>
+        <v>1.007954077497401</v>
       </c>
       <c r="G14">
-        <v>0.7861127358559966</v>
+        <v>1.023825125616375</v>
       </c>
       <c r="H14">
-        <v>0.7861127358559966</v>
+        <v>1.023825125616375</v>
       </c>
       <c r="I14">
-        <v>0.7861127358559966</v>
+        <v>1.023825125616375</v>
       </c>
       <c r="J14">
-        <v>1.199091074229437</v>
+        <v>1.001542384725205</v>
       </c>
       <c r="K14">
-        <v>0.8654670683000033</v>
+        <v>0.9769770153619559</v>
       </c>
       <c r="L14">
-        <v>0.8654670683000033</v>
+        <v>0.9769770153619559</v>
       </c>
       <c r="M14">
-        <v>1.083132371393852</v>
+        <v>0.9928391274081668</v>
       </c>
       <c r="N14">
-        <v>0.7861127358559966</v>
+        <v>1.023825125616375</v>
       </c>
       <c r="O14">
-        <v>1.199091074229437</v>
+        <v>1.001542384725205</v>
       </c>
       <c r="P14">
-        <v>1.03227907126472</v>
+        <v>0.9892597000435802</v>
       </c>
       <c r="Q14">
-        <v>1.091510297620421</v>
+        <v>0.9980323969392024</v>
       </c>
       <c r="R14">
-        <v>0.950223626128479</v>
+        <v>1.000781508567845</v>
       </c>
       <c r="S14">
-        <v>1.016162554513615</v>
+        <v>0.9910139364134536</v>
       </c>
       <c r="T14">
-        <v>0.950223626128479</v>
+        <v>1.000781508567845</v>
       </c>
       <c r="U14">
-        <v>0.9586500998492103</v>
+        <v>0.999216733714184</v>
       </c>
       <c r="V14">
-        <v>0.9241426270505675</v>
+        <v>1.004138412094622</v>
       </c>
       <c r="W14">
-        <v>0.9833726216592764</v>
+        <v>0.9987237941269305</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.019218186962218</v>
+        <v>0.9944381550183533</v>
       </c>
       <c r="D15">
-        <v>1.025432234718397</v>
+        <v>1.002834276583656</v>
       </c>
       <c r="E15">
-        <v>1.003998577029389</v>
+        <v>0.9980494587174557</v>
       </c>
       <c r="F15">
-        <v>0.9768914029675525</v>
+        <v>1.002770845405639</v>
       </c>
       <c r="G15">
-        <v>1.090910876987596</v>
+        <v>1.008736425504812</v>
       </c>
       <c r="H15">
-        <v>1.090910876987596</v>
+        <v>1.008736425504812</v>
       </c>
       <c r="I15">
-        <v>1.090910876987596</v>
+        <v>1.008736425504812</v>
       </c>
       <c r="J15">
-        <v>0.9213753074936379</v>
+        <v>1.000380086643637</v>
       </c>
       <c r="K15">
-        <v>1.053476317894017</v>
+        <v>0.9918695497656997</v>
       </c>
       <c r="L15">
-        <v>1.053476317894017</v>
+        <v>0.9918695497656997</v>
       </c>
       <c r="M15">
-        <v>0.9633449958563002</v>
+        <v>0.9973918204054751</v>
       </c>
       <c r="N15">
-        <v>1.090910876987596</v>
+        <v>1.008736425504812</v>
       </c>
       <c r="O15">
-        <v>0.9213753074936379</v>
+        <v>1.000380086643637</v>
       </c>
       <c r="P15">
-        <v>0.9874258126938273</v>
+        <v>0.9961248182046682</v>
       </c>
       <c r="Q15">
-        <v>0.9626869422615136</v>
+        <v>0.9992147726805463</v>
       </c>
       <c r="R15">
-        <v>1.021920834125084</v>
+        <v>1.000328687304716</v>
       </c>
       <c r="S15">
-        <v>0.992950067472348</v>
+        <v>0.996766365042264</v>
       </c>
       <c r="T15">
-        <v>1.021920834125084</v>
+        <v>1.000328687304716</v>
       </c>
       <c r="U15">
-        <v>1.01744026985116</v>
+        <v>0.999758880157901</v>
       </c>
       <c r="V15">
-        <v>1.032134391278448</v>
+        <v>1.001554389227283</v>
       </c>
       <c r="W15">
-        <v>1.006830987488639</v>
+        <v>0.999558827255591</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8902780695980305</v>
+        <v>0.9892523666078221</v>
       </c>
       <c r="D16">
-        <v>1.05444646943286</v>
+        <v>1.005502931367238</v>
       </c>
       <c r="E16">
-        <v>0.9620614682319131</v>
+        <v>0.9962814640006342</v>
       </c>
       <c r="F16">
-        <v>1.055700457949536</v>
+        <v>1.005348167382216</v>
       </c>
       <c r="G16">
-        <v>1.164257135903767</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="H16">
-        <v>1.164257135903767</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="I16">
-        <v>1.164257135903767</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="J16">
-        <v>1.011717790543311</v>
+        <v>1.000729919673267</v>
       </c>
       <c r="K16">
-        <v>0.8384137570878664</v>
+        <v>0.984219402780832</v>
       </c>
       <c r="L16">
-        <v>0.8384137570878664</v>
+        <v>0.984219402780832</v>
       </c>
       <c r="M16">
-        <v>0.9506753448373685</v>
+        <v>0.9949813394367369</v>
       </c>
       <c r="N16">
-        <v>1.164257135903767</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="O16">
-        <v>1.011717790543311</v>
+        <v>1.000729919673267</v>
       </c>
       <c r="P16">
-        <v>0.9250657738155887</v>
+        <v>0.9924746612270493</v>
       </c>
       <c r="Q16">
-        <v>0.9868896293876122</v>
+        <v>0.9985056918369504</v>
       </c>
       <c r="R16">
-        <v>1.004796227844982</v>
+        <v>1.000571284586943</v>
       </c>
       <c r="S16">
-        <v>0.9373976719543635</v>
+        <v>0.993743595484911</v>
       </c>
       <c r="T16">
-        <v>1.004796227844982</v>
+        <v>1.000571284586943</v>
       </c>
       <c r="U16">
-        <v>0.9941125379417144</v>
+        <v>0.9994988294403658</v>
       </c>
       <c r="V16">
-        <v>1.028141457534125</v>
+        <v>1.002951969813639</v>
       </c>
       <c r="W16">
-        <v>0.9909438116980815</v>
+        <v>0.9991350153194345</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9073498716516668</v>
+        <v>0.9793331859824087</v>
       </c>
       <c r="D17">
-        <v>1.041755050446464</v>
+        <v>1.01040879431086</v>
       </c>
       <c r="E17">
-        <v>0.9683131198127143</v>
+        <v>0.9927895981350087</v>
       </c>
       <c r="F17">
-        <v>1.049364397250194</v>
+        <v>1.010360419991486</v>
       </c>
       <c r="G17">
-        <v>1.12189500140417</v>
+        <v>1.031881816863611</v>
       </c>
       <c r="H17">
-        <v>1.12189500140417</v>
+        <v>1.031881816863611</v>
       </c>
       <c r="I17">
-        <v>1.12189500140417</v>
+        <v>1.031881816863611</v>
       </c>
       <c r="J17">
-        <v>1.020250857577447</v>
+        <v>1.001740853183395</v>
       </c>
       <c r="K17">
-        <v>0.8615225889510117</v>
+        <v>0.9696817847188265</v>
       </c>
       <c r="L17">
-        <v>0.8615225889510117</v>
+        <v>0.9696817847188265</v>
       </c>
       <c r="M17">
-        <v>0.9634514322065159</v>
+        <v>0.9904864649726582</v>
       </c>
       <c r="N17">
-        <v>1.12189500140417</v>
+        <v>1.031881816863611</v>
       </c>
       <c r="O17">
-        <v>1.020250857577447</v>
+        <v>1.001740853183395</v>
       </c>
       <c r="P17">
-        <v>0.9408867232642293</v>
+        <v>0.9857113189511106</v>
       </c>
       <c r="Q17">
-        <v>0.9942819886950807</v>
+        <v>0.9972652256592018</v>
       </c>
       <c r="R17">
-        <v>1.001222815977543</v>
+        <v>1.001101484921944</v>
       </c>
       <c r="S17">
-        <v>0.9500288554470576</v>
+        <v>0.9880707453457434</v>
       </c>
       <c r="T17">
-        <v>1.001222815977543</v>
+        <v>1.001101484921944</v>
       </c>
       <c r="U17">
-        <v>0.9929953919363358</v>
+        <v>0.9990235132252102</v>
       </c>
       <c r="V17">
-        <v>1.018775313829903</v>
+        <v>1.00559517395289</v>
       </c>
       <c r="W17">
-        <v>0.991737789912523</v>
+        <v>0.9983353647697817</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.941573187658574</v>
+        <v>0.9696495506214465</v>
       </c>
       <c r="D18">
-        <v>1.016566268109003</v>
+        <v>1.015004050450322</v>
       </c>
       <c r="E18">
-        <v>0.9808403860166108</v>
+        <v>0.9892674570387295</v>
       </c>
       <c r="F18">
-        <v>1.036527463498825</v>
+        <v>1.01514468668081</v>
       </c>
       <c r="G18">
-        <v>1.037906311126562</v>
+        <v>1.047007561667516</v>
       </c>
       <c r="H18">
-        <v>1.037906311126562</v>
+        <v>1.047007561667516</v>
       </c>
       <c r="I18">
-        <v>1.037906311126562</v>
+        <v>1.047007561667516</v>
       </c>
       <c r="J18">
-        <v>1.036755307722728</v>
+        <v>1.002835734510459</v>
       </c>
       <c r="K18">
-        <v>0.9079498931325256</v>
+        <v>0.9553634410979244</v>
       </c>
       <c r="L18">
-        <v>0.9079498931325256</v>
+        <v>0.9553634410979244</v>
       </c>
       <c r="M18">
-        <v>0.9887722890729395</v>
+        <v>0.986293276412717</v>
       </c>
       <c r="N18">
-        <v>1.037906311126562</v>
+        <v>1.047007561667516</v>
       </c>
       <c r="O18">
-        <v>1.036755307722728</v>
+        <v>1.002835734510459</v>
       </c>
       <c r="P18">
-        <v>0.9723526004276267</v>
+        <v>0.9790995878041918</v>
       </c>
       <c r="Q18">
-        <v>1.008797846869669</v>
+        <v>0.9960515957745943</v>
       </c>
       <c r="R18">
-        <v>0.9942038373272718</v>
+        <v>1.001735579091966</v>
       </c>
       <c r="S18">
-        <v>0.9751818622906215</v>
+        <v>0.9824888775490378</v>
       </c>
       <c r="T18">
-        <v>0.9942038373272718</v>
+        <v>1.001735579091966</v>
       </c>
       <c r="U18">
-        <v>0.9908629744996066</v>
+        <v>0.9986185485786572</v>
       </c>
       <c r="V18">
-        <v>1.000271641824998</v>
+        <v>1.008296351196429</v>
       </c>
       <c r="W18">
-        <v>0.9933613882922211</v>
+        <v>0.9975707198099906</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9342246430656868</v>
+        <v>0.999461699117193</v>
       </c>
       <c r="D19">
-        <v>1.015644772290019</v>
+        <v>1.000173110611032</v>
       </c>
       <c r="E19">
-        <v>0.9781226043279216</v>
+        <v>0.9998274107832436</v>
       </c>
       <c r="F19">
-        <v>1.042584335877588</v>
+        <v>1.000331580878122</v>
       </c>
       <c r="G19">
-        <v>1.03340710293344</v>
+        <v>1.000389672672429</v>
       </c>
       <c r="H19">
-        <v>1.03340710293344</v>
+        <v>1.000389672672429</v>
       </c>
       <c r="I19">
-        <v>1.03340710293344</v>
+        <v>1.000389672672429</v>
       </c>
       <c r="J19">
-        <v>1.048001428559747</v>
+        <v>1.000306590287312</v>
       </c>
       <c r="K19">
-        <v>0.8956393021237898</v>
+        <v>0.9991636187158035</v>
       </c>
       <c r="L19">
-        <v>0.8956393021237898</v>
+        <v>0.9991636187158035</v>
       </c>
       <c r="M19">
-        <v>0.9904810835779979</v>
+        <v>0.9998734152710906</v>
       </c>
       <c r="N19">
-        <v>1.03340710293344</v>
+        <v>1.000389672672429</v>
       </c>
       <c r="O19">
-        <v>1.048001428559747</v>
+        <v>1.000306590287312</v>
       </c>
       <c r="P19">
-        <v>0.9718203653417686</v>
+        <v>0.9997351045015579</v>
       </c>
       <c r="Q19">
-        <v>1.013062016443834</v>
+        <v>1.000067000535278</v>
       </c>
       <c r="R19">
-        <v>0.9923492778723256</v>
+        <v>0.9999532938918483</v>
       </c>
       <c r="S19">
-        <v>0.9739211116704863</v>
+        <v>0.9997658732621199</v>
       </c>
       <c r="T19">
-        <v>0.9923492778723256</v>
+        <v>0.9999532938918483</v>
       </c>
       <c r="U19">
-        <v>0.9887926094862247</v>
+        <v>0.9999218231146971</v>
       </c>
       <c r="V19">
-        <v>0.9977155081756678</v>
+        <v>1.000015393026243</v>
       </c>
       <c r="W19">
-        <v>0.9922631590945238</v>
+        <v>0.9999408872920283</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999616251196394</v>
+        <v>0.9984658230784822</v>
       </c>
       <c r="D20">
-        <v>0.9998862239803789</v>
+        <v>1.000551785957545</v>
       </c>
       <c r="E20">
-        <v>0.9998225673610467</v>
+        <v>0.9995037810448227</v>
       </c>
       <c r="F20">
-        <v>1.000132916600358</v>
+        <v>1.000911040086609</v>
       </c>
       <c r="G20">
-        <v>1.000049054533748</v>
+        <v>1.001336596072072</v>
       </c>
       <c r="H20">
-        <v>1.000049054533748</v>
+        <v>1.001336596072072</v>
       </c>
       <c r="I20">
-        <v>1.000049054533748</v>
+        <v>1.001336596072072</v>
       </c>
       <c r="J20">
-        <v>1.000210641741219</v>
+        <v>1.000723163314588</v>
       </c>
       <c r="K20">
-        <v>1.000235675401597</v>
+        <v>0.9976431787010642</v>
       </c>
       <c r="L20">
-        <v>1.000235675401597</v>
+        <v>0.9976431787010642</v>
       </c>
       <c r="M20">
-        <v>0.9999388979190198</v>
+        <v>0.9995736563911292</v>
       </c>
       <c r="N20">
-        <v>1.000049054533748</v>
+        <v>1.001336596072072</v>
       </c>
       <c r="O20">
-        <v>1.000210641741219</v>
+        <v>1.000723163314588</v>
       </c>
       <c r="P20">
-        <v>1.000223158571408</v>
+        <v>0.9991831710078262</v>
       </c>
       <c r="Q20">
-        <v>1.000016604551133</v>
+        <v>1.000113472179705</v>
       </c>
       <c r="R20">
-        <v>1.000165123892188</v>
+        <v>0.9999009793625747</v>
       </c>
       <c r="S20">
-        <v>1.000089628167954</v>
+        <v>0.9992900410201583</v>
       </c>
       <c r="T20">
-        <v>1.000165123892188</v>
+        <v>0.9999009793625747</v>
       </c>
       <c r="U20">
-        <v>1.000079484759403</v>
+        <v>0.9998016797831367</v>
       </c>
       <c r="V20">
-        <v>1.000073398714272</v>
+        <v>1.000108663040924</v>
       </c>
       <c r="W20">
-        <v>1.000029700332126</v>
+        <v>0.9998386280807889</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9994071531897171</v>
+        <v>0.9977759869262895</v>
       </c>
       <c r="D21">
-        <v>1.000282921522341</v>
+        <v>1.000906403884071</v>
       </c>
       <c r="E21">
-        <v>1.000016789505508</v>
+        <v>0.9992808055472202</v>
       </c>
       <c r="F21">
-        <v>1.000272979213183</v>
+        <v>1.001269519850056</v>
       </c>
       <c r="G21">
-        <v>1.000135937594402</v>
+        <v>1.002315743361018</v>
       </c>
       <c r="H21">
-        <v>1.000135937594402</v>
+        <v>1.002315743361018</v>
       </c>
       <c r="I21">
-        <v>1.000135937594402</v>
+        <v>1.002315743361018</v>
       </c>
       <c r="J21">
-        <v>1.000278179579533</v>
+        <v>1.000809069011563</v>
       </c>
       <c r="K21">
-        <v>0.9987035572099884</v>
+        <v>0.9966257901109187</v>
       </c>
       <c r="L21">
-        <v>0.9987035572099884</v>
+        <v>0.9966257901109187</v>
       </c>
       <c r="M21">
-        <v>0.9999921720315632</v>
+        <v>0.9992556771262628</v>
       </c>
       <c r="N21">
-        <v>1.000135937594402</v>
+        <v>1.002315743361018</v>
       </c>
       <c r="O21">
-        <v>1.000278179579533</v>
+        <v>1.000809069011563</v>
       </c>
       <c r="P21">
-        <v>0.9994908683947605</v>
+        <v>0.9987174295612407</v>
       </c>
       <c r="Q21">
-        <v>1.00014748454252</v>
+        <v>1.000044937279391</v>
       </c>
       <c r="R21">
-        <v>0.9997058914613076</v>
+        <v>0.9999168674944997</v>
       </c>
       <c r="S21">
-        <v>0.9996661754316764</v>
+        <v>0.9989052215565671</v>
       </c>
       <c r="T21">
-        <v>0.9997058914613076</v>
+        <v>0.9999168674944997</v>
       </c>
       <c r="U21">
-        <v>0.9997836159723577</v>
+        <v>0.9997578520076799</v>
       </c>
       <c r="V21">
-        <v>0.9998540802967664</v>
+        <v>1.000269430278347</v>
       </c>
       <c r="W21">
-        <v>0.9998862112307794</v>
+        <v>0.9997798744771749</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9983317038757867</v>
+        <v>0.9952715484304848</v>
       </c>
       <c r="D22">
-        <v>1.000629556673994</v>
+        <v>1.001828104450844</v>
       </c>
       <c r="E22">
-        <v>0.9989608601882438</v>
+        <v>0.9984912121779433</v>
       </c>
       <c r="F22">
-        <v>1.001067629737468</v>
+        <v>1.002744022724811</v>
       </c>
       <c r="G22">
-        <v>1.003118616266872</v>
+        <v>1.004512443530968</v>
       </c>
       <c r="H22">
-        <v>1.003118616266872</v>
+        <v>1.004512443530968</v>
       </c>
       <c r="I22">
-        <v>1.003118616266872</v>
+        <v>1.004512443530968</v>
       </c>
       <c r="J22">
-        <v>1.00032828351623</v>
+        <v>1.001960799676365</v>
       </c>
       <c r="K22">
-        <v>0.9984189804075145</v>
+        <v>0.992745059587561</v>
       </c>
       <c r="L22">
-        <v>0.9984189804075145</v>
+        <v>0.992745059587561</v>
       </c>
       <c r="M22">
-        <v>0.9989352325892222</v>
+        <v>0.9985556991757523</v>
       </c>
       <c r="N22">
-        <v>1.003118616266872</v>
+        <v>1.004512443530968</v>
       </c>
       <c r="O22">
-        <v>1.00032828351623</v>
+        <v>1.001960799676365</v>
       </c>
       <c r="P22">
-        <v>0.9993736319618722</v>
+        <v>0.9973529296319632</v>
       </c>
       <c r="Q22">
-        <v>0.9996445718522369</v>
+        <v>1.000226005927154</v>
       </c>
       <c r="R22">
-        <v>1.000621960063539</v>
+        <v>0.9997394342649649</v>
       </c>
       <c r="S22">
-        <v>0.9992360413706628</v>
+        <v>0.9977323571472899</v>
       </c>
       <c r="T22">
-        <v>1.000621960063539</v>
+        <v>0.9997394342649649</v>
       </c>
       <c r="U22">
-        <v>1.000206685094715</v>
+        <v>0.9994273787432095</v>
       </c>
       <c r="V22">
-        <v>1.000789071329146</v>
+        <v>1.000444391700761</v>
       </c>
       <c r="W22">
-        <v>0.9999738579069164</v>
+        <v>0.9995136112193413</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.991976450667729</v>
+      </c>
+      <c r="D23">
+        <v>1.0034491935782</v>
+      </c>
+      <c r="E23">
+        <v>0.9974153674990693</v>
+      </c>
+      <c r="F23">
+        <v>1.00448576248894</v>
+      </c>
+      <c r="G23">
+        <v>1.008944830892985</v>
+      </c>
+      <c r="H23">
+        <v>1.008944830892985</v>
+      </c>
+      <c r="I23">
+        <v>1.008944830892985</v>
+      </c>
+      <c r="J23">
+        <v>1.002499377937993</v>
+      </c>
+      <c r="K23">
+        <v>0.987879123950712</v>
+      </c>
+      <c r="L23">
+        <v>0.987879123950712</v>
+      </c>
+      <c r="M23">
+        <v>0.9971284541736829</v>
+      </c>
+      <c r="N23">
+        <v>1.008944830892985</v>
+      </c>
+      <c r="O23">
+        <v>1.002499377937993</v>
+      </c>
+      <c r="P23">
+        <v>0.9951892509443527</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999573727185314</v>
+      </c>
+      <c r="R23">
+        <v>0.9997744442605635</v>
+      </c>
+      <c r="S23">
+        <v>0.995931289795925</v>
+      </c>
+      <c r="T23">
+        <v>0.9997744442605635</v>
+      </c>
+      <c r="U23">
+        <v>0.99918467507019</v>
+      </c>
+      <c r="V23">
+        <v>1.001136706234749</v>
+      </c>
+      <c r="W23">
+        <v>0.999222320148664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.121099826466081</v>
+      </c>
+      <c r="D24">
+        <v>1.002430747304343</v>
+      </c>
+      <c r="E24">
+        <v>1.041978687961073</v>
+      </c>
+      <c r="F24">
+        <v>0.910020293789749</v>
+      </c>
+      <c r="G24">
+        <v>1.029052815545128</v>
+      </c>
+      <c r="H24">
+        <v>1.029052815545128</v>
+      </c>
+      <c r="I24">
+        <v>1.029052815545128</v>
+      </c>
+      <c r="J24">
+        <v>0.8480313563145121</v>
+      </c>
+      <c r="K24">
+        <v>1.208438615235842</v>
+      </c>
+      <c r="L24">
+        <v>1.208438615235842</v>
+      </c>
+      <c r="M24">
+        <v>0.9811293604538415</v>
+      </c>
+      <c r="N24">
+        <v>1.029052815545128</v>
+      </c>
+      <c r="O24">
+        <v>0.8480313563145121</v>
+      </c>
+      <c r="P24">
+        <v>1.028234985775177</v>
+      </c>
+      <c r="Q24">
+        <v>0.9450050221377926</v>
+      </c>
+      <c r="R24">
+        <v>1.028507595698494</v>
+      </c>
+      <c r="S24">
+        <v>1.032816219837143</v>
+      </c>
+      <c r="T24">
+        <v>1.028507595698494</v>
+      </c>
+      <c r="U24">
+        <v>1.031875368764139</v>
+      </c>
+      <c r="V24">
+        <v>1.031310858120337</v>
+      </c>
+      <c r="W24">
+        <v>1.017772712883821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.011653872214887</v>
+      </c>
+      <c r="D25">
+        <v>0.9731921456920544</v>
+      </c>
+      <c r="E25">
+        <v>1.00103054220385</v>
+      </c>
+      <c r="F25">
+        <v>1.002846928100491</v>
+      </c>
+      <c r="G25">
+        <v>0.9253501863210959</v>
+      </c>
+      <c r="H25">
+        <v>0.9253501863210959</v>
+      </c>
+      <c r="I25">
+        <v>0.9253501863210959</v>
+      </c>
+      <c r="J25">
+        <v>1.041642391419102</v>
+      </c>
+      <c r="K25">
+        <v>1.011123206271381</v>
+      </c>
+      <c r="L25">
+        <v>1.011123206271381</v>
+      </c>
+      <c r="M25">
+        <v>1.027129672452167</v>
+      </c>
+      <c r="N25">
+        <v>0.9253501863210959</v>
+      </c>
+      <c r="O25">
+        <v>1.041642391419102</v>
+      </c>
+      <c r="P25">
+        <v>1.026382798845241</v>
+      </c>
+      <c r="Q25">
+        <v>1.021336466811476</v>
+      </c>
+      <c r="R25">
+        <v>0.9927052613371928</v>
+      </c>
+      <c r="S25">
+        <v>1.017932046631444</v>
+      </c>
+      <c r="T25">
+        <v>0.9927052613371928</v>
+      </c>
+      <c r="U25">
+        <v>0.994786581553857</v>
+      </c>
+      <c r="V25">
+        <v>0.9808993025073048</v>
+      </c>
+      <c r="W25">
+        <v>0.9992461180843784</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9443093510656936</v>
+      </c>
+      <c r="D26">
+        <v>0.9400114006175166</v>
+      </c>
+      <c r="E26">
+        <v>0.9839295210114044</v>
+      </c>
+      <c r="F26">
+        <v>1.064927450800309</v>
+      </c>
+      <c r="G26">
+        <v>0.7861127358559966</v>
+      </c>
+      <c r="H26">
+        <v>0.7861127358559966</v>
+      </c>
+      <c r="I26">
+        <v>0.7861127358559966</v>
+      </c>
+      <c r="J26">
+        <v>1.199091074229437</v>
+      </c>
+      <c r="K26">
+        <v>0.8654670683000033</v>
+      </c>
+      <c r="L26">
+        <v>0.8654670683000033</v>
+      </c>
+      <c r="M26">
+        <v>1.083132371393852</v>
+      </c>
+      <c r="N26">
+        <v>0.7861127358559966</v>
+      </c>
+      <c r="O26">
+        <v>1.199091074229437</v>
+      </c>
+      <c r="P26">
+        <v>1.03227907126472</v>
+      </c>
+      <c r="Q26">
+        <v>1.091510297620421</v>
+      </c>
+      <c r="R26">
+        <v>0.950223626128479</v>
+      </c>
+      <c r="S26">
+        <v>1.016162554513615</v>
+      </c>
+      <c r="T26">
+        <v>0.950223626128479</v>
+      </c>
+      <c r="U26">
+        <v>0.9586500998492103</v>
+      </c>
+      <c r="V26">
+        <v>0.9241426270505675</v>
+      </c>
+      <c r="W26">
+        <v>0.9833726216592764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.019218186962218</v>
+      </c>
+      <c r="D27">
+        <v>1.025432234718397</v>
+      </c>
+      <c r="E27">
+        <v>1.003998577029389</v>
+      </c>
+      <c r="F27">
+        <v>0.9768914029675525</v>
+      </c>
+      <c r="G27">
+        <v>1.090910876987596</v>
+      </c>
+      <c r="H27">
+        <v>1.090910876987596</v>
+      </c>
+      <c r="I27">
+        <v>1.090910876987596</v>
+      </c>
+      <c r="J27">
+        <v>0.9213753074936379</v>
+      </c>
+      <c r="K27">
+        <v>1.053476317894017</v>
+      </c>
+      <c r="L27">
+        <v>1.053476317894017</v>
+      </c>
+      <c r="M27">
+        <v>0.9633449958563002</v>
+      </c>
+      <c r="N27">
+        <v>1.090910876987596</v>
+      </c>
+      <c r="O27">
+        <v>0.9213753074936379</v>
+      </c>
+      <c r="P27">
+        <v>0.9874258126938273</v>
+      </c>
+      <c r="Q27">
+        <v>0.9626869422615136</v>
+      </c>
+      <c r="R27">
+        <v>1.021920834125084</v>
+      </c>
+      <c r="S27">
+        <v>0.992950067472348</v>
+      </c>
+      <c r="T27">
+        <v>1.021920834125084</v>
+      </c>
+      <c r="U27">
+        <v>1.01744026985116</v>
+      </c>
+      <c r="V27">
+        <v>1.032134391278448</v>
+      </c>
+      <c r="W27">
+        <v>1.006830987488639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8902780695980305</v>
+      </c>
+      <c r="D28">
+        <v>1.05444646943286</v>
+      </c>
+      <c r="E28">
+        <v>0.9620614682319131</v>
+      </c>
+      <c r="F28">
+        <v>1.055700457949536</v>
+      </c>
+      <c r="G28">
+        <v>1.164257135903767</v>
+      </c>
+      <c r="H28">
+        <v>1.164257135903767</v>
+      </c>
+      <c r="I28">
+        <v>1.164257135903767</v>
+      </c>
+      <c r="J28">
+        <v>1.011717790543311</v>
+      </c>
+      <c r="K28">
+        <v>0.8384137570878664</v>
+      </c>
+      <c r="L28">
+        <v>0.8384137570878664</v>
+      </c>
+      <c r="M28">
+        <v>0.9506753448373685</v>
+      </c>
+      <c r="N28">
+        <v>1.164257135903767</v>
+      </c>
+      <c r="O28">
+        <v>1.011717790543311</v>
+      </c>
+      <c r="P28">
+        <v>0.9250657738155887</v>
+      </c>
+      <c r="Q28">
+        <v>0.9868896293876122</v>
+      </c>
+      <c r="R28">
+        <v>1.004796227844982</v>
+      </c>
+      <c r="S28">
+        <v>0.9373976719543635</v>
+      </c>
+      <c r="T28">
+        <v>1.004796227844982</v>
+      </c>
+      <c r="U28">
+        <v>0.9941125379417144</v>
+      </c>
+      <c r="V28">
+        <v>1.028141457534125</v>
+      </c>
+      <c r="W28">
+        <v>0.9909438116980815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9073498716516668</v>
+      </c>
+      <c r="D29">
+        <v>1.041755050446464</v>
+      </c>
+      <c r="E29">
+        <v>0.9683131198127143</v>
+      </c>
+      <c r="F29">
+        <v>1.049364397250194</v>
+      </c>
+      <c r="G29">
+        <v>1.12189500140417</v>
+      </c>
+      <c r="H29">
+        <v>1.12189500140417</v>
+      </c>
+      <c r="I29">
+        <v>1.12189500140417</v>
+      </c>
+      <c r="J29">
+        <v>1.020250857577447</v>
+      </c>
+      <c r="K29">
+        <v>0.8615225889510117</v>
+      </c>
+      <c r="L29">
+        <v>0.8615225889510117</v>
+      </c>
+      <c r="M29">
+        <v>0.9634514322065159</v>
+      </c>
+      <c r="N29">
+        <v>1.12189500140417</v>
+      </c>
+      <c r="O29">
+        <v>1.020250857577447</v>
+      </c>
+      <c r="P29">
+        <v>0.9408867232642293</v>
+      </c>
+      <c r="Q29">
+        <v>0.9942819886950807</v>
+      </c>
+      <c r="R29">
+        <v>1.001222815977543</v>
+      </c>
+      <c r="S29">
+        <v>0.9500288554470576</v>
+      </c>
+      <c r="T29">
+        <v>1.001222815977543</v>
+      </c>
+      <c r="U29">
+        <v>0.9929953919363358</v>
+      </c>
+      <c r="V29">
+        <v>1.018775313829903</v>
+      </c>
+      <c r="W29">
+        <v>0.991737789912523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.941573187658574</v>
+      </c>
+      <c r="D30">
+        <v>1.016566268109003</v>
+      </c>
+      <c r="E30">
+        <v>0.9808403860166108</v>
+      </c>
+      <c r="F30">
+        <v>1.036527463498825</v>
+      </c>
+      <c r="G30">
+        <v>1.037906311126562</v>
+      </c>
+      <c r="H30">
+        <v>1.037906311126562</v>
+      </c>
+      <c r="I30">
+        <v>1.037906311126562</v>
+      </c>
+      <c r="J30">
+        <v>1.036755307722728</v>
+      </c>
+      <c r="K30">
+        <v>0.9079498931325256</v>
+      </c>
+      <c r="L30">
+        <v>0.9079498931325256</v>
+      </c>
+      <c r="M30">
+        <v>0.9887722890729395</v>
+      </c>
+      <c r="N30">
+        <v>1.037906311126562</v>
+      </c>
+      <c r="O30">
+        <v>1.036755307722728</v>
+      </c>
+      <c r="P30">
+        <v>0.9723526004276267</v>
+      </c>
+      <c r="Q30">
+        <v>1.008797846869669</v>
+      </c>
+      <c r="R30">
+        <v>0.9942038373272718</v>
+      </c>
+      <c r="S30">
+        <v>0.9751818622906215</v>
+      </c>
+      <c r="T30">
+        <v>0.9942038373272718</v>
+      </c>
+      <c r="U30">
+        <v>0.9908629744996066</v>
+      </c>
+      <c r="V30">
+        <v>1.000271641824998</v>
+      </c>
+      <c r="W30">
+        <v>0.9933613882922211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9342246430656868</v>
+      </c>
+      <c r="D31">
+        <v>1.015644772290019</v>
+      </c>
+      <c r="E31">
+        <v>0.9781226043279216</v>
+      </c>
+      <c r="F31">
+        <v>1.042584335877588</v>
+      </c>
+      <c r="G31">
+        <v>1.03340710293344</v>
+      </c>
+      <c r="H31">
+        <v>1.03340710293344</v>
+      </c>
+      <c r="I31">
+        <v>1.03340710293344</v>
+      </c>
+      <c r="J31">
+        <v>1.048001428559747</v>
+      </c>
+      <c r="K31">
+        <v>0.8956393021237898</v>
+      </c>
+      <c r="L31">
+        <v>0.8956393021237898</v>
+      </c>
+      <c r="M31">
+        <v>0.9904810835779979</v>
+      </c>
+      <c r="N31">
+        <v>1.03340710293344</v>
+      </c>
+      <c r="O31">
+        <v>1.048001428559747</v>
+      </c>
+      <c r="P31">
+        <v>0.9718203653417686</v>
+      </c>
+      <c r="Q31">
+        <v>1.013062016443834</v>
+      </c>
+      <c r="R31">
+        <v>0.9923492778723256</v>
+      </c>
+      <c r="S31">
+        <v>0.9739211116704863</v>
+      </c>
+      <c r="T31">
+        <v>0.9923492778723256</v>
+      </c>
+      <c r="U31">
+        <v>0.9887926094862247</v>
+      </c>
+      <c r="V31">
+        <v>0.9977155081756678</v>
+      </c>
+      <c r="W31">
+        <v>0.9922631590945238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.8671396079452055</v>
+      </c>
+      <c r="D32">
+        <v>1.071806261643836</v>
+      </c>
+      <c r="E32">
+        <v>0.9539852597260273</v>
+      </c>
+      <c r="F32">
+        <v>1.064457720547946</v>
+      </c>
+      <c r="G32">
+        <v>1.219908410410959</v>
+      </c>
+      <c r="H32">
+        <v>1.219908410410959</v>
+      </c>
+      <c r="I32">
+        <v>1.219908410410959</v>
+      </c>
+      <c r="J32">
+        <v>1.000584686575342</v>
+      </c>
+      <c r="K32">
+        <v>0.8068983608219181</v>
+      </c>
+      <c r="L32">
+        <v>0.8068983608219181</v>
+      </c>
+      <c r="M32">
+        <v>0.9334656342465755</v>
+      </c>
+      <c r="N32">
+        <v>1.219908410410959</v>
+      </c>
+      <c r="O32">
+        <v>1.000584686575342</v>
+      </c>
+      <c r="P32">
+        <v>0.9037415236986301</v>
+      </c>
+      <c r="Q32">
+        <v>0.9772849731506847</v>
+      </c>
+      <c r="R32">
+        <v>1.009130485936073</v>
+      </c>
+      <c r="S32">
+        <v>0.9204894357077625</v>
+      </c>
+      <c r="T32">
+        <v>1.009130485936073</v>
+      </c>
+      <c r="U32">
+        <v>0.9953441793835618</v>
+      </c>
+      <c r="V32">
+        <v>1.040257025589041</v>
+      </c>
+      <c r="W32">
+        <v>0.9897807427397263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.7051555784210526</v>
+      </c>
+      <c r="D33">
+        <v>1.060169268947368</v>
+      </c>
+      <c r="E33">
+        <v>0.9047324863157896</v>
+      </c>
+      <c r="F33">
+        <v>1.190464578947368</v>
+      </c>
+      <c r="G33">
+        <v>1.12050397</v>
+      </c>
+      <c r="H33">
+        <v>1.12050397</v>
+      </c>
+      <c r="I33">
+        <v>1.12050397</v>
+      </c>
+      <c r="J33">
+        <v>1.232643878947368</v>
+      </c>
+      <c r="K33">
+        <v>0.5157660921052631</v>
+      </c>
+      <c r="L33">
+        <v>0.5157660921052631</v>
+      </c>
+      <c r="M33">
+        <v>0.974875287894737</v>
+      </c>
+      <c r="N33">
+        <v>1.12050397</v>
+      </c>
+      <c r="O33">
+        <v>1.232643878947368</v>
+      </c>
+      <c r="P33">
+        <v>0.8742049855263156</v>
+      </c>
+      <c r="Q33">
+        <v>1.068688182631579</v>
+      </c>
+      <c r="R33">
+        <v>0.9563046470175438</v>
+      </c>
+      <c r="S33">
+        <v>0.884380819122807</v>
+      </c>
+      <c r="T33">
+        <v>0.9563046470175438</v>
+      </c>
+      <c r="U33">
+        <v>0.9434116068421052</v>
+      </c>
+      <c r="V33">
+        <v>0.9788300794736842</v>
+      </c>
+      <c r="W33">
+        <v>0.9630388926973684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.7446285189473685</v>
+      </c>
+      <c r="D34">
+        <v>1.084647864210526</v>
+      </c>
+      <c r="E34">
+        <v>0.8995358031578948</v>
+      </c>
+      <c r="F34">
+        <v>1.158401121578948</v>
+      </c>
+      <c r="G34">
+        <v>1.256881638947368</v>
+      </c>
+      <c r="H34">
+        <v>1.256881638947368</v>
+      </c>
+      <c r="I34">
+        <v>1.256881638947368</v>
+      </c>
+      <c r="J34">
+        <v>1.122981076842105</v>
+      </c>
+      <c r="K34">
+        <v>0.637503872631579</v>
+      </c>
+      <c r="L34">
+        <v>0.637503872631579</v>
+      </c>
+      <c r="M34">
+        <v>0.9163306931578947</v>
+      </c>
+      <c r="N34">
+        <v>1.256881638947368</v>
+      </c>
+      <c r="O34">
+        <v>1.122981076842105</v>
+      </c>
+      <c r="P34">
+        <v>0.8802424747368423</v>
+      </c>
+      <c r="Q34">
+        <v>1.01125844</v>
+      </c>
+      <c r="R34">
+        <v>1.005788862807018</v>
+      </c>
+      <c r="S34">
+        <v>0.8866735842105266</v>
+      </c>
+      <c r="T34">
+        <v>1.005788862807018</v>
+      </c>
+      <c r="U34">
+        <v>0.9792255978947368</v>
+      </c>
+      <c r="V34">
+        <v>1.034756806105263</v>
+      </c>
+      <c r="W34">
+        <v>0.9776138236842107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.7634006996762543</v>
+      </c>
+      <c r="D35">
+        <v>1.057842211715283</v>
+      </c>
+      <c r="E35">
+        <v>0.9234264298596055</v>
+      </c>
+      <c r="F35">
+        <v>1.155071307564205</v>
+      </c>
+      <c r="G35">
+        <v>1.109240307005956</v>
+      </c>
+      <c r="H35">
+        <v>1.109240307005956</v>
+      </c>
+      <c r="I35">
+        <v>1.109240307005956</v>
+      </c>
+      <c r="J35">
+        <v>1.176182004654559</v>
+      </c>
+      <c r="K35">
+        <v>0.6262722612710234</v>
+      </c>
+      <c r="L35">
+        <v>0.6262722612710234</v>
+      </c>
+      <c r="M35">
+        <v>0.9644777645922072</v>
+      </c>
+      <c r="N35">
+        <v>1.109240307005956</v>
+      </c>
+      <c r="O35">
+        <v>1.176182004654559</v>
+      </c>
+      <c r="P35">
+        <v>0.9012271329627914</v>
+      </c>
+      <c r="Q35">
+        <v>1.049804217257083</v>
+      </c>
+      <c r="R35">
+        <v>0.9705648576438461</v>
+      </c>
+      <c r="S35">
+        <v>0.9086268985950628</v>
+      </c>
+      <c r="T35">
+        <v>0.9705648576438461</v>
+      </c>
+      <c r="U35">
+        <v>0.9587802506977861</v>
+      </c>
+      <c r="V35">
+        <v>0.9888722619594199</v>
+      </c>
+      <c r="W35">
+        <v>0.9719891232923867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999616251196394</v>
+      </c>
+      <c r="D36">
+        <v>0.9998862239803789</v>
+      </c>
+      <c r="E36">
+        <v>0.9998225673610467</v>
+      </c>
+      <c r="F36">
+        <v>1.000132916600358</v>
+      </c>
+      <c r="G36">
+        <v>1.000049054533748</v>
+      </c>
+      <c r="H36">
+        <v>1.000049054533748</v>
+      </c>
+      <c r="I36">
+        <v>1.000049054533748</v>
+      </c>
+      <c r="J36">
+        <v>1.000210641741219</v>
+      </c>
+      <c r="K36">
+        <v>1.000235675401597</v>
+      </c>
+      <c r="L36">
+        <v>1.000235675401597</v>
+      </c>
+      <c r="M36">
+        <v>0.9999388979190198</v>
+      </c>
+      <c r="N36">
+        <v>1.000049054533748</v>
+      </c>
+      <c r="O36">
+        <v>1.000210641741219</v>
+      </c>
+      <c r="P36">
+        <v>1.000223158571408</v>
+      </c>
+      <c r="Q36">
+        <v>1.000016604551133</v>
+      </c>
+      <c r="R36">
+        <v>1.000165123892188</v>
+      </c>
+      <c r="S36">
+        <v>1.000089628167954</v>
+      </c>
+      <c r="T36">
+        <v>1.000165123892188</v>
+      </c>
+      <c r="U36">
+        <v>1.000079484759403</v>
+      </c>
+      <c r="V36">
+        <v>1.000073398714272</v>
+      </c>
+      <c r="W36">
+        <v>1.000029700332126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9994071531897171</v>
+      </c>
+      <c r="D37">
+        <v>1.000282921522341</v>
+      </c>
+      <c r="E37">
+        <v>1.000016789505508</v>
+      </c>
+      <c r="F37">
+        <v>1.000272979213183</v>
+      </c>
+      <c r="G37">
+        <v>1.000135937594402</v>
+      </c>
+      <c r="H37">
+        <v>1.000135937594402</v>
+      </c>
+      <c r="I37">
+        <v>1.000135937594402</v>
+      </c>
+      <c r="J37">
+        <v>1.000278179579533</v>
+      </c>
+      <c r="K37">
+        <v>0.9987035572099884</v>
+      </c>
+      <c r="L37">
+        <v>0.9987035572099884</v>
+      </c>
+      <c r="M37">
+        <v>0.9999921720315632</v>
+      </c>
+      <c r="N37">
+        <v>1.000135937594402</v>
+      </c>
+      <c r="O37">
+        <v>1.000278179579533</v>
+      </c>
+      <c r="P37">
+        <v>0.9994908683947605</v>
+      </c>
+      <c r="Q37">
+        <v>1.00014748454252</v>
+      </c>
+      <c r="R37">
+        <v>0.9997058914613076</v>
+      </c>
+      <c r="S37">
+        <v>0.9996661754316764</v>
+      </c>
+      <c r="T37">
+        <v>0.9997058914613076</v>
+      </c>
+      <c r="U37">
+        <v>0.9997836159723577</v>
+      </c>
+      <c r="V37">
+        <v>0.9998540802967664</v>
+      </c>
+      <c r="W37">
+        <v>0.9998862112307794</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9983317038757867</v>
+      </c>
+      <c r="D38">
+        <v>1.000629556673994</v>
+      </c>
+      <c r="E38">
+        <v>0.9989608601882438</v>
+      </c>
+      <c r="F38">
+        <v>1.001067629737468</v>
+      </c>
+      <c r="G38">
+        <v>1.003118616266872</v>
+      </c>
+      <c r="H38">
+        <v>1.003118616266872</v>
+      </c>
+      <c r="I38">
+        <v>1.003118616266872</v>
+      </c>
+      <c r="J38">
+        <v>1.00032828351623</v>
+      </c>
+      <c r="K38">
+        <v>0.9984189804075145</v>
+      </c>
+      <c r="L38">
+        <v>0.9984189804075145</v>
+      </c>
+      <c r="M38">
+        <v>0.9989352325892222</v>
+      </c>
+      <c r="N38">
+        <v>1.003118616266872</v>
+      </c>
+      <c r="O38">
+        <v>1.00032828351623</v>
+      </c>
+      <c r="P38">
+        <v>0.9993736319618722</v>
+      </c>
+      <c r="Q38">
+        <v>0.9996445718522369</v>
+      </c>
+      <c r="R38">
+        <v>1.000621960063539</v>
+      </c>
+      <c r="S38">
+        <v>0.9992360413706628</v>
+      </c>
+      <c r="T38">
+        <v>1.000621960063539</v>
+      </c>
+      <c r="U38">
+        <v>1.000206685094715</v>
+      </c>
+      <c r="V38">
+        <v>1.000789071329146</v>
+      </c>
+      <c r="W38">
+        <v>0.9999738579069164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9964064570165216</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.001138502155525</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.996665794077441</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.002625755780864</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.009330597550518</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.009330597550518</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.009330597550518</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000380999919854</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9986576352884786</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9986576352884786</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9967011566207751</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.009330597550518</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000380999919854</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9995193176041661</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9985233969986473</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.00278974425295</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9985681430952577</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.00278974425295</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.001258756709073</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.002873124877362</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.000238362301247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9096489231674431</v>
+      </c>
+      <c r="D40">
+        <v>1.031882838794195</v>
+      </c>
+      <c r="E40">
+        <v>0.9658390619108757</v>
+      </c>
+      <c r="F40">
+        <v>1.053698775839675</v>
+      </c>
+      <c r="G40">
+        <v>1.096617829388203</v>
+      </c>
+      <c r="H40">
+        <v>1.096617829388203</v>
+      </c>
+      <c r="I40">
+        <v>1.096617829388203</v>
+      </c>
+      <c r="J40">
+        <v>1.038181789542507</v>
+      </c>
+      <c r="K40">
+        <v>0.8681785816471163</v>
+      </c>
+      <c r="L40">
+        <v>0.8681785816471163</v>
+      </c>
+      <c r="M40">
+        <v>0.9704943620758754</v>
+      </c>
+      <c r="N40">
+        <v>1.096617829388203</v>
+      </c>
+      <c r="O40">
+        <v>1.038181789542507</v>
+      </c>
+      <c r="P40">
+        <v>0.9531801855948117</v>
+      </c>
+      <c r="Q40">
+        <v>1.002010425726691</v>
+      </c>
+      <c r="R40">
+        <v>1.000992733525942</v>
+      </c>
+      <c r="S40">
+        <v>0.9573998110334996</v>
+      </c>
+      <c r="T40">
+        <v>1.000992733525942</v>
+      </c>
+      <c r="U40">
+        <v>0.9922043156221754</v>
+      </c>
+      <c r="V40">
+        <v>1.013087018375381</v>
+      </c>
+      <c r="W40">
+        <v>0.9918177702957363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.0487395247037</v>
+      </c>
+      <c r="D41">
+        <v>0.9859347344307943</v>
+      </c>
+      <c r="E41">
+        <v>1.015559614260566</v>
+      </c>
+      <c r="F41">
+        <v>0.9706999436333532</v>
+      </c>
+      <c r="G41">
+        <v>0.9658230624800079</v>
+      </c>
+      <c r="H41">
+        <v>0.9658230624800079</v>
+      </c>
+      <c r="I41">
+        <v>0.9658230624800079</v>
+      </c>
+      <c r="J41">
+        <v>0.9713659740397539</v>
+      </c>
+      <c r="K41">
+        <v>1.079128271187099</v>
+      </c>
+      <c r="L41">
+        <v>1.079128271187099</v>
+      </c>
+      <c r="M41">
+        <v>1.008532599437092</v>
+      </c>
+      <c r="N41">
+        <v>0.9658230624800079</v>
+      </c>
+      <c r="O41">
+        <v>0.9713659740397539</v>
+      </c>
+      <c r="P41">
+        <v>1.025247122613427</v>
+      </c>
+      <c r="Q41">
+        <v>0.9934627941501599</v>
+      </c>
+      <c r="R41">
+        <v>1.005439102568954</v>
+      </c>
+      <c r="S41">
+        <v>1.022017953162473</v>
+      </c>
+      <c r="T41">
+        <v>1.005439102568954</v>
+      </c>
+      <c r="U41">
+        <v>1.007969230491857</v>
+      </c>
+      <c r="V41">
+        <v>0.9995399968894869</v>
+      </c>
+      <c r="W41">
+        <v>1.005722965521546</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9116877245943824</v>
+      </c>
+      <c r="D42">
+        <v>1.018861959044932</v>
+      </c>
+      <c r="E42">
+        <v>0.9703298079687914</v>
+      </c>
+      <c r="F42">
+        <v>1.057359548074176</v>
+      </c>
+      <c r="G42">
+        <v>1.041263775170894</v>
+      </c>
+      <c r="H42">
+        <v>1.041263775170894</v>
+      </c>
+      <c r="I42">
+        <v>1.041263775170894</v>
+      </c>
+      <c r="J42">
+        <v>1.0675482258517</v>
+      </c>
+      <c r="K42">
+        <v>0.858047667254405</v>
+      </c>
+      <c r="L42">
+        <v>0.858047667254405</v>
+      </c>
+      <c r="M42">
+        <v>0.9899014703814664</v>
+      </c>
+      <c r="N42">
+        <v>1.041263775170894</v>
+      </c>
+      <c r="O42">
+        <v>1.0675482258517</v>
+      </c>
+      <c r="P42">
+        <v>0.9627979465530525</v>
+      </c>
+      <c r="Q42">
+        <v>1.018939016910246</v>
+      </c>
+      <c r="R42">
+        <v>0.9889532227589996</v>
+      </c>
+      <c r="S42">
+        <v>0.9653085670249655</v>
+      </c>
+      <c r="T42">
+        <v>0.9889532227589996</v>
+      </c>
+      <c r="U42">
+        <v>0.9842973690614475</v>
+      </c>
+      <c r="V42">
+        <v>0.9956906502833366</v>
+      </c>
+      <c r="W42">
+        <v>0.9893750222925934</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
     <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.008736425504812</v>
+        <v>0.9984658230784822</v>
       </c>
       <c r="D3">
-        <v>0.9918695497656997</v>
+        <v>1.000551785957545</v>
       </c>
       <c r="E3">
-        <v>1.000380086643637</v>
+        <v>0.9995037810448227</v>
       </c>
       <c r="F3">
-        <v>1.008736425504812</v>
+        <v>1.000911040086609</v>
       </c>
       <c r="G3">
-        <v>0.9980494587174557</v>
+        <v>1.001336596072072</v>
       </c>
       <c r="H3">
-        <v>1.002770845405639</v>
+        <v>1.001336596072072</v>
       </c>
       <c r="I3">
-        <v>1.008736425504812</v>
+        <v>1.001336596072072</v>
       </c>
       <c r="J3">
-        <v>0.9918695497656997</v>
+        <v>1.000723163314588</v>
       </c>
       <c r="K3">
-        <v>0.9973918204054751</v>
+        <v>0.9976431787010642</v>
       </c>
       <c r="L3">
-        <v>1.002834276583656</v>
+        <v>0.9976431787010642</v>
       </c>
       <c r="M3">
-        <v>0.9944381550183533</v>
+        <v>0.9995736563911292</v>
       </c>
       <c r="N3">
-        <v>1.008736425504812</v>
+        <v>1.001336596072072</v>
       </c>
       <c r="O3">
-        <v>1.000380086643637</v>
+        <v>1.000723163314588</v>
       </c>
       <c r="P3">
-        <v>0.9961248182046682</v>
+        <v>0.9991831710078262</v>
       </c>
       <c r="Q3">
-        <v>0.9992147726805463</v>
+        <v>1.000113472179705</v>
       </c>
       <c r="R3">
-        <v>1.000328687304716</v>
+        <v>0.9999009793625747</v>
       </c>
       <c r="S3">
-        <v>0.996766365042264</v>
+        <v>0.9992900410201583</v>
       </c>
       <c r="T3">
-        <v>1.000328687304716</v>
+        <v>0.9999009793625747</v>
       </c>
       <c r="U3">
-        <v>0.999758880157901</v>
+        <v>0.9998016797831367</v>
       </c>
       <c r="V3">
-        <v>1.001554389227283</v>
+        <v>1.000108663040924</v>
       </c>
       <c r="W3">
-        <v>0.999558827255591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9998386280807889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.01676453130673</v>
+        <v>0.9096489231674431</v>
       </c>
       <c r="D4">
-        <v>0.984219402780832</v>
+        <v>1.031882838794195</v>
       </c>
       <c r="E4">
-        <v>1.000729919673267</v>
+        <v>0.9658390619108757</v>
       </c>
       <c r="F4">
-        <v>1.01676453130673</v>
+        <v>1.053698775839675</v>
       </c>
       <c r="G4">
-        <v>0.9962814640006342</v>
+        <v>1.096617829388203</v>
       </c>
       <c r="H4">
-        <v>1.005348167382215</v>
+        <v>1.096617829388203</v>
       </c>
       <c r="I4">
-        <v>1.01676453130673</v>
+        <v>1.096617829388203</v>
       </c>
       <c r="J4">
-        <v>0.984219402780832</v>
+        <v>1.038181789542507</v>
       </c>
       <c r="K4">
-        <v>0.9949813394367369</v>
+        <v>0.8681785816471163</v>
       </c>
       <c r="L4">
-        <v>1.005502931367238</v>
+        <v>0.8681785816471163</v>
       </c>
       <c r="M4">
-        <v>0.9892523666078221</v>
+        <v>0.9704943620758754</v>
       </c>
       <c r="N4">
-        <v>1.01676453130673</v>
+        <v>1.096617829388203</v>
       </c>
       <c r="O4">
-        <v>1.000729919673267</v>
+        <v>1.038181789542507</v>
       </c>
       <c r="P4">
-        <v>0.9924746612270493</v>
+        <v>0.9531801855948117</v>
       </c>
       <c r="Q4">
-        <v>0.9985056918369504</v>
+        <v>1.002010425726691</v>
       </c>
       <c r="R4">
-        <v>1.000571284586943</v>
+        <v>1.000992733525942</v>
       </c>
       <c r="S4">
-        <v>0.993743595484911</v>
+        <v>0.9573998110334996</v>
       </c>
       <c r="T4">
-        <v>1.000571284586943</v>
+        <v>1.000992733525942</v>
       </c>
       <c r="U4">
-        <v>0.9994988294403657</v>
+        <v>0.9922043156221754</v>
       </c>
       <c r="V4">
-        <v>1.002951969813639</v>
+        <v>1.013087018375381</v>
       </c>
       <c r="W4">
-        <v>0.9991350153194345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9918177702957363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.031881816863611</v>
+        <v>0.9291179567435147</v>
       </c>
       <c r="D5">
-        <v>0.9696817847188265</v>
+        <v>1.02012026463977</v>
       </c>
       <c r="E5">
-        <v>1.001740853183395</v>
+        <v>0.9765108020533143</v>
       </c>
       <c r="F5">
-        <v>1.031881816863611</v>
+        <v>1.044455468609508</v>
       </c>
       <c r="G5">
-        <v>0.9927895981350087</v>
+        <v>1.046519056181554</v>
       </c>
       <c r="H5">
-        <v>1.010360419991486</v>
+        <v>1.046519056181554</v>
       </c>
       <c r="I5">
-        <v>1.031881816863611</v>
+        <v>1.046519056181554</v>
       </c>
       <c r="J5">
-        <v>0.9696817847188265</v>
+        <v>1.044585316037463</v>
       </c>
       <c r="K5">
-        <v>0.9904864649726575</v>
+        <v>0.889005780237754</v>
       </c>
       <c r="L5">
-        <v>1.01040879431086</v>
+        <v>0.889005780237754</v>
       </c>
       <c r="M5">
-        <v>0.9793331859824087</v>
+        <v>0.9859885573487034</v>
       </c>
       <c r="N5">
-        <v>1.031881816863611</v>
+        <v>1.046519056181554</v>
       </c>
       <c r="O5">
-        <v>1.001740853183395</v>
+        <v>1.044585316037463</v>
       </c>
       <c r="P5">
-        <v>0.9857113189511106</v>
+        <v>0.9667955481376083</v>
       </c>
       <c r="Q5">
-        <v>0.9972652256592018</v>
+        <v>1.010548059045388</v>
       </c>
       <c r="R5">
-        <v>1.001101484921944</v>
+        <v>0.9933700508189237</v>
       </c>
       <c r="S5">
-        <v>0.9880707453457434</v>
+        <v>0.9700339661095102</v>
       </c>
       <c r="T5">
-        <v>1.001101484921944</v>
+        <v>0.9933700508189237</v>
       </c>
       <c r="U5">
-        <v>0.9990235132252102</v>
+        <v>0.9891552386275213</v>
       </c>
       <c r="V5">
-        <v>1.00559517395289</v>
+        <v>1.000628002138328</v>
       </c>
       <c r="W5">
-        <v>0.9983353647697817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9920379002314477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.047007561667516</v>
+        <v>0.7634006996762543</v>
       </c>
       <c r="D6">
-        <v>0.9553634410979244</v>
+        <v>1.057842211715283</v>
       </c>
       <c r="E6">
-        <v>1.002835734510459</v>
+        <v>0.9234264298596055</v>
       </c>
       <c r="F6">
-        <v>1.047007561667516</v>
+        <v>1.155071307564205</v>
       </c>
       <c r="G6">
-        <v>0.9892674570387295</v>
+        <v>1.109240307005956</v>
       </c>
       <c r="H6">
-        <v>1.01514468668081</v>
+        <v>1.109240307005956</v>
       </c>
       <c r="I6">
-        <v>1.047007561667516</v>
+        <v>1.109240307005956</v>
       </c>
       <c r="J6">
-        <v>0.9553634410979244</v>
+        <v>1.176182004654559</v>
       </c>
       <c r="K6">
-        <v>0.986293276412717</v>
+        <v>0.6262722612710234</v>
       </c>
       <c r="L6">
-        <v>1.015004050450322</v>
+        <v>0.6262722612710234</v>
       </c>
       <c r="M6">
-        <v>0.9696495506214465</v>
+        <v>0.9644777645922072</v>
       </c>
       <c r="N6">
-        <v>1.047007561667516</v>
+        <v>1.109240307005956</v>
       </c>
       <c r="O6">
-        <v>1.002835734510459</v>
+        <v>1.176182004654559</v>
       </c>
       <c r="P6">
-        <v>0.9790995878041918</v>
+        <v>0.9012271329627914</v>
       </c>
       <c r="Q6">
-        <v>0.9960515957745943</v>
+        <v>1.049804217257083</v>
       </c>
       <c r="R6">
-        <v>1.001735579091966</v>
+        <v>0.9705648576438461</v>
       </c>
       <c r="S6">
-        <v>0.9824888775490378</v>
+        <v>0.9086268985950628</v>
       </c>
       <c r="T6">
-        <v>1.001735579091966</v>
+        <v>0.9705648576438461</v>
       </c>
       <c r="U6">
-        <v>0.9986185485786572</v>
+        <v>0.9587802506977861</v>
       </c>
       <c r="V6">
-        <v>1.008296351196429</v>
+        <v>0.9888722619594199</v>
       </c>
       <c r="W6">
-        <v>0.9975707198099906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9719891232923867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000389672672429</v>
+        <v>0.9933863362670049</v>
       </c>
       <c r="D7">
-        <v>0.9991636187158033</v>
+        <v>1.003657232508415</v>
       </c>
       <c r="E7">
-        <v>1.000306590287313</v>
+        <v>0.9976823095484235</v>
       </c>
       <c r="F7">
-        <v>1.000389672672429</v>
+        <v>1.003210274467359</v>
       </c>
       <c r="G7">
-        <v>0.9998274107832436</v>
+        <v>1.0112195200874</v>
       </c>
       <c r="H7">
-        <v>1.000331580878122</v>
+        <v>1.0112195200874</v>
       </c>
       <c r="I7">
-        <v>1.000389672672429</v>
+        <v>1.0112195200874</v>
       </c>
       <c r="J7">
-        <v>0.9991636187158033</v>
+        <v>0.9998611476983256</v>
       </c>
       <c r="K7">
-        <v>0.9998734152710906</v>
+        <v>0.9905126237497666</v>
       </c>
       <c r="L7">
-        <v>1.000173110611032</v>
+        <v>0.9905126237497666</v>
       </c>
       <c r="M7">
-        <v>0.9994616991171935</v>
+        <v>0.9965419623808349</v>
       </c>
       <c r="N7">
-        <v>1.000389672672429</v>
+        <v>1.0112195200874</v>
       </c>
       <c r="O7">
-        <v>1.000306590287313</v>
+        <v>0.9998611476983256</v>
       </c>
       <c r="P7">
-        <v>0.9997351045015579</v>
+        <v>0.995186885724046</v>
       </c>
       <c r="Q7">
-        <v>1.000067000535278</v>
+        <v>0.9987717286233746</v>
       </c>
       <c r="R7">
-        <v>0.9999532938918483</v>
+        <v>1.000531097178498</v>
       </c>
       <c r="S7">
-        <v>0.9997658732621199</v>
+        <v>0.9960186936655052</v>
       </c>
       <c r="T7">
-        <v>0.9999532938918483</v>
+        <v>1.000531097178498</v>
       </c>
       <c r="U7">
-        <v>0.9999218231146971</v>
+        <v>0.999818900270979</v>
       </c>
       <c r="V7">
-        <v>1.000015393026243</v>
+        <v>1.002099024234263</v>
       </c>
       <c r="W7">
-        <v>0.9999408872920283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9995089258384413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001336596072071</v>
+        <v>0.9994071531897171</v>
       </c>
       <c r="D8">
-        <v>0.997643178701064</v>
+        <v>1.000282921522341</v>
       </c>
       <c r="E8">
-        <v>1.000723163314588</v>
+        <v>1.000016789505508</v>
       </c>
       <c r="F8">
-        <v>1.001336596072071</v>
+        <v>1.000272979213183</v>
       </c>
       <c r="G8">
-        <v>0.9995037810448227</v>
+        <v>1.000135937594402</v>
       </c>
       <c r="H8">
-        <v>1.000911040086609</v>
+        <v>1.000135937594402</v>
       </c>
       <c r="I8">
-        <v>1.001336596072071</v>
+        <v>1.000135937594402</v>
       </c>
       <c r="J8">
-        <v>0.997643178701064</v>
+        <v>1.000278179579533</v>
       </c>
       <c r="K8">
-        <v>0.9995736563911292</v>
+        <v>0.9987035572099884</v>
       </c>
       <c r="L8">
-        <v>1.000551785957544</v>
+        <v>0.9987035572099884</v>
       </c>
       <c r="M8">
-        <v>0.9984658230784824</v>
+        <v>0.9999921720315632</v>
       </c>
       <c r="N8">
-        <v>1.001336596072071</v>
+        <v>1.000135937594402</v>
       </c>
       <c r="O8">
-        <v>1.000723163314588</v>
+        <v>1.000278179579533</v>
       </c>
       <c r="P8">
-        <v>0.9991831710078262</v>
+        <v>0.9994908683947605</v>
       </c>
       <c r="Q8">
-        <v>1.000113472179706</v>
+        <v>1.00014748454252</v>
       </c>
       <c r="R8">
-        <v>0.9999009793625745</v>
+        <v>0.9997058914613076</v>
       </c>
       <c r="S8">
-        <v>0.9992900410201583</v>
+        <v>0.9996661754316764</v>
       </c>
       <c r="T8">
-        <v>0.9999009793625745</v>
+        <v>0.9997058914613076</v>
       </c>
       <c r="U8">
-        <v>0.9998016797831366</v>
+        <v>0.9997836159723577</v>
       </c>
       <c r="V8">
-        <v>1.000108663040923</v>
+        <v>0.9998540802967664</v>
       </c>
       <c r="W8">
-        <v>0.9998386280807889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9998862112307794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002315743361018</v>
+        <v>0.9892523666078221</v>
       </c>
       <c r="D9">
-        <v>0.9966257901109187</v>
+        <v>1.005502931367238</v>
       </c>
       <c r="E9">
-        <v>1.000809069011563</v>
+        <v>0.9962814640006342</v>
       </c>
       <c r="F9">
-        <v>1.002315743361018</v>
+        <v>1.005348167382216</v>
       </c>
       <c r="G9">
-        <v>0.9992808055472202</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="H9">
-        <v>1.001269519850056</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="I9">
-        <v>1.002315743361018</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="J9">
-        <v>0.9966257901109187</v>
+        <v>1.000729919673267</v>
       </c>
       <c r="K9">
-        <v>0.9992556771262628</v>
+        <v>0.984219402780832</v>
       </c>
       <c r="L9">
-        <v>1.000906403884071</v>
+        <v>0.984219402780832</v>
       </c>
       <c r="M9">
-        <v>0.9977759869262893</v>
+        <v>0.9949813394367369</v>
       </c>
       <c r="N9">
-        <v>1.002315743361018</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="O9">
-        <v>1.000809069011563</v>
+        <v>1.000729919673267</v>
       </c>
       <c r="P9">
-        <v>0.9987174295612407</v>
+        <v>0.9924746612270493</v>
       </c>
       <c r="Q9">
-        <v>1.000044937279391</v>
+        <v>0.9985056918369504</v>
       </c>
       <c r="R9">
-        <v>0.9999168674944997</v>
+        <v>1.000571284586943</v>
       </c>
       <c r="S9">
-        <v>0.9989052215565671</v>
+        <v>0.993743595484911</v>
       </c>
       <c r="T9">
-        <v>0.9999168674944997</v>
+        <v>1.000571284586943</v>
       </c>
       <c r="U9">
-        <v>0.9997578520076799</v>
+        <v>0.9994988294403658</v>
       </c>
       <c r="V9">
-        <v>1.000269430278347</v>
+        <v>1.002951969813639</v>
       </c>
       <c r="W9">
-        <v>0.9997798744771748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9991350153194345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.004512443530968</v>
+        <v>0.7595059371072382</v>
       </c>
       <c r="D10">
-        <v>0.992745059587561</v>
+        <v>1.058158943493794</v>
       </c>
       <c r="E10">
-        <v>1.001960799676365</v>
+        <v>0.9220707749319768</v>
       </c>
       <c r="F10">
-        <v>1.004512443530968</v>
+        <v>1.157901533088965</v>
       </c>
       <c r="G10">
-        <v>0.9984912121779433</v>
+        <v>1.109284061402891</v>
       </c>
       <c r="H10">
-        <v>1.002744022724811</v>
+        <v>1.109284061402891</v>
       </c>
       <c r="I10">
-        <v>1.004512443530968</v>
+        <v>1.109284061402891</v>
       </c>
       <c r="J10">
-        <v>0.992745059587561</v>
+        <v>1.18039527554535</v>
       </c>
       <c r="K10">
-        <v>0.9985556991757522</v>
+        <v>0.6199667690915767</v>
       </c>
       <c r="L10">
-        <v>1.001828104450844</v>
+        <v>0.6199667690915767</v>
       </c>
       <c r="M10">
-        <v>0.9952715484304848</v>
+        <v>0.9645427618426494</v>
       </c>
       <c r="N10">
-        <v>1.004512443530968</v>
+        <v>1.109284061402891</v>
       </c>
       <c r="O10">
-        <v>1.001960799676365</v>
+        <v>1.18039527554535</v>
       </c>
       <c r="P10">
-        <v>0.9973529296319632</v>
+        <v>0.9001810223184632</v>
       </c>
       <c r="Q10">
-        <v>1.000226005927154</v>
+        <v>1.051233025238663</v>
       </c>
       <c r="R10">
-        <v>0.9997394342649649</v>
+        <v>0.9698820353466059</v>
       </c>
       <c r="S10">
-        <v>0.9977323571472899</v>
+        <v>0.9074776065229676</v>
       </c>
       <c r="T10">
-        <v>0.9997394342649649</v>
+        <v>0.9698820353466059</v>
       </c>
       <c r="U10">
-        <v>0.9994273787432095</v>
+        <v>0.9579292202429486</v>
       </c>
       <c r="V10">
-        <v>1.000444391700761</v>
+        <v>0.9882001884749372</v>
       </c>
       <c r="W10">
-        <v>0.9995136112193413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9714782570630551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.008944830892985</v>
+        <v>0.9575432156080381</v>
       </c>
       <c r="D11">
-        <v>0.987879123950712</v>
+        <v>1.017155768665251</v>
       </c>
       <c r="E11">
-        <v>1.002499377937993</v>
+        <v>0.9809869377061212</v>
       </c>
       <c r="F11">
-        <v>1.008944830892985</v>
+        <v>1.025359805803733</v>
       </c>
       <c r="G11">
-        <v>0.9974153674990693</v>
+        <v>1.060459748977564</v>
       </c>
       <c r="H11">
-        <v>1.00448576248894</v>
+        <v>1.060459748977564</v>
       </c>
       <c r="I11">
-        <v>1.008944830892985</v>
+        <v>1.060459748977564</v>
       </c>
       <c r="J11">
-        <v>0.987879123950712</v>
+        <v>1.011941675500995</v>
       </c>
       <c r="K11">
-        <v>0.9971284541736828</v>
+        <v>0.945731409254036</v>
       </c>
       <c r="L11">
-        <v>1.0034491935782</v>
+        <v>0.945731409254036</v>
       </c>
       <c r="M11">
-        <v>0.9919764506677288</v>
+        <v>0.9797661661113223</v>
       </c>
       <c r="N11">
-        <v>1.008944830892985</v>
+        <v>1.060459748977564</v>
       </c>
       <c r="O11">
-        <v>1.002499377937993</v>
+        <v>1.011941675500995</v>
       </c>
       <c r="P11">
-        <v>0.9951892509443527</v>
+        <v>0.9788365423775156</v>
       </c>
       <c r="Q11">
-        <v>0.9999573727185314</v>
+        <v>0.9964643066035581</v>
       </c>
       <c r="R11">
-        <v>0.9997744442605635</v>
+        <v>1.006044277910865</v>
       </c>
       <c r="S11">
-        <v>0.995931289795925</v>
+        <v>0.9795533408203841</v>
       </c>
       <c r="T11">
-        <v>0.9997744442605635</v>
+        <v>1.006044277910865</v>
       </c>
       <c r="U11">
-        <v>0.99918467507019</v>
+        <v>0.9997799428596792</v>
       </c>
       <c r="V11">
-        <v>1.001136706234749</v>
+        <v>1.011915904083256</v>
       </c>
       <c r="W11">
-        <v>0.999222320148664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9973680909533826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.029052815545128</v>
+        <v>0.9266773381263157</v>
       </c>
       <c r="D12">
-        <v>1.208438615235842</v>
+        <v>1.016713702557894</v>
       </c>
       <c r="E12">
-        <v>0.8480313563145122</v>
+        <v>0.9756137258631566</v>
       </c>
       <c r="F12">
-        <v>1.029052815545128</v>
+        <v>1.047966981273682</v>
       </c>
       <c r="G12">
-        <v>1.041978687961073</v>
+        <v>1.034264758463158</v>
       </c>
       <c r="H12">
-        <v>0.910020293789749</v>
+        <v>1.034264758463158</v>
       </c>
       <c r="I12">
-        <v>1.029052815545128</v>
+        <v>1.034264758463158</v>
       </c>
       <c r="J12">
-        <v>1.208438615235842</v>
+        <v>1.055486558589472</v>
       </c>
       <c r="K12">
-        <v>0.9811293604538415</v>
+        <v>0.8836260383368416</v>
       </c>
       <c r="L12">
-        <v>1.002430747304343</v>
+        <v>0.8836260383368416</v>
       </c>
       <c r="M12">
-        <v>1.121099826466081</v>
+        <v>0.9901207649684197</v>
       </c>
       <c r="N12">
-        <v>1.029052815545128</v>
+        <v>1.034264758463158</v>
       </c>
       <c r="O12">
-        <v>0.8480313563145122</v>
+        <v>1.055486558589472</v>
       </c>
       <c r="P12">
-        <v>1.028234985775177</v>
+        <v>0.9695562984631567</v>
       </c>
       <c r="Q12">
-        <v>0.9450050221377928</v>
+        <v>1.015550142226314</v>
       </c>
       <c r="R12">
-        <v>1.028507595698494</v>
+        <v>0.9911257851298236</v>
       </c>
       <c r="S12">
-        <v>1.032816219837143</v>
+        <v>0.9715754409298234</v>
       </c>
       <c r="T12">
-        <v>1.028507595698494</v>
+        <v>0.9911257851298236</v>
       </c>
       <c r="U12">
-        <v>1.031875368764139</v>
+        <v>0.9872477703131569</v>
       </c>
       <c r="V12">
-        <v>1.031310858120337</v>
+        <v>0.9966511679431571</v>
       </c>
       <c r="W12">
-        <v>1.017772712883821</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9913087335223674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9253501863210959</v>
+        <v>1.043487418475062</v>
       </c>
       <c r="D13">
-        <v>1.011123206271381</v>
+        <v>0.9848227026736269</v>
       </c>
       <c r="E13">
-        <v>1.041642391419102</v>
+        <v>1.014764920246325</v>
       </c>
       <c r="F13">
-        <v>0.9253501863210959</v>
+        <v>0.9740807280127584</v>
       </c>
       <c r="G13">
-        <v>1.00103054220385</v>
+        <v>0.9603851835183232</v>
       </c>
       <c r="H13">
-        <v>1.002846928100491</v>
+        <v>0.9603851835183232</v>
       </c>
       <c r="I13">
-        <v>0.9253501863210959</v>
+        <v>0.9603851835183232</v>
       </c>
       <c r="J13">
-        <v>1.011123206271381</v>
+        <v>0.9795660473333295</v>
       </c>
       <c r="K13">
-        <v>1.027129672452167</v>
+        <v>1.066328163559763</v>
       </c>
       <c r="L13">
-        <v>0.9731921456920544</v>
+        <v>1.066328163559763</v>
       </c>
       <c r="M13">
-        <v>1.011653872214887</v>
+        <v>1.012215343670952</v>
       </c>
       <c r="N13">
-        <v>0.9253501863210959</v>
+        <v>0.9603851835183232</v>
       </c>
       <c r="O13">
-        <v>1.041642391419102</v>
+        <v>0.9795660473333295</v>
       </c>
       <c r="P13">
-        <v>1.026382798845241</v>
+        <v>1.022947105446546</v>
       </c>
       <c r="Q13">
-        <v>1.021336466811476</v>
+        <v>0.9971654837898274</v>
       </c>
       <c r="R13">
-        <v>0.9927052613371928</v>
+        <v>1.002093131470472</v>
       </c>
       <c r="S13">
-        <v>1.017932046631444</v>
+        <v>1.020219710379806</v>
       </c>
       <c r="T13">
-        <v>0.9927052613371928</v>
+        <v>1.002093131470472</v>
       </c>
       <c r="U13">
-        <v>0.994786581553857</v>
+        <v>1.005261078664435</v>
       </c>
       <c r="V13">
-        <v>0.9808993025073048</v>
+        <v>0.9962858996352129</v>
       </c>
       <c r="W13">
-        <v>0.9992461180843784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.004456313436267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7861127358559967</v>
+        <v>0.5835660400000007</v>
       </c>
       <c r="D14">
-        <v>0.8654670683000033</v>
+        <v>1.100097199999999</v>
       </c>
       <c r="E14">
-        <v>1.199091074229437</v>
+        <v>0.8654664700000008</v>
       </c>
       <c r="F14">
-        <v>0.7861127358559967</v>
+        <v>1.274408899999999</v>
       </c>
       <c r="G14">
-        <v>0.9839295210114044</v>
+        <v>1.183405100000001</v>
       </c>
       <c r="H14">
-        <v>1.064927450800309</v>
+        <v>1.183405100000001</v>
       </c>
       <c r="I14">
-        <v>0.7861127358559967</v>
+        <v>1.183405100000001</v>
       </c>
       <c r="J14">
-        <v>0.8654670683000033</v>
+        <v>1.315509199999998</v>
       </c>
       <c r="K14">
-        <v>1.083132371393851</v>
+        <v>0.3422105699999997</v>
       </c>
       <c r="L14">
-        <v>0.9400114006175166</v>
+        <v>0.3422105699999997</v>
       </c>
       <c r="M14">
-        <v>0.9443093510656936</v>
+        <v>0.9392734700000017</v>
       </c>
       <c r="N14">
-        <v>0.7861127358559967</v>
+        <v>1.183405100000001</v>
       </c>
       <c r="O14">
-        <v>1.199091074229437</v>
+        <v>1.315509199999998</v>
       </c>
       <c r="P14">
-        <v>1.03227907126472</v>
+        <v>0.8288598849999991</v>
       </c>
       <c r="Q14">
-        <v>1.091510297620421</v>
+        <v>1.090487835</v>
       </c>
       <c r="R14">
-        <v>0.950223626128479</v>
+        <v>0.9470416233333331</v>
       </c>
       <c r="S14">
-        <v>1.016162554513615</v>
+        <v>0.8410620799999996</v>
       </c>
       <c r="T14">
-        <v>0.950223626128479</v>
+        <v>0.9470416233333331</v>
       </c>
       <c r="U14">
-        <v>0.9586500998492103</v>
+        <v>0.926647835</v>
       </c>
       <c r="V14">
-        <v>0.9241426270505677</v>
+        <v>0.9779992880000001</v>
       </c>
       <c r="W14">
-        <v>0.9833726216592764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9504921187500001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.090910876987596</v>
+        <v>0.4511150999999999</v>
       </c>
       <c r="D15">
-        <v>1.053476317894016</v>
+        <v>1.3998199</v>
       </c>
       <c r="E15">
-        <v>0.9213753074936379</v>
+        <v>0.82918194</v>
       </c>
       <c r="F15">
-        <v>1.090910876987596</v>
+        <v>1.2265952</v>
       </c>
       <c r="G15">
-        <v>1.003998577029389</v>
+        <v>2.157425</v>
       </c>
       <c r="H15">
-        <v>0.9768914029675525</v>
+        <v>2.157425</v>
       </c>
       <c r="I15">
-        <v>1.090910876987596</v>
+        <v>2.157425</v>
       </c>
       <c r="J15">
-        <v>1.053476317894016</v>
+        <v>0.80455108</v>
       </c>
       <c r="K15">
-        <v>0.9633449958563002</v>
+        <v>0.23327132</v>
       </c>
       <c r="L15">
-        <v>1.025432234718397</v>
+        <v>0.23327132</v>
       </c>
       <c r="M15">
-        <v>1.019218186962218</v>
+        <v>0.62072248</v>
       </c>
       <c r="N15">
-        <v>1.090910876987596</v>
+        <v>2.157425</v>
       </c>
       <c r="O15">
-        <v>0.9213753074936379</v>
+        <v>0.80455108</v>
       </c>
       <c r="P15">
-        <v>0.9874258126938271</v>
+        <v>0.5189112</v>
       </c>
       <c r="Q15">
-        <v>0.9626869422615136</v>
+        <v>0.81686651</v>
       </c>
       <c r="R15">
-        <v>1.021920834125083</v>
+        <v>1.065082466666667</v>
       </c>
       <c r="S15">
-        <v>0.9929500674723478</v>
+        <v>0.62233478</v>
       </c>
       <c r="T15">
-        <v>1.021920834125083</v>
+        <v>1.065082466666667</v>
       </c>
       <c r="U15">
-        <v>1.01744026985116</v>
+        <v>1.006107335</v>
       </c>
       <c r="V15">
-        <v>1.032134391278447</v>
+        <v>1.236370868</v>
       </c>
       <c r="W15">
-        <v>1.006830987488638</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9653352525000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000049054533748</v>
+        <v>0.3768648800000001</v>
       </c>
       <c r="D16">
-        <v>1.000235675401597</v>
+        <v>1.2071827</v>
       </c>
       <c r="E16">
-        <v>1.000210641741219</v>
+        <v>0.72413805</v>
       </c>
       <c r="F16">
-        <v>1.000049054533748</v>
+        <v>1.3825474</v>
       </c>
       <c r="G16">
-        <v>0.9998225673610467</v>
+        <v>1.7583183</v>
       </c>
       <c r="H16">
-        <v>1.000132916600358</v>
+        <v>1.7583183</v>
       </c>
       <c r="I16">
-        <v>1.000049054533748</v>
+        <v>1.7583183</v>
       </c>
       <c r="J16">
-        <v>1.000235675401597</v>
+        <v>1.2625809</v>
       </c>
       <c r="K16">
-        <v>0.9999388979190198</v>
+        <v>0.16077021</v>
       </c>
       <c r="L16">
-        <v>0.9998862239803789</v>
+        <v>0.16077021</v>
       </c>
       <c r="M16">
-        <v>0.9999616251196394</v>
+        <v>0.7639211299999999</v>
       </c>
       <c r="N16">
-        <v>1.000049054533748</v>
+        <v>1.7583183</v>
       </c>
       <c r="O16">
-        <v>1.000210641741219</v>
+        <v>1.2625809</v>
       </c>
       <c r="P16">
-        <v>1.000223158571408</v>
+        <v>0.7116755549999999</v>
       </c>
       <c r="Q16">
-        <v>1.000016604551133</v>
+        <v>0.9933594749999999</v>
       </c>
       <c r="R16">
-        <v>1.000165123892188</v>
+        <v>1.06055647</v>
       </c>
       <c r="S16">
-        <v>1.000089628167954</v>
+        <v>0.7158297199999999</v>
       </c>
       <c r="T16">
-        <v>1.000165123892188</v>
+        <v>1.06055647</v>
       </c>
       <c r="U16">
-        <v>1.000079484759403</v>
+        <v>0.9764518649999999</v>
       </c>
       <c r="V16">
-        <v>1.000073398714272</v>
+        <v>1.132825152</v>
       </c>
       <c r="W16">
-        <v>1.000029700332126</v>
+        <v>0.95454044625</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000135937594402</v>
+        <v>0.8204790199999999</v>
       </c>
       <c r="D17">
-        <v>0.9987035572099885</v>
+        <v>1.1092923</v>
       </c>
       <c r="E17">
-        <v>1.000278179579533</v>
+        <v>0.98445046</v>
       </c>
       <c r="F17">
-        <v>1.000135937594402</v>
+        <v>1.0739027</v>
       </c>
       <c r="G17">
-        <v>1.000016789505508</v>
+        <v>1.18395</v>
       </c>
       <c r="H17">
-        <v>1.000272979213183</v>
+        <v>1.18395</v>
       </c>
       <c r="I17">
-        <v>1.000135937594402</v>
+        <v>1.18395</v>
       </c>
       <c r="J17">
-        <v>0.9987035572099885</v>
+        <v>1.007136</v>
       </c>
       <c r="K17">
-        <v>0.9999921720315634</v>
+        <v>0.6563165200000001</v>
       </c>
       <c r="L17">
-        <v>1.000282921522342</v>
+        <v>0.6563165200000001</v>
       </c>
       <c r="M17">
-        <v>0.999407153189717</v>
+        <v>0.9505221699999999</v>
       </c>
       <c r="N17">
-        <v>1.000135937594402</v>
+        <v>1.18395</v>
       </c>
       <c r="O17">
-        <v>1.000278179579533</v>
+        <v>1.007136</v>
       </c>
       <c r="P17">
-        <v>0.9994908683947605</v>
+        <v>0.8317262600000001</v>
       </c>
       <c r="Q17">
-        <v>1.00014748454252</v>
+        <v>0.9957932300000001</v>
       </c>
       <c r="R17">
-        <v>0.9997058914613076</v>
+        <v>0.9491341733333334</v>
       </c>
       <c r="S17">
-        <v>0.9996661754316764</v>
+        <v>0.8826343266666666</v>
       </c>
       <c r="T17">
-        <v>0.9997058914613076</v>
+        <v>0.9491341733333334</v>
       </c>
       <c r="U17">
-        <v>0.9997836159723577</v>
+        <v>0.9579632450000001</v>
       </c>
       <c r="V17">
-        <v>0.9998540802967664</v>
+        <v>1.003160596</v>
       </c>
       <c r="W17">
-        <v>0.9998862112307795</v>
+        <v>0.97325614625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003118616266872</v>
+        <v>0.8671396079452055</v>
       </c>
       <c r="D18">
-        <v>0.9984189804075145</v>
+        <v>1.071806261643836</v>
       </c>
       <c r="E18">
-        <v>1.00032828351623</v>
+        <v>0.9539852597260273</v>
       </c>
       <c r="F18">
-        <v>1.003118616266872</v>
+        <v>1.064457720547946</v>
       </c>
       <c r="G18">
-        <v>0.9989608601882438</v>
+        <v>1.219908410410959</v>
       </c>
       <c r="H18">
-        <v>1.001067629737468</v>
+        <v>1.219908410410959</v>
       </c>
       <c r="I18">
-        <v>1.003118616266872</v>
+        <v>1.219908410410959</v>
       </c>
       <c r="J18">
-        <v>0.9984189804075145</v>
+        <v>1.000584686575342</v>
       </c>
       <c r="K18">
-        <v>0.9989352325892222</v>
+        <v>0.8068983608219181</v>
       </c>
       <c r="L18">
-        <v>1.000629556673994</v>
+        <v>0.8068983608219181</v>
       </c>
       <c r="M18">
-        <v>0.9983317038757871</v>
+        <v>0.9334656342465755</v>
       </c>
       <c r="N18">
-        <v>1.003118616266872</v>
+        <v>1.219908410410959</v>
       </c>
       <c r="O18">
-        <v>1.00032828351623</v>
+        <v>1.000584686575342</v>
       </c>
       <c r="P18">
-        <v>0.9993736319618721</v>
+        <v>0.9037415236986301</v>
       </c>
       <c r="Q18">
-        <v>0.9996445718522368</v>
+        <v>0.9772849731506847</v>
       </c>
       <c r="R18">
-        <v>1.000621960063539</v>
+        <v>1.009130485936073</v>
       </c>
       <c r="S18">
-        <v>0.9992360413706627</v>
+        <v>0.9204894357077625</v>
       </c>
       <c r="T18">
-        <v>1.000621960063539</v>
+        <v>1.009130485936073</v>
       </c>
       <c r="U18">
-        <v>1.000206685094715</v>
+        <v>0.9953441793835618</v>
       </c>
       <c r="V18">
-        <v>1.000789071329146</v>
+        <v>1.040257025589041</v>
       </c>
       <c r="W18">
-        <v>0.9999738579069164</v>
+        <v>0.9897807427397263</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.009330597550518</v>
+        <v>0.7051555784210526</v>
       </c>
       <c r="D19">
-        <v>0.9986576352884786</v>
+        <v>1.060169268947368</v>
       </c>
       <c r="E19">
-        <v>1.000380999919854</v>
+        <v>0.9047324863157896</v>
       </c>
       <c r="F19">
-        <v>1.009330597550518</v>
+        <v>1.190464578947368</v>
       </c>
       <c r="G19">
-        <v>0.996665794077441</v>
+        <v>1.12050397</v>
       </c>
       <c r="H19">
-        <v>1.002625755780864</v>
+        <v>1.12050397</v>
       </c>
       <c r="I19">
-        <v>1.009330597550518</v>
+        <v>1.12050397</v>
       </c>
       <c r="J19">
-        <v>0.9986576352884786</v>
+        <v>1.232643878947368</v>
       </c>
       <c r="K19">
-        <v>0.9967011566207751</v>
+        <v>0.5157660921052631</v>
       </c>
       <c r="L19">
-        <v>1.001138502155525</v>
+        <v>0.5157660921052631</v>
       </c>
       <c r="M19">
-        <v>0.9964064570165216</v>
+        <v>0.974875287894737</v>
       </c>
       <c r="N19">
-        <v>1.009330597550518</v>
+        <v>1.12050397</v>
       </c>
       <c r="O19">
-        <v>1.000380999919854</v>
+        <v>1.232643878947368</v>
       </c>
       <c r="P19">
-        <v>0.9995193176041661</v>
+        <v>0.8742049855263156</v>
       </c>
       <c r="Q19">
-        <v>0.9985233969986473</v>
+        <v>1.068688182631579</v>
       </c>
       <c r="R19">
-        <v>1.00278974425295</v>
+        <v>0.9563046470175438</v>
       </c>
       <c r="S19">
-        <v>0.9985681430952577</v>
+        <v>0.884380819122807</v>
       </c>
       <c r="T19">
-        <v>1.00278974425295</v>
+        <v>0.9563046470175438</v>
       </c>
       <c r="U19">
-        <v>1.001258756709073</v>
+        <v>0.9434116068421052</v>
       </c>
       <c r="V19">
-        <v>1.002873124877362</v>
+        <v>0.9788300794736842</v>
       </c>
       <c r="W19">
-        <v>1.000238362301247</v>
+        <v>0.9630388926973684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.7446285189473685</v>
+      </c>
+      <c r="D20">
+        <v>1.084647864210526</v>
+      </c>
+      <c r="E20">
+        <v>0.8995358031578948</v>
+      </c>
+      <c r="F20">
+        <v>1.158401121578948</v>
+      </c>
+      <c r="G20">
+        <v>1.256881638947368</v>
+      </c>
+      <c r="H20">
+        <v>1.256881638947368</v>
+      </c>
+      <c r="I20">
+        <v>1.256881638947368</v>
+      </c>
+      <c r="J20">
+        <v>1.122981076842105</v>
+      </c>
+      <c r="K20">
+        <v>0.637503872631579</v>
+      </c>
+      <c r="L20">
+        <v>0.637503872631579</v>
+      </c>
+      <c r="M20">
+        <v>0.9163306931578947</v>
+      </c>
+      <c r="N20">
+        <v>1.256881638947368</v>
+      </c>
+      <c r="O20">
+        <v>1.122981076842105</v>
+      </c>
+      <c r="P20">
+        <v>0.8802424747368423</v>
+      </c>
+      <c r="Q20">
+        <v>1.01125844</v>
+      </c>
+      <c r="R20">
+        <v>1.005788862807018</v>
+      </c>
+      <c r="S20">
+        <v>0.8866735842105266</v>
+      </c>
+      <c r="T20">
+        <v>1.005788862807018</v>
+      </c>
+      <c r="U20">
+        <v>0.9792255978947368</v>
+      </c>
+      <c r="V20">
+        <v>1.034756806105263</v>
+      </c>
+      <c r="W20">
+        <v>0.9776138236842107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9443093510656936</v>
+      </c>
+      <c r="D21">
+        <v>0.9400114006175166</v>
+      </c>
+      <c r="E21">
+        <v>0.9839295210114044</v>
+      </c>
+      <c r="F21">
+        <v>1.064927450800309</v>
+      </c>
+      <c r="G21">
+        <v>0.7861127358559966</v>
+      </c>
+      <c r="H21">
+        <v>0.7861127358559966</v>
+      </c>
+      <c r="I21">
+        <v>0.7861127358559966</v>
+      </c>
+      <c r="J21">
+        <v>1.199091074229437</v>
+      </c>
+      <c r="K21">
+        <v>0.8654670683000033</v>
+      </c>
+      <c r="L21">
+        <v>0.8654670683000033</v>
+      </c>
+      <c r="M21">
+        <v>1.083132371393852</v>
+      </c>
+      <c r="N21">
+        <v>0.7861127358559966</v>
+      </c>
+      <c r="O21">
+        <v>1.199091074229437</v>
+      </c>
+      <c r="P21">
+        <v>1.03227907126472</v>
+      </c>
+      <c r="Q21">
+        <v>1.091510297620421</v>
+      </c>
+      <c r="R21">
+        <v>0.950223626128479</v>
+      </c>
+      <c r="S21">
+        <v>1.016162554513615</v>
+      </c>
+      <c r="T21">
+        <v>0.950223626128479</v>
+      </c>
+      <c r="U21">
+        <v>0.9586500998492103</v>
+      </c>
+      <c r="V21">
+        <v>0.9241426270505675</v>
+      </c>
+      <c r="W21">
+        <v>0.9833726216592764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.019218186962218</v>
+      </c>
+      <c r="D22">
+        <v>1.025432234718397</v>
+      </c>
+      <c r="E22">
+        <v>1.003998577029389</v>
+      </c>
+      <c r="F22">
+        <v>0.9768914029675525</v>
+      </c>
+      <c r="G22">
+        <v>1.090910876987596</v>
+      </c>
+      <c r="H22">
+        <v>1.090910876987596</v>
+      </c>
+      <c r="I22">
+        <v>1.090910876987596</v>
+      </c>
+      <c r="J22">
+        <v>0.9213753074936379</v>
+      </c>
+      <c r="K22">
+        <v>1.053476317894017</v>
+      </c>
+      <c r="L22">
+        <v>1.053476317894017</v>
+      </c>
+      <c r="M22">
+        <v>0.9633449958563002</v>
+      </c>
+      <c r="N22">
+        <v>1.090910876987596</v>
+      </c>
+      <c r="O22">
+        <v>0.9213753074936379</v>
+      </c>
+      <c r="P22">
+        <v>0.9874258126938273</v>
+      </c>
+      <c r="Q22">
+        <v>0.9626869422615136</v>
+      </c>
+      <c r="R22">
+        <v>1.021920834125084</v>
+      </c>
+      <c r="S22">
+        <v>0.992950067472348</v>
+      </c>
+      <c r="T22">
+        <v>1.021920834125084</v>
+      </c>
+      <c r="U22">
+        <v>1.01744026985116</v>
+      </c>
+      <c r="V22">
+        <v>1.032134391278448</v>
+      </c>
+      <c r="W22">
+        <v>1.006830987488639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.121099826466081</v>
+      </c>
+      <c r="D23">
+        <v>1.002430747304343</v>
+      </c>
+      <c r="E23">
+        <v>1.041978687961073</v>
+      </c>
+      <c r="F23">
+        <v>0.910020293789749</v>
+      </c>
+      <c r="G23">
+        <v>1.029052815545128</v>
+      </c>
+      <c r="H23">
+        <v>1.029052815545128</v>
+      </c>
+      <c r="I23">
+        <v>1.029052815545128</v>
+      </c>
+      <c r="J23">
+        <v>0.8480313563145121</v>
+      </c>
+      <c r="K23">
+        <v>1.208438615235842</v>
+      </c>
+      <c r="L23">
+        <v>1.208438615235842</v>
+      </c>
+      <c r="M23">
+        <v>0.9811293604538415</v>
+      </c>
+      <c r="N23">
+        <v>1.029052815545128</v>
+      </c>
+      <c r="O23">
+        <v>0.8480313563145121</v>
+      </c>
+      <c r="P23">
+        <v>1.028234985775177</v>
+      </c>
+      <c r="Q23">
+        <v>0.9450050221377926</v>
+      </c>
+      <c r="R23">
+        <v>1.028507595698494</v>
+      </c>
+      <c r="S23">
+        <v>1.032816219837143</v>
+      </c>
+      <c r="T23">
+        <v>1.028507595698494</v>
+      </c>
+      <c r="U23">
+        <v>1.031875368764139</v>
+      </c>
+      <c r="V23">
+        <v>1.031310858120337</v>
+      </c>
+      <c r="W23">
+        <v>1.017772712883821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.011653872214887</v>
+      </c>
+      <c r="D24">
+        <v>0.9731921456920544</v>
+      </c>
+      <c r="E24">
+        <v>1.00103054220385</v>
+      </c>
+      <c r="F24">
+        <v>1.002846928100491</v>
+      </c>
+      <c r="G24">
+        <v>0.9253501863210959</v>
+      </c>
+      <c r="H24">
+        <v>0.9253501863210959</v>
+      </c>
+      <c r="I24">
+        <v>0.9253501863210959</v>
+      </c>
+      <c r="J24">
+        <v>1.041642391419102</v>
+      </c>
+      <c r="K24">
+        <v>1.011123206271381</v>
+      </c>
+      <c r="L24">
+        <v>1.011123206271381</v>
+      </c>
+      <c r="M24">
+        <v>1.027129672452167</v>
+      </c>
+      <c r="N24">
+        <v>0.9253501863210959</v>
+      </c>
+      <c r="O24">
+        <v>1.041642391419102</v>
+      </c>
+      <c r="P24">
+        <v>1.026382798845241</v>
+      </c>
+      <c r="Q24">
+        <v>1.021336466811476</v>
+      </c>
+      <c r="R24">
+        <v>0.9927052613371928</v>
+      </c>
+      <c r="S24">
+        <v>1.017932046631444</v>
+      </c>
+      <c r="T24">
+        <v>0.9927052613371928</v>
+      </c>
+      <c r="U24">
+        <v>0.994786581553857</v>
+      </c>
+      <c r="V24">
+        <v>0.9808993025073048</v>
+      </c>
+      <c r="W24">
+        <v>0.9992461180843784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.048559597174507</v>
+      </c>
+      <c r="D25">
+        <v>1.029425751830572</v>
+      </c>
+      <c r="E25">
+        <v>1.009964475457077</v>
+      </c>
+      <c r="F25">
+        <v>0.95488794712036</v>
+      </c>
+      <c r="G25">
+        <v>1.120695045832896</v>
+      </c>
+      <c r="H25">
+        <v>1.120695045832896</v>
+      </c>
+      <c r="I25">
+        <v>1.120695045832896</v>
+      </c>
+      <c r="J25">
+        <v>0.8749414482001507</v>
+      </c>
+      <c r="K25">
+        <v>1.114912747444406</v>
+      </c>
+      <c r="L25">
+        <v>1.114912747444406</v>
+      </c>
+      <c r="M25">
+        <v>0.9495843473075586</v>
+      </c>
+      <c r="N25">
+        <v>1.120695045832896</v>
+      </c>
+      <c r="O25">
+        <v>0.8749414482001507</v>
+      </c>
+      <c r="P25">
+        <v>0.9949270978222784</v>
+      </c>
+      <c r="Q25">
+        <v>0.9424529618286137</v>
+      </c>
+      <c r="R25">
+        <v>1.036849747159151</v>
+      </c>
+      <c r="S25">
+        <v>0.9999395570338777</v>
+      </c>
+      <c r="T25">
+        <v>1.036849747159151</v>
+      </c>
+      <c r="U25">
+        <v>1.030128429233632</v>
+      </c>
+      <c r="V25">
+        <v>1.048241752553485</v>
+      </c>
+      <c r="W25">
+        <v>1.012871420045941</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9915000196836785</v>
+      </c>
+      <c r="D26">
+        <v>0.9849426755539294</v>
+      </c>
+      <c r="E26">
+        <v>1.003680113288748</v>
+      </c>
+      <c r="F26">
+        <v>1.007665716669143</v>
+      </c>
+      <c r="G26">
+        <v>0.940333488648821</v>
+      </c>
+      <c r="H26">
+        <v>0.940333488648821</v>
+      </c>
+      <c r="I26">
+        <v>0.940333488648821</v>
+      </c>
+      <c r="J26">
+        <v>1.042119200074225</v>
+      </c>
+      <c r="K26">
+        <v>0.9587770631887965</v>
+      </c>
+      <c r="L26">
+        <v>0.9587770631887965</v>
+      </c>
+      <c r="M26">
+        <v>1.028784504739448</v>
+      </c>
+      <c r="N26">
+        <v>0.940333488648821</v>
+      </c>
+      <c r="O26">
+        <v>1.042119200074225</v>
+      </c>
+      <c r="P26">
+        <v>1.000448131631511</v>
+      </c>
+      <c r="Q26">
+        <v>1.022899656681487</v>
+      </c>
+      <c r="R26">
+        <v>0.9804099173039477</v>
+      </c>
+      <c r="S26">
+        <v>1.00152545885059</v>
+      </c>
+      <c r="T26">
+        <v>0.9804099173039477</v>
+      </c>
+      <c r="U26">
+        <v>0.9862274663001477</v>
+      </c>
+      <c r="V26">
+        <v>0.9770486707698824</v>
+      </c>
+      <c r="W26">
+        <v>0.9947253477308489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9784866171187694</v>
+      </c>
+      <c r="D27">
+        <v>1.008370682216592</v>
+      </c>
+      <c r="E27">
+        <v>0.988517652051378</v>
+      </c>
+      <c r="F27">
+        <v>1.016219640118079</v>
+      </c>
+      <c r="G27">
+        <v>1.025290401903346</v>
+      </c>
+      <c r="H27">
+        <v>1.025290401903346</v>
+      </c>
+      <c r="I27">
+        <v>1.025290401903346</v>
+      </c>
+      <c r="J27">
+        <v>1.010225248292476</v>
+      </c>
+      <c r="K27">
+        <v>0.9810484054479265</v>
+      </c>
+      <c r="L27">
+        <v>0.9810484054479265</v>
+      </c>
+      <c r="M27">
+        <v>0.9864832632323143</v>
+      </c>
+      <c r="N27">
+        <v>1.025290401903346</v>
+      </c>
+      <c r="O27">
+        <v>1.010225248292476</v>
+      </c>
+      <c r="P27">
+        <v>0.9956368268702014</v>
+      </c>
+      <c r="Q27">
+        <v>0.9993714501719271</v>
+      </c>
+      <c r="R27">
+        <v>1.00552135188125</v>
+      </c>
+      <c r="S27">
+        <v>0.9932637685972603</v>
+      </c>
+      <c r="T27">
+        <v>1.00552135188125</v>
+      </c>
+      <c r="U27">
+        <v>1.001270426923782</v>
+      </c>
+      <c r="V27">
+        <v>1.006074421919695</v>
+      </c>
+      <c r="W27">
+        <v>0.9993302387976102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9735090803331943</v>
+      </c>
+      <c r="D28">
+        <v>1.006673564291857</v>
+      </c>
+      <c r="E28">
+        <v>0.9844439554057631</v>
+      </c>
+      <c r="F28">
+        <v>1.017228998004731</v>
+      </c>
+      <c r="G28">
+        <v>1.0388049669224</v>
+      </c>
+      <c r="H28">
+        <v>1.0388049669224</v>
+      </c>
+      <c r="I28">
+        <v>1.0388049669224</v>
+      </c>
+      <c r="J28">
+        <v>1.011750884460101</v>
+      </c>
+      <c r="K28">
+        <v>0.9698449742054086</v>
+      </c>
+      <c r="L28">
+        <v>0.9698449742054086</v>
+      </c>
+      <c r="M28">
+        <v>0.9886292071114462</v>
+      </c>
+      <c r="N28">
+        <v>1.0388049669224</v>
+      </c>
+      <c r="O28">
+        <v>1.011750884460101</v>
+      </c>
+      <c r="P28">
+        <v>0.9907979293327547</v>
+      </c>
+      <c r="Q28">
+        <v>0.998097419932932</v>
+      </c>
+      <c r="R28">
+        <v>1.006800275195969</v>
+      </c>
+      <c r="S28">
+        <v>0.9886799380237575</v>
+      </c>
+      <c r="T28">
+        <v>1.00680027519597</v>
+      </c>
+      <c r="U28">
+        <v>1.001211195248418</v>
+      </c>
+      <c r="V28">
+        <v>1.008729949583214</v>
+      </c>
+      <c r="W28">
+        <v>0.9988607038418625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.052694225096709</v>
+      </c>
+      <c r="D29">
+        <v>1.011816659594402</v>
+      </c>
+      <c r="E29">
+        <v>1.035770685897295</v>
+      </c>
+      <c r="F29">
+        <v>0.9509163744030563</v>
+      </c>
+      <c r="G29">
+        <v>0.9991287781189778</v>
+      </c>
+      <c r="H29">
+        <v>0.9991287781189778</v>
+      </c>
+      <c r="I29">
+        <v>0.9991287781189778</v>
+      </c>
+      <c r="J29">
+        <v>0.9181375634241195</v>
+      </c>
+      <c r="K29">
+        <v>1.057919932967258</v>
+      </c>
+      <c r="L29">
+        <v>1.057919932967258</v>
+      </c>
+      <c r="M29">
+        <v>1.000980766683897</v>
+      </c>
+      <c r="N29">
+        <v>0.9991287781189778</v>
+      </c>
+      <c r="O29">
+        <v>0.9181375634241195</v>
+      </c>
+      <c r="P29">
+        <v>0.9880287481956886</v>
+      </c>
+      <c r="Q29">
+        <v>0.9769541246607072</v>
+      </c>
+      <c r="R29">
+        <v>0.9917287581701184</v>
+      </c>
+      <c r="S29">
+        <v>1.003942727429558</v>
+      </c>
+      <c r="T29">
+        <v>0.9917287581701184</v>
+      </c>
+      <c r="U29">
+        <v>1.002739240101913</v>
+      </c>
+      <c r="V29">
+        <v>1.002017147705326</v>
+      </c>
+      <c r="W29">
+        <v>1.003420623273214</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BetaFiberA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/BetaFiberA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9096489231674431</v>
+        <v>0.9441377423279577</v>
       </c>
       <c r="D4">
-        <v>1.031882838794195</v>
+        <v>1.014305408482217</v>
       </c>
       <c r="E4">
-        <v>0.9658390619108757</v>
+        <v>0.9816364538187327</v>
       </c>
       <c r="F4">
-        <v>1.053698775839675</v>
+        <v>1.035680405775157</v>
       </c>
       <c r="G4">
-        <v>1.096617829388203</v>
+        <v>1.031065157713039</v>
       </c>
       <c r="H4">
-        <v>1.096617829388203</v>
+        <v>1.031065157713039</v>
       </c>
       <c r="I4">
-        <v>1.096617829388203</v>
+        <v>1.031065157713039</v>
       </c>
       <c r="J4">
-        <v>1.038181789542507</v>
+        <v>1.038593802438887</v>
       </c>
       <c r="K4">
-        <v>0.8681785816471163</v>
+        <v>0.9114039102761753</v>
       </c>
       <c r="L4">
-        <v>0.8681785816471163</v>
+        <v>0.9114039102761753</v>
       </c>
       <c r="M4">
-        <v>0.9704943620758754</v>
+        <v>0.9909873834273307</v>
       </c>
       <c r="N4">
-        <v>1.096617829388203</v>
+        <v>1.031065157713039</v>
       </c>
       <c r="O4">
-        <v>1.038181789542507</v>
+        <v>1.038593802438887</v>
       </c>
       <c r="P4">
-        <v>0.9531801855948117</v>
+        <v>0.974998856357531</v>
       </c>
       <c r="Q4">
-        <v>1.002010425726691</v>
+        <v>1.01011512812881</v>
       </c>
       <c r="R4">
-        <v>1.000992733525942</v>
+        <v>0.9936876234760336</v>
       </c>
       <c r="S4">
-        <v>0.9573998110334996</v>
+        <v>0.9772113888445982</v>
       </c>
       <c r="T4">
-        <v>1.000992733525942</v>
+        <v>0.9936876234760336</v>
       </c>
       <c r="U4">
-        <v>0.9922043156221754</v>
+        <v>0.9906748310617084</v>
       </c>
       <c r="V4">
-        <v>1.013087018375381</v>
+        <v>0.9987528963919743</v>
       </c>
       <c r="W4">
-        <v>0.9918177702957363</v>
+        <v>0.9934762830324368</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9291179567435147</v>
+        <v>0.7639092835037746</v>
       </c>
       <c r="D5">
-        <v>1.02012026463977</v>
+        <v>1.075482861433785</v>
       </c>
       <c r="E5">
-        <v>0.9765108020533143</v>
+        <v>0.9037454846467128</v>
       </c>
       <c r="F5">
-        <v>1.044455468609508</v>
+        <v>1.148241365742549</v>
       </c>
       <c r="G5">
-        <v>1.046519056181554</v>
+        <v>1.239354499233444</v>
       </c>
       <c r="H5">
-        <v>1.046519056181554</v>
+        <v>1.239354499233444</v>
       </c>
       <c r="I5">
-        <v>1.046519056181554</v>
+        <v>1.239354499233444</v>
       </c>
       <c r="J5">
-        <v>1.044585316037463</v>
+        <v>1.117048426297463</v>
       </c>
       <c r="K5">
-        <v>0.889005780237754</v>
+        <v>0.6697065804066629</v>
       </c>
       <c r="L5">
-        <v>0.889005780237754</v>
+        <v>0.6697065804066629</v>
       </c>
       <c r="M5">
-        <v>0.9859885573487034</v>
+        <v>0.9220546002350487</v>
       </c>
       <c r="N5">
-        <v>1.046519056181554</v>
+        <v>1.239354499233444</v>
       </c>
       <c r="O5">
-        <v>1.044585316037463</v>
+        <v>1.117048426297463</v>
       </c>
       <c r="P5">
-        <v>0.9667955481376083</v>
+        <v>0.8933775033520628</v>
       </c>
       <c r="Q5">
-        <v>1.010548059045388</v>
+        <v>1.010396955472088</v>
       </c>
       <c r="R5">
-        <v>0.9933700508189237</v>
+        <v>1.008703168645856</v>
       </c>
       <c r="S5">
-        <v>0.9700339661095102</v>
+        <v>0.8968334971169462</v>
       </c>
       <c r="T5">
-        <v>0.9933700508189237</v>
+        <v>1.008703168645856</v>
       </c>
       <c r="U5">
-        <v>0.9891552386275213</v>
+        <v>0.9824637476460705</v>
       </c>
       <c r="V5">
-        <v>1.000628002138328</v>
+        <v>1.033841897963545</v>
       </c>
       <c r="W5">
-        <v>0.9920379002314477</v>
+        <v>0.97994288768743</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7634006996762543</v>
+        <v>0.9096489231674431</v>
       </c>
       <c r="D6">
-        <v>1.057842211715283</v>
+        <v>1.031882838794195</v>
       </c>
       <c r="E6">
-        <v>0.9234264298596055</v>
+        <v>0.9658390619108757</v>
       </c>
       <c r="F6">
-        <v>1.155071307564205</v>
+        <v>1.053698775839675</v>
       </c>
       <c r="G6">
-        <v>1.109240307005956</v>
+        <v>1.096617829388203</v>
       </c>
       <c r="H6">
-        <v>1.109240307005956</v>
+        <v>1.096617829388203</v>
       </c>
       <c r="I6">
-        <v>1.109240307005956</v>
+        <v>1.096617829388203</v>
       </c>
       <c r="J6">
-        <v>1.176182004654559</v>
+        <v>1.038181789542507</v>
       </c>
       <c r="K6">
-        <v>0.6262722612710234</v>
+        <v>0.8681785816471163</v>
       </c>
       <c r="L6">
-        <v>0.6262722612710234</v>
+        <v>0.8681785816471163</v>
       </c>
       <c r="M6">
-        <v>0.9644777645922072</v>
+        <v>0.9704943620758754</v>
       </c>
       <c r="N6">
-        <v>1.109240307005956</v>
+        <v>1.096617829388203</v>
       </c>
       <c r="O6">
-        <v>1.176182004654559</v>
+        <v>1.038181789542507</v>
       </c>
       <c r="P6">
-        <v>0.9012271329627914</v>
+        <v>0.9531801855948117</v>
       </c>
       <c r="Q6">
-        <v>1.049804217257083</v>
+        <v>1.002010425726691</v>
       </c>
       <c r="R6">
-        <v>0.9705648576438461</v>
+        <v>1.000992733525942</v>
       </c>
       <c r="S6">
-        <v>0.9086268985950628</v>
+        <v>0.9573998110334996</v>
       </c>
       <c r="T6">
-        <v>0.9705648576438461</v>
+        <v>1.000992733525942</v>
       </c>
       <c r="U6">
-        <v>0.9587802506977861</v>
+        <v>0.9922043156221754</v>
       </c>
       <c r="V6">
-        <v>0.9888722619594199</v>
+        <v>1.013087018375381</v>
       </c>
       <c r="W6">
-        <v>0.9719891232923867</v>
+        <v>0.9918177702957363</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9933863362670049</v>
+        <v>0.9291179567435147</v>
       </c>
       <c r="D7">
-        <v>1.003657232508415</v>
+        <v>1.02012026463977</v>
       </c>
       <c r="E7">
-        <v>0.9976823095484235</v>
+        <v>0.9765108020533143</v>
       </c>
       <c r="F7">
-        <v>1.003210274467359</v>
+        <v>1.044455468609508</v>
       </c>
       <c r="G7">
-        <v>1.0112195200874</v>
+        <v>1.046519056181554</v>
       </c>
       <c r="H7">
-        <v>1.0112195200874</v>
+        <v>1.046519056181554</v>
       </c>
       <c r="I7">
-        <v>1.0112195200874</v>
+        <v>1.046519056181554</v>
       </c>
       <c r="J7">
-        <v>0.9998611476983256</v>
+        <v>1.044585316037463</v>
       </c>
       <c r="K7">
-        <v>0.9905126237497666</v>
+        <v>0.889005780237754</v>
       </c>
       <c r="L7">
-        <v>0.9905126237497666</v>
+        <v>0.889005780237754</v>
       </c>
       <c r="M7">
-        <v>0.9965419623808349</v>
+        <v>0.9859885573487034</v>
       </c>
       <c r="N7">
-        <v>1.0112195200874</v>
+        <v>1.046519056181554</v>
       </c>
       <c r="O7">
-        <v>0.9998611476983256</v>
+        <v>1.044585316037463</v>
       </c>
       <c r="P7">
-        <v>0.995186885724046</v>
+        <v>0.9667955481376083</v>
       </c>
       <c r="Q7">
-        <v>0.9987717286233746</v>
+        <v>1.010548059045388</v>
       </c>
       <c r="R7">
-        <v>1.000531097178498</v>
+        <v>0.9933700508189237</v>
       </c>
       <c r="S7">
-        <v>0.9960186936655052</v>
+        <v>0.9700339661095102</v>
       </c>
       <c r="T7">
-        <v>1.000531097178498</v>
+        <v>0.9933700508189237</v>
       </c>
       <c r="U7">
-        <v>0.999818900270979</v>
+        <v>0.9891552386275213</v>
       </c>
       <c r="V7">
-        <v>1.002099024234263</v>
+        <v>1.000628002138328</v>
       </c>
       <c r="W7">
-        <v>0.9995089258384413</v>
+        <v>0.9920379002314477</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9994071531897171</v>
+        <v>0.7634006996762543</v>
       </c>
       <c r="D8">
-        <v>1.000282921522341</v>
+        <v>1.057842211715283</v>
       </c>
       <c r="E8">
-        <v>1.000016789505508</v>
+        <v>0.9234264298596055</v>
       </c>
       <c r="F8">
-        <v>1.000272979213183</v>
+        <v>1.155071307564205</v>
       </c>
       <c r="G8">
-        <v>1.000135937594402</v>
+        <v>1.109240307005956</v>
       </c>
       <c r="H8">
-        <v>1.000135937594402</v>
+        <v>1.109240307005956</v>
       </c>
       <c r="I8">
-        <v>1.000135937594402</v>
+        <v>1.109240307005956</v>
       </c>
       <c r="J8">
-        <v>1.000278179579533</v>
+        <v>1.176182004654559</v>
       </c>
       <c r="K8">
-        <v>0.9987035572099884</v>
+        <v>0.6262722612710234</v>
       </c>
       <c r="L8">
-        <v>0.9987035572099884</v>
+        <v>0.6262722612710234</v>
       </c>
       <c r="M8">
-        <v>0.9999921720315632</v>
+        <v>0.9644777645922072</v>
       </c>
       <c r="N8">
-        <v>1.000135937594402</v>
+        <v>1.109240307005956</v>
       </c>
       <c r="O8">
-        <v>1.000278179579533</v>
+        <v>1.176182004654559</v>
       </c>
       <c r="P8">
-        <v>0.9994908683947605</v>
+        <v>0.9012271329627914</v>
       </c>
       <c r="Q8">
-        <v>1.00014748454252</v>
+        <v>1.049804217257083</v>
       </c>
       <c r="R8">
-        <v>0.9997058914613076</v>
+        <v>0.9705648576438461</v>
       </c>
       <c r="S8">
-        <v>0.9996661754316764</v>
+        <v>0.9086268985950628</v>
       </c>
       <c r="T8">
-        <v>0.9997058914613076</v>
+        <v>0.9705648576438461</v>
       </c>
       <c r="U8">
-        <v>0.9997836159723577</v>
+        <v>0.9587802506977861</v>
       </c>
       <c r="V8">
-        <v>0.9998540802967664</v>
+        <v>0.9888722619594199</v>
       </c>
       <c r="W8">
-        <v>0.9998862112307794</v>
+        <v>0.9719891232923867</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9892523666078221</v>
+        <v>0.9933863362670049</v>
       </c>
       <c r="D9">
-        <v>1.005502931367238</v>
+        <v>1.003657232508415</v>
       </c>
       <c r="E9">
-        <v>0.9962814640006342</v>
+        <v>0.9976823095484235</v>
       </c>
       <c r="F9">
-        <v>1.005348167382216</v>
+        <v>1.003210274467359</v>
       </c>
       <c r="G9">
-        <v>1.016764531306731</v>
+        <v>1.0112195200874</v>
       </c>
       <c r="H9">
-        <v>1.016764531306731</v>
+        <v>1.0112195200874</v>
       </c>
       <c r="I9">
-        <v>1.016764531306731</v>
+        <v>1.0112195200874</v>
       </c>
       <c r="J9">
-        <v>1.000729919673267</v>
+        <v>0.9998611476983256</v>
       </c>
       <c r="K9">
-        <v>0.984219402780832</v>
+        <v>0.9905126237497666</v>
       </c>
       <c r="L9">
-        <v>0.984219402780832</v>
+        <v>0.9905126237497666</v>
       </c>
       <c r="M9">
-        <v>0.9949813394367369</v>
+        <v>0.9965419623808349</v>
       </c>
       <c r="N9">
-        <v>1.016764531306731</v>
+        <v>1.0112195200874</v>
       </c>
       <c r="O9">
-        <v>1.000729919673267</v>
+        <v>0.9998611476983256</v>
       </c>
       <c r="P9">
-        <v>0.9924746612270493</v>
+        <v>0.995186885724046</v>
       </c>
       <c r="Q9">
-        <v>0.9985056918369504</v>
+        <v>0.9987717286233746</v>
       </c>
       <c r="R9">
-        <v>1.000571284586943</v>
+        <v>1.000531097178498</v>
       </c>
       <c r="S9">
-        <v>0.993743595484911</v>
+        <v>0.9960186936655052</v>
       </c>
       <c r="T9">
-        <v>1.000571284586943</v>
+        <v>1.000531097178498</v>
       </c>
       <c r="U9">
-        <v>0.9994988294403658</v>
+        <v>0.999818900270979</v>
       </c>
       <c r="V9">
-        <v>1.002951969813639</v>
+        <v>1.002099024234263</v>
       </c>
       <c r="W9">
-        <v>0.9991350153194345</v>
+        <v>0.9995089258384413</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7595059371072382</v>
+        <v>0.9994071531897171</v>
       </c>
       <c r="D10">
-        <v>1.058158943493794</v>
+        <v>1.000282921522341</v>
       </c>
       <c r="E10">
-        <v>0.9220707749319768</v>
+        <v>1.000016789505508</v>
       </c>
       <c r="F10">
-        <v>1.157901533088965</v>
+        <v>1.000272979213183</v>
       </c>
       <c r="G10">
-        <v>1.109284061402891</v>
+        <v>1.000135937594402</v>
       </c>
       <c r="H10">
-        <v>1.109284061402891</v>
+        <v>1.000135937594402</v>
       </c>
       <c r="I10">
-        <v>1.109284061402891</v>
+        <v>1.000135937594402</v>
       </c>
       <c r="J10">
-        <v>1.18039527554535</v>
+        <v>1.000278179579533</v>
       </c>
       <c r="K10">
-        <v>0.6199667690915767</v>
+        <v>0.9987035572099884</v>
       </c>
       <c r="L10">
-        <v>0.6199667690915767</v>
+        <v>0.9987035572099884</v>
       </c>
       <c r="M10">
-        <v>0.9645427618426494</v>
+        <v>0.9999921720315632</v>
       </c>
       <c r="N10">
-        <v>1.109284061402891</v>
+        <v>1.000135937594402</v>
       </c>
       <c r="O10">
-        <v>1.18039527554535</v>
+        <v>1.000278179579533</v>
       </c>
       <c r="P10">
-        <v>0.9001810223184632</v>
+        <v>0.9994908683947605</v>
       </c>
       <c r="Q10">
-        <v>1.051233025238663</v>
+        <v>1.00014748454252</v>
       </c>
       <c r="R10">
-        <v>0.9698820353466059</v>
+        <v>0.9997058914613076</v>
       </c>
       <c r="S10">
-        <v>0.9074776065229676</v>
+        <v>0.9996661754316764</v>
       </c>
       <c r="T10">
-        <v>0.9698820353466059</v>
+        <v>0.9997058914613076</v>
       </c>
       <c r="U10">
-        <v>0.9579292202429486</v>
+        <v>0.9997836159723577</v>
       </c>
       <c r="V10">
-        <v>0.9882001884749372</v>
+        <v>0.9998540802967664</v>
       </c>
       <c r="W10">
-        <v>0.9714782570630551</v>
+        <v>0.9998862112307794</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9575432156080381</v>
+        <v>0.9892523666078221</v>
       </c>
       <c r="D11">
-        <v>1.017155768665251</v>
+        <v>1.005502931367238</v>
       </c>
       <c r="E11">
-        <v>0.9809869377061212</v>
+        <v>0.9962814640006342</v>
       </c>
       <c r="F11">
-        <v>1.025359805803733</v>
+        <v>1.005348167382216</v>
       </c>
       <c r="G11">
-        <v>1.060459748977564</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="H11">
-        <v>1.060459748977564</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="I11">
-        <v>1.060459748977564</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="J11">
-        <v>1.011941675500995</v>
+        <v>1.000729919673267</v>
       </c>
       <c r="K11">
-        <v>0.945731409254036</v>
+        <v>0.984219402780832</v>
       </c>
       <c r="L11">
-        <v>0.945731409254036</v>
+        <v>0.984219402780832</v>
       </c>
       <c r="M11">
-        <v>0.9797661661113223</v>
+        <v>0.9949813394367369</v>
       </c>
       <c r="N11">
-        <v>1.060459748977564</v>
+        <v>1.016764531306731</v>
       </c>
       <c r="O11">
-        <v>1.011941675500995</v>
+        <v>1.000729919673267</v>
       </c>
       <c r="P11">
-        <v>0.9788365423775156</v>
+        <v>0.9924746612270493</v>
       </c>
       <c r="Q11">
-        <v>0.9964643066035581</v>
+        <v>0.9985056918369504</v>
       </c>
       <c r="R11">
-        <v>1.006044277910865</v>
+        <v>1.000571284586943</v>
       </c>
       <c r="S11">
-        <v>0.9795533408203841</v>
+        <v>0.993743595484911</v>
       </c>
       <c r="T11">
-        <v>1.006044277910865</v>
+        <v>1.000571284586943</v>
       </c>
       <c r="U11">
-        <v>0.9997799428596792</v>
+        <v>0.9994988294403658</v>
       </c>
       <c r="V11">
-        <v>1.011915904083256</v>
+        <v>1.002951969813639</v>
       </c>
       <c r="W11">
-        <v>0.9973680909533826</v>
+        <v>0.9991350153194345</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9266773381263157</v>
+        <v>0.7595059371072382</v>
       </c>
       <c r="D12">
-        <v>1.016713702557894</v>
+        <v>1.058158943493794</v>
       </c>
       <c r="E12">
-        <v>0.9756137258631566</v>
+        <v>0.9220707749319768</v>
       </c>
       <c r="F12">
-        <v>1.047966981273682</v>
+        <v>1.157901533088965</v>
       </c>
       <c r="G12">
-        <v>1.034264758463158</v>
+        <v>1.109284061402891</v>
       </c>
       <c r="H12">
-        <v>1.034264758463158</v>
+        <v>1.109284061402891</v>
       </c>
       <c r="I12">
-        <v>1.034264758463158</v>
+        <v>1.109284061402891</v>
       </c>
       <c r="J12">
-        <v>1.055486558589472</v>
+        <v>1.18039527554535</v>
       </c>
       <c r="K12">
-        <v>0.8836260383368416</v>
+        <v>0.6199667690915767</v>
       </c>
       <c r="L12">
-        <v>0.8836260383368416</v>
+        <v>0.6199667690915767</v>
       </c>
       <c r="M12">
-        <v>0.9901207649684197</v>
+        <v>0.9645427618426494</v>
       </c>
       <c r="N12">
-        <v>1.034264758463158</v>
+        <v>1.109284061402891</v>
       </c>
       <c r="O12">
-        <v>1.055486558589472</v>
+        <v>1.18039527554535</v>
       </c>
       <c r="P12">
-        <v>0.9695562984631567</v>
+        <v>0.9001810223184632</v>
       </c>
       <c r="Q12">
-        <v>1.015550142226314</v>
+        <v>1.051233025238663</v>
       </c>
       <c r="R12">
-        <v>0.9911257851298236</v>
+        <v>0.9698820353466059</v>
       </c>
       <c r="S12">
-        <v>0.9715754409298234</v>
+        <v>0.9074776065229676</v>
       </c>
       <c r="T12">
-        <v>0.9911257851298236</v>
+        <v>0.9698820353466059</v>
       </c>
       <c r="U12">
-        <v>0.9872477703131569</v>
+        <v>0.9579292202429486</v>
       </c>
       <c r="V12">
-        <v>0.9966511679431571</v>
+        <v>0.9882001884749372</v>
       </c>
       <c r="W12">
-        <v>0.9913087335223674</v>
+        <v>0.9714782570630551</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.043487418475062</v>
+        <v>0.9575432156080381</v>
       </c>
       <c r="D13">
-        <v>0.9848227026736269</v>
+        <v>1.017155768665251</v>
       </c>
       <c r="E13">
-        <v>1.014764920246325</v>
+        <v>0.9809869377061212</v>
       </c>
       <c r="F13">
-        <v>0.9740807280127584</v>
+        <v>1.025359805803733</v>
       </c>
       <c r="G13">
-        <v>0.9603851835183232</v>
+        <v>1.060459748977564</v>
       </c>
       <c r="H13">
-        <v>0.9603851835183232</v>
+        <v>1.060459748977564</v>
       </c>
       <c r="I13">
-        <v>0.9603851835183232</v>
+        <v>1.060459748977564</v>
       </c>
       <c r="J13">
-        <v>0.9795660473333295</v>
+        <v>1.011941675500995</v>
       </c>
       <c r="K13">
-        <v>1.066328163559763</v>
+        <v>0.945731409254036</v>
       </c>
       <c r="L13">
-        <v>1.066328163559763</v>
+        <v>0.945731409254036</v>
       </c>
       <c r="M13">
-        <v>1.012215343670952</v>
+        <v>0.9797661661113223</v>
       </c>
       <c r="N13">
-        <v>0.9603851835183232</v>
+        <v>1.060459748977564</v>
       </c>
       <c r="O13">
-        <v>0.9795660473333295</v>
+        <v>1.011941675500995</v>
       </c>
       <c r="P13">
-        <v>1.022947105446546</v>
+        <v>0.9788365423775156</v>
       </c>
       <c r="Q13">
-        <v>0.9971654837898274</v>
+        <v>0.9964643066035581</v>
       </c>
       <c r="R13">
-        <v>1.002093131470472</v>
+        <v>1.006044277910865</v>
       </c>
       <c r="S13">
-        <v>1.020219710379806</v>
+        <v>0.9795533408203841</v>
       </c>
       <c r="T13">
-        <v>1.002093131470472</v>
+        <v>1.006044277910865</v>
       </c>
       <c r="U13">
-        <v>1.005261078664435</v>
+        <v>0.9997799428596792</v>
       </c>
       <c r="V13">
-        <v>0.9962858996352129</v>
+        <v>1.011915904083256</v>
       </c>
       <c r="W13">
-        <v>1.004456313436267</v>
+        <v>0.9973680909533826</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5835660400000007</v>
+        <v>0.9266773381263157</v>
       </c>
       <c r="D14">
-        <v>1.100097199999999</v>
+        <v>1.016713702557894</v>
       </c>
       <c r="E14">
-        <v>0.8654664700000008</v>
+        <v>0.9756137258631566</v>
       </c>
       <c r="F14">
-        <v>1.274408899999999</v>
+        <v>1.047966981273682</v>
       </c>
       <c r="G14">
-        <v>1.183405100000001</v>
+        <v>1.034264758463158</v>
       </c>
       <c r="H14">
-        <v>1.183405100000001</v>
+        <v>1.034264758463158</v>
       </c>
       <c r="I14">
-        <v>1.183405100000001</v>
+        <v>1.034264758463158</v>
       </c>
       <c r="J14">
-        <v>1.315509199999998</v>
+        <v>1.055486558589472</v>
       </c>
       <c r="K14">
-        <v>0.3422105699999997</v>
+        <v>0.8836260383368416</v>
       </c>
       <c r="L14">
-        <v>0.3422105699999997</v>
+        <v>0.8836260383368416</v>
       </c>
       <c r="M14">
-        <v>0.9392734700000017</v>
+        <v>0.9901207649684197</v>
       </c>
       <c r="N14">
-        <v>1.183405100000001</v>
+        <v>1.034264758463158</v>
       </c>
       <c r="O14">
-        <v>1.315509199999998</v>
+        <v>1.055486558589472</v>
       </c>
       <c r="P14">
-        <v>0.8288598849999991</v>
+        <v>0.9695562984631567</v>
       </c>
       <c r="Q14">
-        <v>1.090487835</v>
+        <v>1.015550142226314</v>
       </c>
       <c r="R14">
-        <v>0.9470416233333331</v>
+        <v>0.9911257851298236</v>
       </c>
       <c r="S14">
-        <v>0.8410620799999996</v>
+        <v>0.9715754409298234</v>
       </c>
       <c r="T14">
-        <v>0.9470416233333331</v>
+        <v>0.9911257851298236</v>
       </c>
       <c r="U14">
-        <v>0.926647835</v>
+        <v>0.9872477703131569</v>
       </c>
       <c r="V14">
-        <v>0.9779992880000001</v>
+        <v>0.9966511679431571</v>
       </c>
       <c r="W14">
-        <v>0.9504921187500001</v>
+        <v>0.9913087335223674</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4511150999999999</v>
+        <v>1.043487418475062</v>
       </c>
       <c r="D15">
-        <v>1.3998199</v>
+        <v>0.9848227026736269</v>
       </c>
       <c r="E15">
-        <v>0.82918194</v>
+        <v>1.014764920246325</v>
       </c>
       <c r="F15">
-        <v>1.2265952</v>
+        <v>0.9740807280127584</v>
       </c>
       <c r="G15">
-        <v>2.157425</v>
+        <v>0.9603851835183232</v>
       </c>
       <c r="H15">
-        <v>2.157425</v>
+        <v>0.9603851835183232</v>
       </c>
       <c r="I15">
-        <v>2.157425</v>
+        <v>0.9603851835183232</v>
       </c>
       <c r="J15">
-        <v>0.80455108</v>
+        <v>0.9795660473333295</v>
       </c>
       <c r="K15">
-        <v>0.23327132</v>
+        <v>1.066328163559763</v>
       </c>
       <c r="L15">
-        <v>0.23327132</v>
+        <v>1.066328163559763</v>
       </c>
       <c r="M15">
-        <v>0.62072248</v>
+        <v>1.012215343670952</v>
       </c>
       <c r="N15">
-        <v>2.157425</v>
+        <v>0.9603851835183232</v>
       </c>
       <c r="O15">
-        <v>0.80455108</v>
+        <v>0.9795660473333295</v>
       </c>
       <c r="P15">
-        <v>0.5189112</v>
+        <v>1.022947105446546</v>
       </c>
       <c r="Q15">
-        <v>0.81686651</v>
+        <v>0.9971654837898274</v>
       </c>
       <c r="R15">
-        <v>1.065082466666667</v>
+        <v>1.002093131470472</v>
       </c>
       <c r="S15">
-        <v>0.62233478</v>
+        <v>1.020219710379806</v>
       </c>
       <c r="T15">
-        <v>1.065082466666667</v>
+        <v>1.002093131470472</v>
       </c>
       <c r="U15">
-        <v>1.006107335</v>
+        <v>1.005261078664435</v>
       </c>
       <c r="V15">
-        <v>1.236370868</v>
+        <v>0.9962858996352129</v>
       </c>
       <c r="W15">
-        <v>0.9653352525000001</v>
+        <v>1.004456313436267</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.3768648800000001</v>
+        <v>0.5835660400000007</v>
       </c>
       <c r="D16">
-        <v>1.2071827</v>
+        <v>1.100097199999999</v>
       </c>
       <c r="E16">
-        <v>0.72413805</v>
+        <v>0.8654664700000008</v>
       </c>
       <c r="F16">
-        <v>1.3825474</v>
+        <v>1.274408899999999</v>
       </c>
       <c r="G16">
-        <v>1.7583183</v>
+        <v>1.183405100000001</v>
       </c>
       <c r="H16">
-        <v>1.7583183</v>
+        <v>1.183405100000001</v>
       </c>
       <c r="I16">
-        <v>1.7583183</v>
+        <v>1.183405100000001</v>
       </c>
       <c r="J16">
-        <v>1.2625809</v>
+        <v>1.315509199999998</v>
       </c>
       <c r="K16">
-        <v>0.16077021</v>
+        <v>0.3422105699999997</v>
       </c>
       <c r="L16">
-        <v>0.16077021</v>
+        <v>0.3422105699999997</v>
       </c>
       <c r="M16">
-        <v>0.7639211299999999</v>
+        <v>0.9392734700000017</v>
       </c>
       <c r="N16">
-        <v>1.7583183</v>
+        <v>1.183405100000001</v>
       </c>
       <c r="O16">
-        <v>1.2625809</v>
+        <v>1.315509199999998</v>
       </c>
       <c r="P16">
-        <v>0.7116755549999999</v>
+        <v>0.8288598849999991</v>
       </c>
       <c r="Q16">
-        <v>0.9933594749999999</v>
+        <v>1.090487835</v>
       </c>
       <c r="R16">
-        <v>1.06055647</v>
+        <v>0.9470416233333331</v>
       </c>
       <c r="S16">
-        <v>0.7158297199999999</v>
+        <v>0.8410620799999996</v>
       </c>
       <c r="T16">
-        <v>1.06055647</v>
+        <v>0.9470416233333331</v>
       </c>
       <c r="U16">
-        <v>0.9764518649999999</v>
+        <v>0.926647835</v>
       </c>
       <c r="V16">
-        <v>1.132825152</v>
+        <v>0.9779992880000001</v>
       </c>
       <c r="W16">
-        <v>0.95454044625</v>
+        <v>0.9504921187500001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8204790199999999</v>
+        <v>0.4511150999999999</v>
       </c>
       <c r="D17">
-        <v>1.1092923</v>
+        <v>1.3998199</v>
       </c>
       <c r="E17">
-        <v>0.98445046</v>
+        <v>0.82918194</v>
       </c>
       <c r="F17">
-        <v>1.0739027</v>
+        <v>1.2265952</v>
       </c>
       <c r="G17">
-        <v>1.18395</v>
+        <v>2.157425</v>
       </c>
       <c r="H17">
-        <v>1.18395</v>
+        <v>2.157425</v>
       </c>
       <c r="I17">
-        <v>1.18395</v>
+        <v>2.157425</v>
       </c>
       <c r="J17">
-        <v>1.007136</v>
+        <v>0.80455108</v>
       </c>
       <c r="K17">
-        <v>0.6563165200000001</v>
+        <v>0.23327132</v>
       </c>
       <c r="L17">
-        <v>0.6563165200000001</v>
+        <v>0.23327132</v>
       </c>
       <c r="M17">
-        <v>0.9505221699999999</v>
+        <v>0.62072248</v>
       </c>
       <c r="N17">
-        <v>1.18395</v>
+        <v>2.157425</v>
       </c>
       <c r="O17">
-        <v>1.007136</v>
+        <v>0.80455108</v>
       </c>
       <c r="P17">
-        <v>0.8317262600000001</v>
+        <v>0.5189112</v>
       </c>
       <c r="Q17">
-        <v>0.9957932300000001</v>
+        <v>0.81686651</v>
       </c>
       <c r="R17">
-        <v>0.9491341733333334</v>
+        <v>1.065082466666667</v>
       </c>
       <c r="S17">
-        <v>0.8826343266666666</v>
+        <v>0.62233478</v>
       </c>
       <c r="T17">
-        <v>0.9491341733333334</v>
+        <v>1.065082466666667</v>
       </c>
       <c r="U17">
-        <v>0.9579632450000001</v>
+        <v>1.006107335</v>
       </c>
       <c r="V17">
-        <v>1.003160596</v>
+        <v>1.236370868</v>
       </c>
       <c r="W17">
-        <v>0.97325614625</v>
+        <v>0.9653352525000001</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8671396079452055</v>
+        <v>0.3768648800000001</v>
       </c>
       <c r="D18">
-        <v>1.071806261643836</v>
+        <v>1.2071827</v>
       </c>
       <c r="E18">
-        <v>0.9539852597260273</v>
+        <v>0.72413805</v>
       </c>
       <c r="F18">
-        <v>1.064457720547946</v>
+        <v>1.3825474</v>
       </c>
       <c r="G18">
-        <v>1.219908410410959</v>
+        <v>1.7583183</v>
       </c>
       <c r="H18">
-        <v>1.219908410410959</v>
+        <v>1.7583183</v>
       </c>
       <c r="I18">
-        <v>1.219908410410959</v>
+        <v>1.7583183</v>
       </c>
       <c r="J18">
-        <v>1.000584686575342</v>
+        <v>1.2625809</v>
       </c>
       <c r="K18">
-        <v>0.8068983608219181</v>
+        <v>0.16077021</v>
       </c>
       <c r="L18">
-        <v>0.8068983608219181</v>
+        <v>0.16077021</v>
       </c>
       <c r="M18">
-        <v>0.9334656342465755</v>
+        <v>0.7639211299999999</v>
       </c>
       <c r="N18">
-        <v>1.219908410410959</v>
+        <v>1.7583183</v>
       </c>
       <c r="O18">
-        <v>1.000584686575342</v>
+        <v>1.2625809</v>
       </c>
       <c r="P18">
-        <v>0.9037415236986301</v>
+        <v>0.7116755549999999</v>
       </c>
       <c r="Q18">
-        <v>0.9772849731506847</v>
+        <v>0.9933594749999999</v>
       </c>
       <c r="R18">
-        <v>1.009130485936073</v>
+        <v>1.06055647</v>
       </c>
       <c r="S18">
-        <v>0.9204894357077625</v>
+        <v>0.7158297199999999</v>
       </c>
       <c r="T18">
-        <v>1.009130485936073</v>
+        <v>1.06055647</v>
       </c>
       <c r="U18">
-        <v>0.9953441793835618</v>
+        <v>0.9764518649999999</v>
       </c>
       <c r="V18">
-        <v>1.040257025589041</v>
+        <v>1.132825152</v>
       </c>
       <c r="W18">
-        <v>0.9897807427397263</v>
+        <v>0.95454044625</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7051555784210526</v>
+        <v>0.8204790199999999</v>
       </c>
       <c r="D19">
-        <v>1.060169268947368</v>
+        <v>1.1092923</v>
       </c>
       <c r="E19">
-        <v>0.9047324863157896</v>
+        <v>0.98445046</v>
       </c>
       <c r="F19">
-        <v>1.190464578947368</v>
+        <v>1.0739027</v>
       </c>
       <c r="G19">
-        <v>1.12050397</v>
+        <v>1.18395</v>
       </c>
       <c r="H19">
-        <v>1.12050397</v>
+        <v>1.18395</v>
       </c>
       <c r="I19">
-        <v>1.12050397</v>
+        <v>1.18395</v>
       </c>
       <c r="J19">
-        <v>1.232643878947368</v>
+        <v>1.007136</v>
       </c>
       <c r="K19">
-        <v>0.5157660921052631</v>
+        <v>0.6563165200000001</v>
       </c>
       <c r="L19">
-        <v>0.5157660921052631</v>
+        <v>0.6563165200000001</v>
       </c>
       <c r="M19">
-        <v>0.974875287894737</v>
+        <v>0.9505221699999999</v>
       </c>
       <c r="N19">
-        <v>1.12050397</v>
+        <v>1.18395</v>
       </c>
       <c r="O19">
-        <v>1.232643878947368</v>
+        <v>1.007136</v>
       </c>
       <c r="P19">
-        <v>0.8742049855263156</v>
+        <v>0.8317262600000001</v>
       </c>
       <c r="Q19">
-        <v>1.068688182631579</v>
+        <v>0.9957932300000001</v>
       </c>
       <c r="R19">
-        <v>0.9563046470175438</v>
+        <v>0.9491341733333334</v>
       </c>
       <c r="S19">
-        <v>0.884380819122807</v>
+        <v>0.8826343266666666</v>
       </c>
       <c r="T19">
-        <v>0.9563046470175438</v>
+        <v>0.9491341733333334</v>
       </c>
       <c r="U19">
-        <v>0.9434116068421052</v>
+        <v>0.9579632450000001</v>
       </c>
       <c r="V19">
-        <v>0.9788300794736842</v>
+        <v>1.003160596</v>
       </c>
       <c r="W19">
-        <v>0.9630388926973684</v>
+        <v>0.97325614625</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7446285189473685</v>
+        <v>0.8671396079452055</v>
       </c>
       <c r="D20">
-        <v>1.084647864210526</v>
+        <v>1.071806261643836</v>
       </c>
       <c r="E20">
-        <v>0.8995358031578948</v>
+        <v>0.9539852597260273</v>
       </c>
       <c r="F20">
-        <v>1.158401121578948</v>
+        <v>1.064457720547946</v>
       </c>
       <c r="G20">
-        <v>1.256881638947368</v>
+        <v>1.219908410410959</v>
       </c>
       <c r="H20">
-        <v>1.256881638947368</v>
+        <v>1.219908410410959</v>
       </c>
       <c r="I20">
-        <v>1.256881638947368</v>
+        <v>1.219908410410959</v>
       </c>
       <c r="J20">
-        <v>1.122981076842105</v>
+        <v>1.000584686575342</v>
       </c>
       <c r="K20">
-        <v>0.637503872631579</v>
+        <v>0.8068983608219181</v>
       </c>
       <c r="L20">
-        <v>0.637503872631579</v>
+        <v>0.8068983608219181</v>
       </c>
       <c r="M20">
-        <v>0.9163306931578947</v>
+        <v>0.9334656342465755</v>
       </c>
       <c r="N20">
-        <v>1.256881638947368</v>
+        <v>1.219908410410959</v>
       </c>
       <c r="O20">
-        <v>1.122981076842105</v>
+        <v>1.000584686575342</v>
       </c>
       <c r="P20">
-        <v>0.8802424747368423</v>
+        <v>0.9037415236986301</v>
       </c>
       <c r="Q20">
-        <v>1.01125844</v>
+        <v>0.9772849731506847</v>
       </c>
       <c r="R20">
-        <v>1.005788862807018</v>
+        <v>1.009130485936073</v>
       </c>
       <c r="S20">
-        <v>0.8866735842105266</v>
+        <v>0.9204894357077625</v>
       </c>
       <c r="T20">
-        <v>1.005788862807018</v>
+        <v>1.009130485936073</v>
       </c>
       <c r="U20">
-        <v>0.9792255978947368</v>
+        <v>0.9953441793835618</v>
       </c>
       <c r="V20">
-        <v>1.034756806105263</v>
+        <v>1.040257025589041</v>
       </c>
       <c r="W20">
-        <v>0.9776138236842107</v>
+        <v>0.9897807427397263</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9443093510656936</v>
+        <v>0.7051555784210526</v>
       </c>
       <c r="D21">
-        <v>0.9400114006175166</v>
+        <v>1.060169268947368</v>
       </c>
       <c r="E21">
-        <v>0.9839295210114044</v>
+        <v>0.9047324863157896</v>
       </c>
       <c r="F21">
-        <v>1.064927450800309</v>
+        <v>1.190464578947368</v>
       </c>
       <c r="G21">
-        <v>0.7861127358559966</v>
+        <v>1.12050397</v>
       </c>
       <c r="H21">
-        <v>0.7861127358559966</v>
+        <v>1.12050397</v>
       </c>
       <c r="I21">
-        <v>0.7861127358559966</v>
+        <v>1.12050397</v>
       </c>
       <c r="J21">
-        <v>1.199091074229437</v>
+        <v>1.232643878947368</v>
       </c>
       <c r="K21">
-        <v>0.8654670683000033</v>
+        <v>0.5157660921052631</v>
       </c>
       <c r="L21">
-        <v>0.8654670683000033</v>
+        <v>0.5157660921052631</v>
       </c>
       <c r="M21">
-        <v>1.083132371393852</v>
+        <v>0.974875287894737</v>
       </c>
       <c r="N21">
-        <v>0.7861127358559966</v>
+        <v>1.12050397</v>
       </c>
       <c r="O21">
-        <v>1.199091074229437</v>
+        <v>1.232643878947368</v>
       </c>
       <c r="P21">
-        <v>1.03227907126472</v>
+        <v>0.8742049855263156</v>
       </c>
       <c r="Q21">
-        <v>1.091510297620421</v>
+        <v>1.068688182631579</v>
       </c>
       <c r="R21">
-        <v>0.950223626128479</v>
+        <v>0.9563046470175438</v>
       </c>
       <c r="S21">
-        <v>1.016162554513615</v>
+        <v>0.884380819122807</v>
       </c>
       <c r="T21">
-        <v>0.950223626128479</v>
+        <v>0.9563046470175438</v>
       </c>
       <c r="U21">
-        <v>0.9586500998492103</v>
+        <v>0.9434116068421052</v>
       </c>
       <c r="V21">
-        <v>0.9241426270505675</v>
+        <v>0.9788300794736842</v>
       </c>
       <c r="W21">
-        <v>0.9833726216592764</v>
+        <v>0.9630388926973684</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.019218186962218</v>
+        <v>0.7446285189473685</v>
       </c>
       <c r="D22">
-        <v>1.025432234718397</v>
+        <v>1.084647864210526</v>
       </c>
       <c r="E22">
-        <v>1.003998577029389</v>
+        <v>0.8995358031578948</v>
       </c>
       <c r="F22">
-        <v>0.9768914029675525</v>
+        <v>1.158401121578948</v>
       </c>
       <c r="G22">
-        <v>1.090910876987596</v>
+        <v>1.256881638947368</v>
       </c>
       <c r="H22">
-        <v>1.090910876987596</v>
+        <v>1.256881638947368</v>
       </c>
       <c r="I22">
-        <v>1.090910876987596</v>
+        <v>1.256881638947368</v>
       </c>
       <c r="J22">
-        <v>0.9213753074936379</v>
+        <v>1.122981076842105</v>
       </c>
       <c r="K22">
-        <v>1.053476317894017</v>
+        <v>0.637503872631579</v>
       </c>
       <c r="L22">
-        <v>1.053476317894017</v>
+        <v>0.637503872631579</v>
       </c>
       <c r="M22">
-        <v>0.9633449958563002</v>
+        <v>0.9163306931578947</v>
       </c>
       <c r="N22">
-        <v>1.090910876987596</v>
+        <v>1.256881638947368</v>
       </c>
       <c r="O22">
-        <v>0.9213753074936379</v>
+        <v>1.122981076842105</v>
       </c>
       <c r="P22">
-        <v>0.9874258126938273</v>
+        <v>0.8802424747368423</v>
       </c>
       <c r="Q22">
-        <v>0.9626869422615136</v>
+        <v>1.01125844</v>
       </c>
       <c r="R22">
-        <v>1.021920834125084</v>
+        <v>1.005788862807018</v>
       </c>
       <c r="S22">
-        <v>0.992950067472348</v>
+        <v>0.8866735842105266</v>
       </c>
       <c r="T22">
-        <v>1.021920834125084</v>
+        <v>1.005788862807018</v>
       </c>
       <c r="U22">
-        <v>1.01744026985116</v>
+        <v>0.9792255978947368</v>
       </c>
       <c r="V22">
-        <v>1.032134391278448</v>
+        <v>1.034756806105263</v>
       </c>
       <c r="W22">
-        <v>1.006830987488639</v>
+        <v>0.9776138236842107</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.121099826466081</v>
+        <v>0.9443093510656936</v>
       </c>
       <c r="D23">
-        <v>1.002430747304343</v>
+        <v>0.9400114006175166</v>
       </c>
       <c r="E23">
-        <v>1.041978687961073</v>
+        <v>0.9839295210114044</v>
       </c>
       <c r="F23">
-        <v>0.910020293789749</v>
+        <v>1.064927450800309</v>
       </c>
       <c r="G23">
-        <v>1.029052815545128</v>
+        <v>0.7861127358559966</v>
       </c>
       <c r="H23">
-        <v>1.029052815545128</v>
+        <v>0.7861127358559966</v>
       </c>
       <c r="I23">
-        <v>1.029052815545128</v>
+        <v>0.7861127358559966</v>
       </c>
       <c r="J23">
-        <v>0.8480313563145121</v>
+        <v>1.199091074229437</v>
       </c>
       <c r="K23">
-        <v>1.208438615235842</v>
+        <v>0.8654670683000033</v>
       </c>
       <c r="L23">
-        <v>1.208438615235842</v>
+        <v>0.8654670683000033</v>
       </c>
       <c r="M23">
-        <v>0.9811293604538415</v>
+        <v>1.083132371393852</v>
       </c>
       <c r="N23">
-        <v>1.029052815545128</v>
+        <v>0.7861127358559966</v>
       </c>
       <c r="O23">
-        <v>0.8480313563145121</v>
+        <v>1.199091074229437</v>
       </c>
       <c r="P23">
-        <v>1.028234985775177</v>
+        <v>1.03227907126472</v>
       </c>
       <c r="Q23">
-        <v>0.9450050221377926</v>
+        <v>1.091510297620421</v>
       </c>
       <c r="R23">
-        <v>1.028507595698494</v>
+        <v>0.950223626128479</v>
       </c>
       <c r="S23">
-        <v>1.032816219837143</v>
+        <v>1.016162554513615</v>
       </c>
       <c r="T23">
-        <v>1.028507595698494</v>
+        <v>0.950223626128479</v>
       </c>
       <c r="U23">
-        <v>1.031875368764139</v>
+        <v>0.9586500998492103</v>
       </c>
       <c r="V23">
-        <v>1.031310858120337</v>
+        <v>0.9241426270505675</v>
       </c>
       <c r="W23">
-        <v>1.017772712883821</v>
+        <v>0.9833726216592764</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.011653872214887</v>
+        <v>1.019218186962218</v>
       </c>
       <c r="D24">
-        <v>0.9731921456920544</v>
+        <v>1.025432234718397</v>
       </c>
       <c r="E24">
-        <v>1.00103054220385</v>
+        <v>1.003998577029389</v>
       </c>
       <c r="F24">
-        <v>1.002846928100491</v>
+        <v>0.9768914029675525</v>
       </c>
       <c r="G24">
-        <v>0.9253501863210959</v>
+        <v>1.090910876987596</v>
       </c>
       <c r="H24">
-        <v>0.9253501863210959</v>
+        <v>1.090910876987596</v>
       </c>
       <c r="I24">
-        <v>0.9253501863210959</v>
+        <v>1.090910876987596</v>
       </c>
       <c r="J24">
-        <v>1.041642391419102</v>
+        <v>0.9213753074936379</v>
       </c>
       <c r="K24">
-        <v>1.011123206271381</v>
+        <v>1.053476317894017</v>
       </c>
       <c r="L24">
-        <v>1.011123206271381</v>
+        <v>1.053476317894017</v>
       </c>
       <c r="M24">
-        <v>1.027129672452167</v>
+        <v>0.9633449958563002</v>
       </c>
       <c r="N24">
-        <v>0.9253501863210959</v>
+        <v>1.090910876987596</v>
       </c>
       <c r="O24">
-        <v>1.041642391419102</v>
+        <v>0.9213753074936379</v>
       </c>
       <c r="P24">
-        <v>1.026382798845241</v>
+        <v>0.9874258126938273</v>
       </c>
       <c r="Q24">
-        <v>1.021336466811476</v>
+        <v>0.9626869422615136</v>
       </c>
       <c r="R24">
-        <v>0.9927052613371928</v>
+        <v>1.021920834125084</v>
       </c>
       <c r="S24">
-        <v>1.017932046631444</v>
+        <v>0.992950067472348</v>
       </c>
       <c r="T24">
-        <v>0.9927052613371928</v>
+        <v>1.021920834125084</v>
       </c>
       <c r="U24">
-        <v>0.994786581553857</v>
+        <v>1.01744026985116</v>
       </c>
       <c r="V24">
-        <v>0.9808993025073048</v>
+        <v>1.032134391278448</v>
       </c>
       <c r="W24">
-        <v>0.9992461180843784</v>
+        <v>1.006830987488639</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.048559597174507</v>
+        <v>1.121099826466081</v>
       </c>
       <c r="D25">
-        <v>1.029425751830572</v>
+        <v>1.002430747304343</v>
       </c>
       <c r="E25">
-        <v>1.009964475457077</v>
+        <v>1.041978687961073</v>
       </c>
       <c r="F25">
-        <v>0.95488794712036</v>
+        <v>0.910020293789749</v>
       </c>
       <c r="G25">
-        <v>1.120695045832896</v>
+        <v>1.029052815545128</v>
       </c>
       <c r="H25">
-        <v>1.120695045832896</v>
+        <v>1.029052815545128</v>
       </c>
       <c r="I25">
-        <v>1.120695045832896</v>
+        <v>1.029052815545128</v>
       </c>
       <c r="J25">
-        <v>0.8749414482001507</v>
+        <v>0.8480313563145121</v>
       </c>
       <c r="K25">
-        <v>1.114912747444406</v>
+        <v>1.208438615235842</v>
       </c>
       <c r="L25">
-        <v>1.114912747444406</v>
+        <v>1.208438615235842</v>
       </c>
       <c r="M25">
-        <v>0.9495843473075586</v>
+        <v>0.9811293604538415</v>
       </c>
       <c r="N25">
-        <v>1.120695045832896</v>
+        <v>1.029052815545128</v>
       </c>
       <c r="O25">
-        <v>0.8749414482001507</v>
+        <v>0.8480313563145121</v>
       </c>
       <c r="P25">
-        <v>0.9949270978222784</v>
+        <v>1.028234985775177</v>
       </c>
       <c r="Q25">
-        <v>0.9424529618286137</v>
+        <v>0.9450050221377926</v>
       </c>
       <c r="R25">
-        <v>1.036849747159151</v>
+        <v>1.028507595698494</v>
       </c>
       <c r="S25">
-        <v>0.9999395570338777</v>
+        <v>1.032816219837143</v>
       </c>
       <c r="T25">
-        <v>1.036849747159151</v>
+        <v>1.028507595698494</v>
       </c>
       <c r="U25">
-        <v>1.030128429233632</v>
+        <v>1.031875368764139</v>
       </c>
       <c r="V25">
-        <v>1.048241752553485</v>
+        <v>1.031310858120337</v>
       </c>
       <c r="W25">
-        <v>1.012871420045941</v>
+        <v>1.017772712883821</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9915000196836785</v>
+        <v>1.011653872214887</v>
       </c>
       <c r="D26">
-        <v>0.9849426755539294</v>
+        <v>0.9731921456920544</v>
       </c>
       <c r="E26">
-        <v>1.003680113288748</v>
+        <v>1.00103054220385</v>
       </c>
       <c r="F26">
-        <v>1.007665716669143</v>
+        <v>1.002846928100491</v>
       </c>
       <c r="G26">
-        <v>0.940333488648821</v>
+        <v>0.9253501863210959</v>
       </c>
       <c r="H26">
-        <v>0.940333488648821</v>
+        <v>0.9253501863210959</v>
       </c>
       <c r="I26">
-        <v>0.940333488648821</v>
+        <v>0.9253501863210959</v>
       </c>
       <c r="J26">
-        <v>1.042119200074225</v>
+        <v>1.041642391419102</v>
       </c>
       <c r="K26">
-        <v>0.9587770631887965</v>
+        <v>1.011123206271381</v>
       </c>
       <c r="L26">
-        <v>0.9587770631887965</v>
+        <v>1.011123206271381</v>
       </c>
       <c r="M26">
-        <v>1.028784504739448</v>
+        <v>1.027129672452167</v>
       </c>
       <c r="N26">
-        <v>0.940333488648821</v>
+        <v>0.9253501863210959</v>
       </c>
       <c r="O26">
-        <v>1.042119200074225</v>
+        <v>1.041642391419102</v>
       </c>
       <c r="P26">
-        <v>1.000448131631511</v>
+        <v>1.026382798845241</v>
       </c>
       <c r="Q26">
-        <v>1.022899656681487</v>
+        <v>1.021336466811476</v>
       </c>
       <c r="R26">
-        <v>0.9804099173039477</v>
+        <v>0.9927052613371928</v>
       </c>
       <c r="S26">
-        <v>1.00152545885059</v>
+        <v>1.017932046631444</v>
       </c>
       <c r="T26">
-        <v>0.9804099173039477</v>
+        <v>0.9927052613371928</v>
       </c>
       <c r="U26">
-        <v>0.9862274663001477</v>
+        <v>0.994786581553857</v>
       </c>
       <c r="V26">
-        <v>0.9770486707698824</v>
+        <v>0.9808993025073048</v>
       </c>
       <c r="W26">
-        <v>0.9947253477308489</v>
+        <v>0.9992461180843784</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9784866171187694</v>
+        <v>1.048559597174507</v>
       </c>
       <c r="D27">
-        <v>1.008370682216592</v>
+        <v>1.029425751830572</v>
       </c>
       <c r="E27">
-        <v>0.988517652051378</v>
+        <v>1.009964475457077</v>
       </c>
       <c r="F27">
-        <v>1.016219640118079</v>
+        <v>0.95488794712036</v>
       </c>
       <c r="G27">
-        <v>1.025290401903346</v>
+        <v>1.120695045832896</v>
       </c>
       <c r="H27">
-        <v>1.025290401903346</v>
+        <v>1.120695045832896</v>
       </c>
       <c r="I27">
-        <v>1.025290401903346</v>
+        <v>1.120695045832896</v>
       </c>
       <c r="J27">
-        <v>1.010225248292476</v>
+        <v>0.8749414482001507</v>
       </c>
       <c r="K27">
-        <v>0.9810484054479265</v>
+        <v>1.114912747444406</v>
       </c>
       <c r="L27">
-        <v>0.9810484054479265</v>
+        <v>1.114912747444406</v>
       </c>
       <c r="M27">
-        <v>0.9864832632323143</v>
+        <v>0.9495843473075586</v>
       </c>
       <c r="N27">
-        <v>1.025290401903346</v>
+        <v>1.120695045832896</v>
       </c>
       <c r="O27">
-        <v>1.010225248292476</v>
+        <v>0.8749414482001507</v>
       </c>
       <c r="P27">
-        <v>0.9956368268702014</v>
+        <v>0.9949270978222784</v>
       </c>
       <c r="Q27">
-        <v>0.9993714501719271</v>
+        <v>0.9424529618286137</v>
       </c>
       <c r="R27">
-        <v>1.00552135188125</v>
+        <v>1.036849747159151</v>
       </c>
       <c r="S27">
-        <v>0.9932637685972603</v>
+        <v>0.9999395570338777</v>
       </c>
       <c r="T27">
-        <v>1.00552135188125</v>
+        <v>1.036849747159151</v>
       </c>
       <c r="U27">
-        <v>1.001270426923782</v>
+        <v>1.030128429233632</v>
       </c>
       <c r="V27">
-        <v>1.006074421919695</v>
+        <v>1.048241752553485</v>
       </c>
       <c r="W27">
-        <v>0.9993302387976102</v>
+        <v>1.012871420045941</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9735090803331943</v>
+        <v>0.9915000196836785</v>
       </c>
       <c r="D28">
-        <v>1.006673564291857</v>
+        <v>0.9849426755539294</v>
       </c>
       <c r="E28">
-        <v>0.9844439554057631</v>
+        <v>1.003680113288748</v>
       </c>
       <c r="F28">
-        <v>1.017228998004731</v>
+        <v>1.007665716669143</v>
       </c>
       <c r="G28">
-        <v>1.0388049669224</v>
+        <v>0.940333488648821</v>
       </c>
       <c r="H28">
-        <v>1.0388049669224</v>
+        <v>0.940333488648821</v>
       </c>
       <c r="I28">
-        <v>1.0388049669224</v>
+        <v>0.940333488648821</v>
       </c>
       <c r="J28">
-        <v>1.011750884460101</v>
+        <v>1.042119200074225</v>
       </c>
       <c r="K28">
-        <v>0.9698449742054086</v>
+        <v>0.9587770631887965</v>
       </c>
       <c r="L28">
-        <v>0.9698449742054086</v>
+        <v>0.9587770631887965</v>
       </c>
       <c r="M28">
-        <v>0.9886292071114462</v>
+        <v>1.028784504739448</v>
       </c>
       <c r="N28">
-        <v>1.0388049669224</v>
+        <v>0.940333488648821</v>
       </c>
       <c r="O28">
-        <v>1.011750884460101</v>
+        <v>1.042119200074225</v>
       </c>
       <c r="P28">
-        <v>0.9907979293327547</v>
+        <v>1.000448131631511</v>
       </c>
       <c r="Q28">
-        <v>0.998097419932932</v>
+        <v>1.022899656681487</v>
       </c>
       <c r="R28">
-        <v>1.006800275195969</v>
+        <v>0.9804099173039477</v>
       </c>
       <c r="S28">
-        <v>0.9886799380237575</v>
+        <v>1.00152545885059</v>
       </c>
       <c r="T28">
-        <v>1.00680027519597</v>
+        <v>0.9804099173039477</v>
       </c>
       <c r="U28">
-        <v>1.001211195248418</v>
+        <v>0.9862274663001477</v>
       </c>
       <c r="V28">
-        <v>1.008729949583214</v>
+        <v>0.9770486707698824</v>
       </c>
       <c r="W28">
-        <v>0.9988607038418625</v>
+        <v>0.9947253477308489</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9784866171187694</v>
+      </c>
+      <c r="D29">
+        <v>1.008370682216592</v>
+      </c>
+      <c r="E29">
+        <v>0.988517652051378</v>
+      </c>
+      <c r="F29">
+        <v>1.016219640118079</v>
+      </c>
+      <c r="G29">
+        <v>1.025290401903346</v>
+      </c>
+      <c r="H29">
+        <v>1.025290401903346</v>
+      </c>
+      <c r="I29">
+        <v>1.025290401903346</v>
+      </c>
+      <c r="J29">
+        <v>1.010225248292476</v>
+      </c>
+      <c r="K29">
+        <v>0.9810484054479265</v>
+      </c>
+      <c r="L29">
+        <v>0.9810484054479265</v>
+      </c>
+      <c r="M29">
+        <v>0.9864832632323143</v>
+      </c>
+      <c r="N29">
+        <v>1.025290401903346</v>
+      </c>
+      <c r="O29">
+        <v>1.010225248292476</v>
+      </c>
+      <c r="P29">
+        <v>0.9956368268702014</v>
+      </c>
+      <c r="Q29">
+        <v>0.9993714501719271</v>
+      </c>
+      <c r="R29">
+        <v>1.00552135188125</v>
+      </c>
+      <c r="S29">
+        <v>0.9932637685972603</v>
+      </c>
+      <c r="T29">
+        <v>1.00552135188125</v>
+      </c>
+      <c r="U29">
+        <v>1.001270426923782</v>
+      </c>
+      <c r="V29">
+        <v>1.006074421919695</v>
+      </c>
+      <c r="W29">
+        <v>0.9993302387976102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9735090803331943</v>
+      </c>
+      <c r="D30">
+        <v>1.006673564291857</v>
+      </c>
+      <c r="E30">
+        <v>0.9844439554057631</v>
+      </c>
+      <c r="F30">
+        <v>1.017228998004731</v>
+      </c>
+      <c r="G30">
+        <v>1.0388049669224</v>
+      </c>
+      <c r="H30">
+        <v>1.0388049669224</v>
+      </c>
+      <c r="I30">
+        <v>1.0388049669224</v>
+      </c>
+      <c r="J30">
+        <v>1.011750884460101</v>
+      </c>
+      <c r="K30">
+        <v>0.9698449742054086</v>
+      </c>
+      <c r="L30">
+        <v>0.9698449742054086</v>
+      </c>
+      <c r="M30">
+        <v>0.9886292071114462</v>
+      </c>
+      <c r="N30">
+        <v>1.0388049669224</v>
+      </c>
+      <c r="O30">
+        <v>1.011750884460101</v>
+      </c>
+      <c r="P30">
+        <v>0.9907979293327547</v>
+      </c>
+      <c r="Q30">
+        <v>0.998097419932932</v>
+      </c>
+      <c r="R30">
+        <v>1.006800275195969</v>
+      </c>
+      <c r="S30">
+        <v>0.9886799380237575</v>
+      </c>
+      <c r="T30">
+        <v>1.00680027519597</v>
+      </c>
+      <c r="U30">
+        <v>1.001211195248418</v>
+      </c>
+      <c r="V30">
+        <v>1.008729949583214</v>
+      </c>
+      <c r="W30">
+        <v>0.9988607038418625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.052694225096709</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.011816659594402</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.035770685897295</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9509163744030563</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9991287781189778</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9991287781189778</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9991287781189778</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9181375634241195</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.057919932967258</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.057919932967258</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.000980766683897</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9991287781189778</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9181375634241195</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9880287481956886</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9769541246607072</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9917287581701184</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.003942727429558</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9917287581701184</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.002739240101913</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.002017147705326</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.003420623273214</v>
       </c>
     </row>
